--- a/results/Hyperparameter_Tuning/Graph_Embedding_NN Classifier.xlsx
+++ b/results/Hyperparameter_Tuning/Graph_Embedding_NN Classifier.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14295" windowHeight="6645" firstSheet="3" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14295" windowHeight="6645" firstSheet="3" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="deepwalk" sheetId="16" r:id="rId1"/>
@@ -21,12 +21,13 @@
     <sheet name="GraRep" sheetId="18" r:id="rId7"/>
     <sheet name="SDNE" sheetId="13" r:id="rId8"/>
     <sheet name="VAE" sheetId="26" r:id="rId9"/>
-    <sheet name="Summary" sheetId="17" r:id="rId10"/>
-    <sheet name="ripple2vec" sheetId="27" r:id="rId11"/>
-    <sheet name="SDNE_ExptVerifiedDataset" sheetId="20" r:id="rId12"/>
-    <sheet name="struc2vec_ExptVerifiedDataset" sheetId="21" r:id="rId13"/>
-    <sheet name="SDNE_LinkPrediction" sheetId="24" r:id="rId14"/>
-    <sheet name="struc2vec_LinkPrediction" sheetId="25" r:id="rId15"/>
+    <sheet name="ripple2vec" sheetId="27" r:id="rId10"/>
+    <sheet name="node2vec_plus" sheetId="28" r:id="rId11"/>
+    <sheet name="Summary" sheetId="17" r:id="rId12"/>
+    <sheet name="SDNE_ExptVerifiedDataset" sheetId="20" r:id="rId13"/>
+    <sheet name="struc2vec_ExptVerifiedDataset" sheetId="21" r:id="rId14"/>
+    <sheet name="SDNE_LinkPrediction" sheetId="24" r:id="rId15"/>
+    <sheet name="struc2vec_LinkPrediction" sheetId="25" r:id="rId16"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="64">
   <si>
     <t>Accuracy</t>
   </si>
@@ -151,10 +152,6 @@
     <t>Tested on experimentally verified dataset</t>
   </si>
   <si>
-    <t>num_walks = 8 , walk_length = 32 
-p = 0.25 , q= 0.5</t>
-  </si>
-  <si>
     <t>Network Reconstruction Dataset</t>
   </si>
   <si>
@@ -210,6 +207,32 @@
   </si>
   <si>
     <t>(Except α = 0.2, β = 0)</t>
+  </si>
+  <si>
+    <t>ripple2vec</t>
+  </si>
+  <si>
+    <t>node2vec+</t>
+  </si>
+  <si>
+    <t>SparseOTF</t>
+  </si>
+  <si>
+    <t>num_walks = 8, walk_length = 8</t>
+  </si>
+  <si>
+    <t>num_walks = 10, walk_length = 20
+p = 2, q =2</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>VAE &lt; GraRep &lt; Deepwalk &lt; node2vec &lt; LINE &lt; ripple2vec &lt; node2vec+ &lt; struc2vec &lt; SDNE</t>
+  </si>
+  <si>
+    <t>num_walks = 8 , walk_length = 32
+p = 0.25 , q= 0.5</t>
   </si>
 </sst>
 </file>
@@ -397,7 +420,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -499,6 +522,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -507,9 +548,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCCECFF"/>
       <color rgb="FFFFCCFF"/>
       <color rgb="FFFFCCCC"/>
-      <color rgb="FFCCECFF"/>
       <color rgb="FFFFFFCC"/>
     </mruColors>
   </colors>
@@ -538,7 +579,63 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-SG"/>
+              <a:t>Graph Embeddings (FNN)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -554,7 +651,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Deepwalk</c:v>
+                  <c:v>SDNE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -605,32 +702,32 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.84189999999999998</c:v>
+                  <c:v>0.96079999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.85019999999999996</c:v>
+                  <c:v>0.98970000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.83360000000000001</c:v>
+                  <c:v>0.93179999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.83650000000000002</c:v>
+                  <c:v>0.93559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.84319999999999995</c:v>
+                  <c:v>0.96189999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.90049999999999997</c:v>
+                  <c:v>0.98899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.88149999999999995</c:v>
+                  <c:v>0.9879</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E615-4207-B675-F60EB4BEEFA5}"/>
+              <c16:uniqueId val="{00000000-A16C-4D41-9387-4DD1648EB5AB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -643,7 +740,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>node2vec</c:v>
+                  <c:v>struc2vec</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -694,32 +791,32 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.86260000000000003</c:v>
+                  <c:v>0.92259999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.89639999999999997</c:v>
+                  <c:v>0.92830000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.82869999999999999</c:v>
+                  <c:v>0.91700000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.83940000000000003</c:v>
+                  <c:v>0.91800000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.86680000000000001</c:v>
+                  <c:v>0.92310000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.91239999999999999</c:v>
+                  <c:v>0.97140000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.87180000000000002</c:v>
+                  <c:v>0.96799999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E615-4207-B675-F60EB4BEEFA5}"/>
+              <c16:uniqueId val="{00000001-A16C-4D41-9387-4DD1648EB5AB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -732,7 +829,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>struc2vec</c:v>
+                  <c:v>node2vec+</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -783,32 +880,32 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.92259999999999998</c:v>
+                  <c:v>0.91259999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.92830000000000001</c:v>
+                  <c:v>0.92020000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.91700000000000004</c:v>
+                  <c:v>0.90490000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.91800000000000004</c:v>
+                  <c:v>0.90639999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.92310000000000003</c:v>
+                  <c:v>0.91320000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.97140000000000004</c:v>
+                  <c:v>0.96399999999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.96799999999999997</c:v>
+                  <c:v>0.95809999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-E615-4207-B675-F60EB4BEEFA5}"/>
+              <c16:uniqueId val="{00000002-A16C-4D41-9387-4DD1648EB5AB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -821,7 +918,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>LINE</c:v>
+                  <c:v>ripple2vec</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -872,32 +969,32 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.88360000000000005</c:v>
+                  <c:v>0.89419999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.86770000000000003</c:v>
+                  <c:v>0.90669999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.89959999999999996</c:v>
+                  <c:v>0.88160000000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.8962</c:v>
+                  <c:v>0.88470000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.88180000000000003</c:v>
+                  <c:v>0.89549999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.93679999999999997</c:v>
+                  <c:v>0.95020000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.94120000000000004</c:v>
+                  <c:v>0.94410000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-E615-4207-B675-F60EB4BEEFA5}"/>
+              <c16:uniqueId val="{00000003-A16C-4D41-9387-4DD1648EB5AB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -910,7 +1007,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SDNE</c:v>
+                  <c:v>LINE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -961,32 +1058,32 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.96079999999999999</c:v>
+                  <c:v>0.88360000000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.98970000000000002</c:v>
+                  <c:v>0.86770000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.93179999999999996</c:v>
+                  <c:v>0.89959999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.93559999999999999</c:v>
+                  <c:v>0.8962</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.96189999999999998</c:v>
+                  <c:v>0.88180000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.98899999999999999</c:v>
+                  <c:v>0.93679999999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.9879</c:v>
+                  <c:v>0.94120000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-E615-4207-B675-F60EB4BEEFA5}"/>
+              <c16:uniqueId val="{00000004-A16C-4D41-9387-4DD1648EB5AB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -999,7 +1096,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>GraRep</c:v>
+                  <c:v>node2vec</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1050,32 +1147,32 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.77059999999999995</c:v>
+                  <c:v>0.86260000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.85109999999999997</c:v>
+                  <c:v>0.89639999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.69010000000000005</c:v>
+                  <c:v>0.82869999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.7339</c:v>
+                  <c:v>0.83940000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.78769999999999996</c:v>
+                  <c:v>0.86680000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.82709999999999995</c:v>
+                  <c:v>0.91239999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.78580000000000005</c:v>
+                  <c:v>0.87180000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-E615-4207-B675-F60EB4BEEFA5}"/>
+              <c16:uniqueId val="{00000005-A16C-4D41-9387-4DD1648EB5AB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1088,7 +1185,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>VAE</c:v>
+                  <c:v>Deepwalk</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1141,6 +1238,188 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>0.84189999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85019999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.83360000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.83650000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.84319999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.90049999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.88149999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-A16C-4D41-9387-4DD1648EB5AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GraRep</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Summary!$B$2:$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sensitivity</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Specificity</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Precision</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>F1-Score</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ROC-AUC</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>PR-AUC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$B$10:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.77059999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85109999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.69010000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7339</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.78769999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.82709999999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.78580000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-A16C-4D41-9387-4DD1648EB5AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VAE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Summary!$B$2:$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sensitivity</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Specificity</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Precision</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>F1-Score</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ROC-AUC</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>PR-AUC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$B$11:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
                   <c:v>0.60070000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -1166,7 +1445,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-E615-4207-B675-F60EB4BEEFA5}"/>
+              <c16:uniqueId val="{00000008-A16C-4D41-9387-4DD1648EB5AB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1180,11 +1459,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1931582096"/>
-        <c:axId val="1931592912"/>
+        <c:axId val="807062768"/>
+        <c:axId val="763647776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1931582096"/>
+        <c:axId val="807062768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1227,7 +1506,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1931592912"/>
+        <c:crossAx val="763647776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1235,7 +1514,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1931592912"/>
+        <c:axId val="763647776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1287,7 +1566,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1931582096"/>
+        <c:crossAx val="807062768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1916,19 +2195,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3365,497 +3644,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="64">
-        <v>0.84189999999999998</v>
-      </c>
-      <c r="C3" s="64">
-        <v>0.85019999999999996</v>
-      </c>
-      <c r="D3" s="64">
-        <v>0.83360000000000001</v>
-      </c>
-      <c r="E3" s="64">
-        <v>0.83650000000000002</v>
-      </c>
-      <c r="F3" s="64">
-        <v>0.84319999999999995</v>
-      </c>
-      <c r="G3" s="64">
-        <v>0.90049999999999997</v>
-      </c>
-      <c r="H3" s="64">
-        <v>0.88149999999999995</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="64">
-        <v>0.86260000000000003</v>
-      </c>
-      <c r="C4" s="64">
-        <v>0.89639999999999997</v>
-      </c>
-      <c r="D4" s="64">
-        <v>0.82869999999999999</v>
-      </c>
-      <c r="E4" s="64">
-        <v>0.83940000000000003</v>
-      </c>
-      <c r="F4" s="64">
-        <v>0.86680000000000001</v>
-      </c>
-      <c r="G4" s="64">
-        <v>0.91239999999999999</v>
-      </c>
-      <c r="H4" s="64">
-        <v>0.87180000000000002</v>
-      </c>
-      <c r="I4" s="42" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="65">
-        <v>0.92259999999999998</v>
-      </c>
-      <c r="C5" s="65">
-        <v>0.92830000000000001</v>
-      </c>
-      <c r="D5" s="65">
-        <v>0.91700000000000004</v>
-      </c>
-      <c r="E5" s="65">
-        <v>0.91800000000000004</v>
-      </c>
-      <c r="F5" s="65">
-        <v>0.92310000000000003</v>
-      </c>
-      <c r="G5" s="65">
-        <v>0.97140000000000004</v>
-      </c>
-      <c r="H5" s="65">
-        <v>0.96799999999999997</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="65">
-        <v>0.88360000000000005</v>
-      </c>
-      <c r="C6" s="65">
-        <v>0.86770000000000003</v>
-      </c>
-      <c r="D6" s="65">
-        <v>0.89959999999999996</v>
-      </c>
-      <c r="E6" s="65">
-        <v>0.8962</v>
-      </c>
-      <c r="F6" s="65">
-        <v>0.88180000000000003</v>
-      </c>
-      <c r="G6" s="65">
-        <v>0.93679999999999997</v>
-      </c>
-      <c r="H6" s="65">
-        <v>0.94120000000000004</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="65">
-        <v>0.96079999999999999</v>
-      </c>
-      <c r="C7" s="65">
-        <v>0.98970000000000002</v>
-      </c>
-      <c r="D7" s="65">
-        <v>0.93179999999999996</v>
-      </c>
-      <c r="E7" s="65">
-        <v>0.93559999999999999</v>
-      </c>
-      <c r="F7" s="65">
-        <v>0.96189999999999998</v>
-      </c>
-      <c r="G7" s="65">
-        <v>0.98899999999999999</v>
-      </c>
-      <c r="H7" s="65">
-        <v>0.9879</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0.77059999999999995</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0.85109999999999997</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0.69010000000000005</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0.7339</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0.78769999999999996</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0.82709999999999995</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0.78580000000000005</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0.60070000000000001</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0.60270000000000001</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0.59870000000000001</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0.60109999999999997</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0.59950000000000003</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0.63749999999999996</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0.61270000000000002</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="63" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="I12" s="19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="27">
-        <v>0.82850000000000001</v>
-      </c>
-      <c r="C13" s="51">
-        <v>0.74390000000000001</v>
-      </c>
-      <c r="D13" s="51">
-        <v>0.91300000000000003</v>
-      </c>
-      <c r="E13" s="51">
-        <v>0.89529999999999998</v>
-      </c>
-      <c r="F13" s="51">
-        <v>0.8125</v>
-      </c>
-      <c r="G13" s="51">
-        <v>0.87839999999999996</v>
-      </c>
-      <c r="H13" s="52">
-        <v>0.83530000000000004</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="45">
-        <v>0.83809999999999996</v>
-      </c>
-      <c r="C14" s="45">
-        <v>0.67620000000000002</v>
-      </c>
-      <c r="D14" s="45">
-        <v>1</v>
-      </c>
-      <c r="E14" s="45">
-        <v>1</v>
-      </c>
-      <c r="F14" s="45">
-        <v>0.80679999999999996</v>
-      </c>
-      <c r="G14" s="45">
-        <v>0.7883</v>
-      </c>
-      <c r="H14" s="45">
-        <v>0.87809999999999999</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="53">
-        <v>0.88090000000000002</v>
-      </c>
-      <c r="C15" s="54">
-        <v>0.76190000000000002</v>
-      </c>
-      <c r="D15" s="54">
-        <v>1</v>
-      </c>
-      <c r="E15" s="54">
-        <v>1</v>
-      </c>
-      <c r="F15" s="54">
-        <v>0.86439999999999995</v>
-      </c>
-      <c r="G15" s="54">
-        <v>0.99990000000000001</v>
-      </c>
-      <c r="H15" s="55">
-        <v>0.99990000000000001</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="63" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="I18" s="19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="45">
-        <v>0.67330000000000001</v>
-      </c>
-      <c r="C20" s="45">
-        <v>0.74619999999999997</v>
-      </c>
-      <c r="D20" s="45">
-        <v>0.60040000000000004</v>
-      </c>
-      <c r="E20" s="45">
-        <v>0.65459999999999996</v>
-      </c>
-      <c r="F20" s="45">
-        <v>0.6956</v>
-      </c>
-      <c r="G20" s="45">
-        <v>0.73160000000000003</v>
-      </c>
-      <c r="H20" s="45">
-        <v>0.71440000000000003</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="58"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:P45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4022,6 +3814,27 @@
       <c r="B6" s="4">
         <v>128</v>
       </c>
+      <c r="C6">
+        <v>0.83160000000000001</v>
+      </c>
+      <c r="D6">
+        <v>0.84040000000000004</v>
+      </c>
+      <c r="E6">
+        <v>0.82289999999999996</v>
+      </c>
+      <c r="F6">
+        <v>0.82620000000000005</v>
+      </c>
+      <c r="G6">
+        <v>0.83309999999999995</v>
+      </c>
+      <c r="H6">
+        <v>0.90790000000000004</v>
+      </c>
+      <c r="I6">
+        <v>0.91120000000000001</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="23">
@@ -4165,6 +3978,27 @@
       <c r="B13" s="4">
         <v>128</v>
       </c>
+      <c r="C13">
+        <v>0.81320000000000003</v>
+      </c>
+      <c r="D13">
+        <v>0.78520000000000001</v>
+      </c>
+      <c r="E13">
+        <v>0.84130000000000005</v>
+      </c>
+      <c r="F13">
+        <v>0.83179999999999998</v>
+      </c>
+      <c r="G13">
+        <v>0.80779999999999996</v>
+      </c>
+      <c r="H13">
+        <v>0.89259999999999995</v>
+      </c>
+      <c r="I13">
+        <v>0.88439999999999996</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
@@ -4214,7 +4048,7 @@
         <v>0.7077</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>32</v>
       </c>
@@ -4243,7 +4077,7 @@
         <v>0.8125</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>32</v>
       </c>
@@ -4272,7 +4106,7 @@
         <v>0.91559999999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>32</v>
       </c>
@@ -4301,22 +4135,36 @@
         <v>0.82950000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="23">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
         <v>32</v>
       </c>
-      <c r="B20" s="23">
+      <c r="B20" s="4">
         <v>128</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>0.83230000000000004</v>
+      </c>
+      <c r="D20">
+        <v>0.8498</v>
+      </c>
+      <c r="E20">
+        <v>0.81479999999999997</v>
+      </c>
+      <c r="F20">
+        <v>0.82130000000000003</v>
+      </c>
+      <c r="G20">
+        <v>0.83520000000000005</v>
+      </c>
+      <c r="H20">
+        <v>0.90210000000000001</v>
+      </c>
+      <c r="I20">
+        <v>0.90159999999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
         <v>32</v>
       </c>
@@ -4331,11 +4179,11 @@
       <c r="H21" s="20"/>
       <c r="I21" s="20"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>64</v>
       </c>
@@ -4364,7 +4212,7 @@
         <v>0.90090000000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>64</v>
       </c>
@@ -4393,7 +4241,7 @@
         <v>0.91290000000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>64</v>
       </c>
@@ -4422,7 +4270,7 @@
         <v>0.89400000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>64</v>
       </c>
@@ -4451,22 +4299,36 @@
         <v>0.8861</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="23">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
         <v>64</v>
       </c>
-      <c r="B27" s="23">
+      <c r="B27" s="4">
         <v>128</v>
       </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>0.82509999999999994</v>
+      </c>
+      <c r="D27">
+        <v>0.81879999999999997</v>
+      </c>
+      <c r="E27">
+        <v>0.83140000000000003</v>
+      </c>
+      <c r="F27">
+        <v>0.82930000000000004</v>
+      </c>
+      <c r="G27">
+        <v>0.82389999999999997</v>
+      </c>
+      <c r="H27">
+        <v>0.89849999999999997</v>
+      </c>
+      <c r="I27">
+        <v>0.89410000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="23">
         <v>64</v>
       </c>
@@ -4481,19 +4343,40 @@
       <c r="H28" s="20"/>
       <c r="I28" s="20"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>128</v>
       </c>
       <c r="B30" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>0.84819999999999995</v>
+      </c>
+      <c r="D30">
+        <v>0.86370000000000002</v>
+      </c>
+      <c r="E30">
+        <v>0.8327</v>
+      </c>
+      <c r="F30">
+        <v>0.83779999999999999</v>
+      </c>
+      <c r="G30">
+        <v>0.85050000000000003</v>
+      </c>
+      <c r="H30">
+        <v>0.91739999999999999</v>
+      </c>
+      <c r="I30">
+        <v>0.90410000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>128</v>
       </c>
@@ -4501,71 +4384,134 @@
         <v>16</v>
       </c>
       <c r="C31">
+        <v>0.82850000000000001</v>
+      </c>
+      <c r="D31">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="E31">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="F31">
+        <v>0.82450000000000001</v>
+      </c>
+      <c r="G31">
+        <v>0.8296</v>
+      </c>
+      <c r="H31">
+        <v>0.90329999999999999</v>
+      </c>
+      <c r="I31">
+        <v>0.90629999999999999</v>
+      </c>
+      <c r="J31">
         <v>0.79779999999999995</v>
       </c>
-      <c r="D31">
+      <c r="K31">
         <v>0.83320000000000005</v>
       </c>
-      <c r="E31">
+      <c r="L31">
         <v>0.76229999999999998</v>
       </c>
-      <c r="F31">
+      <c r="M31">
         <v>0.77869999999999995</v>
       </c>
-      <c r="G31">
+      <c r="N31">
         <v>0.80469999999999997</v>
       </c>
-      <c r="H31">
+      <c r="O31">
         <v>0.87560000000000004</v>
       </c>
-      <c r="I31">
+      <c r="P31">
         <v>0.86029999999999995</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="23">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
         <v>128</v>
       </c>
-      <c r="B32" s="50">
+      <c r="B32" s="10">
         <v>32</v>
       </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
+      <c r="C32">
+        <v>0.84460000000000002</v>
+      </c>
+      <c r="D32">
+        <v>0.85250000000000004</v>
+      </c>
+      <c r="E32">
+        <v>0.83679999999999999</v>
+      </c>
+      <c r="F32">
+        <v>0.83979999999999999</v>
+      </c>
+      <c r="G32">
+        <v>0.84589999999999999</v>
+      </c>
+      <c r="H32">
+        <v>0.91759999999999997</v>
+      </c>
+      <c r="I32">
+        <v>0.91769999999999996</v>
+      </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="23">
+      <c r="A33" s="4">
         <v>128</v>
       </c>
-      <c r="B33" s="23">
+      <c r="B33" s="4">
         <v>64</v>
       </c>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
+      <c r="C33">
+        <v>0.78920000000000001</v>
+      </c>
+      <c r="D33">
+        <v>0.84750000000000003</v>
+      </c>
+      <c r="E33">
+        <v>0.73089999999999999</v>
+      </c>
+      <c r="F33">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="G33">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="H33">
+        <v>0.86260000000000003</v>
+      </c>
+      <c r="I33">
+        <v>0.84</v>
+      </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="23">
+      <c r="A34" s="4">
         <v>128</v>
       </c>
-      <c r="B34" s="23">
+      <c r="B34" s="4">
         <v>128</v>
       </c>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
+      <c r="C34">
+        <v>0.84330000000000005</v>
+      </c>
+      <c r="D34">
+        <v>0.8538</v>
+      </c>
+      <c r="E34">
+        <v>0.8327</v>
+      </c>
+      <c r="F34">
+        <v>0.8367</v>
+      </c>
+      <c r="G34">
+        <v>0.84489999999999998</v>
+      </c>
+      <c r="H34">
+        <v>0.91349999999999998</v>
+      </c>
+      <c r="I34">
+        <v>0.8982</v>
+      </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="23">
@@ -4678,45 +4624,955 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="4"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="B44" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C43">
+      <c r="C44">
         <f>MAX(C2:C42)</f>
         <v>0.89419999999999999</v>
       </c>
-      <c r="G43">
-        <f t="shared" ref="G43:I43" si="0">MAX(G2:G42)</f>
+      <c r="G44">
+        <f t="shared" ref="G44:I44" si="0">MAX(G2:G42)</f>
         <v>0.89549999999999996</v>
       </c>
-      <c r="H43">
+      <c r="H44">
         <f t="shared" si="0"/>
         <v>0.95020000000000004</v>
       </c>
-      <c r="I43">
+      <c r="I44">
         <f t="shared" si="0"/>
         <v>0.94410000000000005</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="12" t="s">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C44">
+      <c r="C45">
         <f>MIN(C2:C42)</f>
         <v>0.65469999999999995</v>
       </c>
-      <c r="G44">
-        <f t="shared" ref="G44:I44" si="1">MIN(G2:G42)</f>
+      <c r="G45">
+        <f t="shared" ref="G45:I45" si="1">MIN(G2:G42)</f>
         <v>0.70589999999999997</v>
       </c>
-      <c r="H44">
+      <c r="H45">
         <f t="shared" si="1"/>
         <v>0.72499999999999998</v>
       </c>
-      <c r="I44">
+      <c r="I45">
         <f t="shared" si="1"/>
         <v>0.7077</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="C2">
+        <v>0.88970000000000005</v>
+      </c>
+      <c r="D2">
+        <v>0.86819999999999997</v>
+      </c>
+      <c r="E2">
+        <v>0.91120000000000001</v>
+      </c>
+      <c r="F2">
+        <v>0.90739999999999998</v>
+      </c>
+      <c r="G2">
+        <v>0.88729999999999998</v>
+      </c>
+      <c r="H2">
+        <v>0.9456</v>
+      </c>
+      <c r="I2">
+        <v>0.93389999999999995</v>
+      </c>
+      <c r="L2" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C3">
+        <v>0.88649999999999995</v>
+      </c>
+      <c r="D3">
+        <v>0.87170000000000003</v>
+      </c>
+      <c r="E3">
+        <v>0.90129999999999999</v>
+      </c>
+      <c r="F3">
+        <v>0.89829999999999999</v>
+      </c>
+      <c r="G3">
+        <v>0.88480000000000003</v>
+      </c>
+      <c r="H3">
+        <v>0.94720000000000004</v>
+      </c>
+      <c r="I3">
+        <v>0.94640000000000002</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="B4" s="10">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0.89219999999999999</v>
+      </c>
+      <c r="D4">
+        <v>0.87760000000000005</v>
+      </c>
+      <c r="E4">
+        <v>0.90669999999999995</v>
+      </c>
+      <c r="F4">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="G4">
+        <v>0.89049999999999996</v>
+      </c>
+      <c r="H4">
+        <v>0.94579999999999997</v>
+      </c>
+      <c r="I4">
+        <v>0.92900000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="B5" s="4">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>0.88339999999999996</v>
+      </c>
+      <c r="D5">
+        <v>0.87129999999999996</v>
+      </c>
+      <c r="E5">
+        <v>0.89549999999999996</v>
+      </c>
+      <c r="F5">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="G5">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="H5">
+        <v>0.9415</v>
+      </c>
+      <c r="I5">
+        <v>0.93240000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="B6" s="4">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="D6">
+        <v>0.85609999999999997</v>
+      </c>
+      <c r="E6">
+        <v>0.90990000000000004</v>
+      </c>
+      <c r="F6">
+        <v>0.90529999999999999</v>
+      </c>
+      <c r="G6">
+        <v>0.87970000000000004</v>
+      </c>
+      <c r="H6">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="I6">
+        <v>0.9405</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="C8">
+        <v>0.87760000000000005</v>
+      </c>
+      <c r="D8">
+        <v>0.86770000000000003</v>
+      </c>
+      <c r="E8">
+        <v>0.88739999999999997</v>
+      </c>
+      <c r="F8">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="G8">
+        <v>0.87639999999999996</v>
+      </c>
+      <c r="H8">
+        <v>0.94469999999999998</v>
+      </c>
+      <c r="I8">
+        <v>0.94579999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C9">
+        <v>0.58520000000000005</v>
+      </c>
+      <c r="D9">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="E9">
+        <v>0.2354</v>
+      </c>
+      <c r="F9">
+        <v>0.57369999999999999</v>
+      </c>
+      <c r="G9">
+        <v>0.70209999999999995</v>
+      </c>
+      <c r="H9">
+        <v>0.68430000000000002</v>
+      </c>
+      <c r="I9">
+        <v>0.67520000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="B10" s="10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>0.87960000000000005</v>
+      </c>
+      <c r="D10">
+        <v>0.88739999999999997</v>
+      </c>
+      <c r="E10">
+        <v>0.87170000000000003</v>
+      </c>
+      <c r="F10">
+        <v>0.87390000000000001</v>
+      </c>
+      <c r="G10">
+        <v>0.88060000000000005</v>
+      </c>
+      <c r="H10">
+        <v>0.94340000000000002</v>
+      </c>
+      <c r="I10">
+        <v>0.94040000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="B11" s="4">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>0.88229999999999997</v>
+      </c>
+      <c r="D11">
+        <v>0.87890000000000001</v>
+      </c>
+      <c r="E11">
+        <v>0.88570000000000004</v>
+      </c>
+      <c r="F11">
+        <v>0.88549999999999995</v>
+      </c>
+      <c r="G11">
+        <v>0.88190000000000002</v>
+      </c>
+      <c r="H11">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="I11">
+        <v>0.94540000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="B12" s="4">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>0.87019999999999997</v>
+      </c>
+      <c r="D12">
+        <v>0.84750000000000003</v>
+      </c>
+      <c r="E12">
+        <v>0.89280000000000004</v>
+      </c>
+      <c r="F12">
+        <v>0.88780000000000003</v>
+      </c>
+      <c r="G12">
+        <v>0.86719999999999997</v>
+      </c>
+      <c r="H12">
+        <v>0.93510000000000004</v>
+      </c>
+      <c r="I12">
+        <v>0.94020000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>1</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="C14">
+        <v>0.89459999999999995</v>
+      </c>
+      <c r="D14">
+        <v>0.90720000000000001</v>
+      </c>
+      <c r="E14">
+        <v>0.8821</v>
+      </c>
+      <c r="F14">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="G14">
+        <v>0.89590000000000003</v>
+      </c>
+      <c r="H14">
+        <v>0.95720000000000005</v>
+      </c>
+      <c r="I14">
+        <v>0.95199999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>1</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C15">
+        <v>0.77580000000000005</v>
+      </c>
+      <c r="D15">
+        <v>0.73770000000000002</v>
+      </c>
+      <c r="E15">
+        <v>0.81389999999999996</v>
+      </c>
+      <c r="F15">
+        <v>0.79320000000000002</v>
+      </c>
+      <c r="G15">
+        <v>0.73880000000000001</v>
+      </c>
+      <c r="H15">
+        <v>0.85670000000000002</v>
+      </c>
+      <c r="I15">
+        <v>0.84870000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>1</v>
+      </c>
+      <c r="B16" s="10">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>0.79730000000000001</v>
+      </c>
+      <c r="D16">
+        <v>0.87529999999999997</v>
+      </c>
+      <c r="E16">
+        <v>0.71930000000000005</v>
+      </c>
+      <c r="F16">
+        <v>0.80789999999999995</v>
+      </c>
+      <c r="G16">
+        <v>0.82609999999999995</v>
+      </c>
+      <c r="H16">
+        <v>0.88560000000000005</v>
+      </c>
+      <c r="I16">
+        <v>0.88390000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>1</v>
+      </c>
+      <c r="B17" s="4">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>0.90129999999999999</v>
+      </c>
+      <c r="D17">
+        <v>0.89239999999999997</v>
+      </c>
+      <c r="E17">
+        <v>0.9103</v>
+      </c>
+      <c r="F17">
+        <v>0.90880000000000005</v>
+      </c>
+      <c r="G17">
+        <v>0.90049999999999997</v>
+      </c>
+      <c r="H17">
+        <v>0.95320000000000005</v>
+      </c>
+      <c r="I17">
+        <v>0.94530000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>1</v>
+      </c>
+      <c r="B18" s="4">
+        <v>4</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.87260000000000004</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.85560000000000003</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.88970000000000005</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.88590000000000002</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.87039999999999995</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.93910000000000005</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0.93989999999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>2</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="C20">
+        <v>0.69040000000000001</v>
+      </c>
+      <c r="D20">
+        <v>0.76229999999999998</v>
+      </c>
+      <c r="E20">
+        <v>0.61839999999999995</v>
+      </c>
+      <c r="F20">
+        <v>0.71809999999999996</v>
+      </c>
+      <c r="G20">
+        <v>0.71409999999999996</v>
+      </c>
+      <c r="H20">
+        <v>0.77480000000000004</v>
+      </c>
+      <c r="I20">
+        <v>0.77480000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>2</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C21">
+        <v>0.88919999999999999</v>
+      </c>
+      <c r="D21">
+        <v>0.89280000000000004</v>
+      </c>
+      <c r="E21">
+        <v>0.88570000000000004</v>
+      </c>
+      <c r="F21">
+        <v>0.88680000000000003</v>
+      </c>
+      <c r="G21">
+        <v>0.88970000000000005</v>
+      </c>
+      <c r="H21">
+        <v>0.94440000000000002</v>
+      </c>
+      <c r="I21">
+        <v>0.93930000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>2</v>
+      </c>
+      <c r="B22" s="10">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>0.89390000000000003</v>
+      </c>
+      <c r="D22">
+        <v>0.89149999999999996</v>
+      </c>
+      <c r="E22">
+        <v>0.89639999999999997</v>
+      </c>
+      <c r="F22">
+        <v>0.8962</v>
+      </c>
+      <c r="G22">
+        <v>0.89370000000000005</v>
+      </c>
+      <c r="H22">
+        <v>0.95289999999999997</v>
+      </c>
+      <c r="I22">
+        <v>0.95189999999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="25">
+        <v>2</v>
+      </c>
+      <c r="B23" s="25">
+        <v>2</v>
+      </c>
+      <c r="C23" s="47">
+        <v>0.91259999999999997</v>
+      </c>
+      <c r="D23" s="47">
+        <v>0.92020000000000002</v>
+      </c>
+      <c r="E23" s="47">
+        <v>0.90490000000000004</v>
+      </c>
+      <c r="F23" s="47">
+        <v>0.90639999999999998</v>
+      </c>
+      <c r="G23" s="47">
+        <v>0.91320000000000001</v>
+      </c>
+      <c r="H23" s="47">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="I23" s="47">
+        <v>0.95809999999999995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>2</v>
+      </c>
+      <c r="B24" s="4">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>0.89729999999999999</v>
+      </c>
+      <c r="D24">
+        <v>0.87939999999999996</v>
+      </c>
+      <c r="E24">
+        <v>0.91520000000000001</v>
+      </c>
+      <c r="F24">
+        <v>0.91220000000000001</v>
+      </c>
+      <c r="G24">
+        <v>0.89549999999999996</v>
+      </c>
+      <c r="H24">
+        <v>0.95420000000000005</v>
+      </c>
+      <c r="I24">
+        <v>0.95309999999999995</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>4</v>
+      </c>
+      <c r="B26" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="C26">
+        <v>0.89190000000000003</v>
+      </c>
+      <c r="D26">
+        <v>0.87129999999999996</v>
+      </c>
+      <c r="E26">
+        <v>0.91259999999999997</v>
+      </c>
+      <c r="F26">
+        <v>0.90890000000000004</v>
+      </c>
+      <c r="G26">
+        <v>0.88970000000000005</v>
+      </c>
+      <c r="H26">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="I26">
+        <v>0.94179999999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>4</v>
+      </c>
+      <c r="B27" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C27">
+        <v>0.878</v>
+      </c>
+      <c r="D27">
+        <v>0.86009999999999998</v>
+      </c>
+      <c r="E27">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="F27">
+        <v>0.89229999999999998</v>
+      </c>
+      <c r="G27">
+        <v>0.87570000000000003</v>
+      </c>
+      <c r="H27">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="I27">
+        <v>0.9385</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>4</v>
+      </c>
+      <c r="B28" s="10">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>0.89419999999999999</v>
+      </c>
+      <c r="D28">
+        <v>0.874</v>
+      </c>
+      <c r="E28">
+        <v>0.9143</v>
+      </c>
+      <c r="F28">
+        <v>0.91080000000000005</v>
+      </c>
+      <c r="G28">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="H28">
+        <v>0.95230000000000004</v>
+      </c>
+      <c r="I28">
+        <v>0.95479999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>4</v>
+      </c>
+      <c r="B29" s="4">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>0.78569999999999995</v>
+      </c>
+      <c r="D29">
+        <v>0.87529999999999997</v>
+      </c>
+      <c r="E29">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="F29">
+        <v>0.77790000000000004</v>
+      </c>
+      <c r="G29">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="H29">
+        <v>0.86680000000000001</v>
+      </c>
+      <c r="I29">
+        <v>0.86750000000000005</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>4</v>
+      </c>
+      <c r="B30" s="4">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>0.8821</v>
+      </c>
+      <c r="D30">
+        <v>0.88429999999999997</v>
+      </c>
+      <c r="E30">
+        <v>0.87980000000000003</v>
+      </c>
+      <c r="F30">
+        <v>0.88039999999999996</v>
+      </c>
+      <c r="G30">
+        <v>0.88229999999999997</v>
+      </c>
+      <c r="H30">
+        <v>0.94830000000000003</v>
+      </c>
+      <c r="I30">
+        <v>0.93620000000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="13">
+        <f>MAX(C2:C30)</f>
+        <v>0.91259999999999997</v>
+      </c>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13">
+        <f t="shared" ref="G32:I32" si="0">MAX(G2:G30)</f>
+        <v>0.91320000000000001</v>
+      </c>
+      <c r="H32" s="13">
+        <f t="shared" si="0"/>
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="I32" s="13">
+        <f t="shared" si="0"/>
+        <v>0.95809999999999995</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="13">
+        <f>MIN(C2:C30)</f>
+        <v>0.58520000000000005</v>
+      </c>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13">
+        <f t="shared" ref="G33:I33" si="1">MIN(G2:G30)</f>
+        <v>0.70209999999999995</v>
+      </c>
+      <c r="H33" s="13">
+        <f t="shared" si="1"/>
+        <v>0.68430000000000002</v>
+      </c>
+      <c r="I33" s="13">
+        <f t="shared" si="1"/>
+        <v>0.67520000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -4725,6 +5581,581 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="62" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="73" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="65">
+        <v>0.96079999999999999</v>
+      </c>
+      <c r="C3" s="65">
+        <v>0.98970000000000002</v>
+      </c>
+      <c r="D3" s="65">
+        <v>0.93179999999999996</v>
+      </c>
+      <c r="E3" s="65">
+        <v>0.93559999999999999</v>
+      </c>
+      <c r="F3" s="65">
+        <v>0.96189999999999998</v>
+      </c>
+      <c r="G3" s="65">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="H3" s="65">
+        <v>0.9879</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="65">
+        <v>0.92259999999999998</v>
+      </c>
+      <c r="C4" s="65">
+        <v>0.92830000000000001</v>
+      </c>
+      <c r="D4" s="65">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="E4" s="65">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="F4" s="65">
+        <v>0.92310000000000003</v>
+      </c>
+      <c r="G4" s="65">
+        <v>0.97140000000000004</v>
+      </c>
+      <c r="H4" s="65">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="70" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="71" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="72">
+        <v>0.91259999999999997</v>
+      </c>
+      <c r="C5" s="72">
+        <v>0.92020000000000002</v>
+      </c>
+      <c r="D5" s="72">
+        <v>0.90490000000000004</v>
+      </c>
+      <c r="E5" s="72">
+        <v>0.90639999999999998</v>
+      </c>
+      <c r="F5" s="72">
+        <v>0.91320000000000001</v>
+      </c>
+      <c r="G5" s="72">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="H5" s="72">
+        <v>0.95809999999999995</v>
+      </c>
+      <c r="I5" s="69" t="s">
+        <v>60</v>
+      </c>
+      <c r="J5" s="74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="13">
+        <v>0.89419999999999999</v>
+      </c>
+      <c r="C6" s="13">
+        <v>0.90669999999999995</v>
+      </c>
+      <c r="D6" s="13">
+        <v>0.88160000000000005</v>
+      </c>
+      <c r="E6" s="13">
+        <v>0.88470000000000004</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0.89549999999999996</v>
+      </c>
+      <c r="G6" s="13">
+        <v>0.95020000000000004</v>
+      </c>
+      <c r="H6" s="13">
+        <v>0.94410000000000005</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="64">
+        <v>0.88360000000000005</v>
+      </c>
+      <c r="C7" s="64">
+        <v>0.86770000000000003</v>
+      </c>
+      <c r="D7" s="64">
+        <v>0.89959999999999996</v>
+      </c>
+      <c r="E7" s="64">
+        <v>0.8962</v>
+      </c>
+      <c r="F7" s="64">
+        <v>0.88180000000000003</v>
+      </c>
+      <c r="G7" s="64">
+        <v>0.93679999999999997</v>
+      </c>
+      <c r="H7" s="64">
+        <v>0.94120000000000004</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="64">
+        <v>0.86260000000000003</v>
+      </c>
+      <c r="C8" s="64">
+        <v>0.89639999999999997</v>
+      </c>
+      <c r="D8" s="64">
+        <v>0.82869999999999999</v>
+      </c>
+      <c r="E8" s="64">
+        <v>0.83940000000000003</v>
+      </c>
+      <c r="F8" s="64">
+        <v>0.86680000000000001</v>
+      </c>
+      <c r="G8" s="64">
+        <v>0.91239999999999999</v>
+      </c>
+      <c r="H8" s="64">
+        <v>0.87180000000000002</v>
+      </c>
+      <c r="I8" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="64">
+        <v>0.84189999999999998</v>
+      </c>
+      <c r="C9" s="64">
+        <v>0.85019999999999996</v>
+      </c>
+      <c r="D9" s="64">
+        <v>0.83360000000000001</v>
+      </c>
+      <c r="E9" s="64">
+        <v>0.83650000000000002</v>
+      </c>
+      <c r="F9" s="64">
+        <v>0.84319999999999995</v>
+      </c>
+      <c r="G9" s="64">
+        <v>0.90049999999999997</v>
+      </c>
+      <c r="H9" s="64">
+        <v>0.88149999999999995</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.77059999999999995</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.85109999999999997</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.69010000000000005</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.7339</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.78769999999999996</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.82709999999999995</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.78580000000000005</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.60070000000000001</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.60270000000000001</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.59870000000000001</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.60109999999999997</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.59950000000000003</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.63749999999999996</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0.61270000000000002</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J11" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="27">
+        <v>0.82850000000000001</v>
+      </c>
+      <c r="C15" s="51">
+        <v>0.74390000000000001</v>
+      </c>
+      <c r="D15" s="51">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="E15" s="51">
+        <v>0.89529999999999998</v>
+      </c>
+      <c r="F15" s="51">
+        <v>0.8125</v>
+      </c>
+      <c r="G15" s="51">
+        <v>0.87839999999999996</v>
+      </c>
+      <c r="H15" s="52">
+        <v>0.83530000000000004</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="45">
+        <v>0.83809999999999996</v>
+      </c>
+      <c r="C16" s="45">
+        <v>0.67620000000000002</v>
+      </c>
+      <c r="D16" s="45">
+        <v>1</v>
+      </c>
+      <c r="E16" s="45">
+        <v>1</v>
+      </c>
+      <c r="F16" s="45">
+        <v>0.80679999999999996</v>
+      </c>
+      <c r="G16" s="45">
+        <v>0.7883</v>
+      </c>
+      <c r="H16" s="45">
+        <v>0.87809999999999999</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="53">
+        <v>0.88090000000000002</v>
+      </c>
+      <c r="C17" s="54">
+        <v>0.76190000000000002</v>
+      </c>
+      <c r="D17" s="54">
+        <v>1</v>
+      </c>
+      <c r="E17" s="54">
+        <v>1</v>
+      </c>
+      <c r="F17" s="54">
+        <v>0.86439999999999995</v>
+      </c>
+      <c r="G17" s="54">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="H17" s="55">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="63" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="27"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="45">
+        <v>0.67330000000000001</v>
+      </c>
+      <c r="C22" s="45">
+        <v>0.74619999999999997</v>
+      </c>
+      <c r="D22" s="45">
+        <v>0.60040000000000004</v>
+      </c>
+      <c r="E22" s="45">
+        <v>0.65459999999999996</v>
+      </c>
+      <c r="F22" s="45">
+        <v>0.6956</v>
+      </c>
+      <c r="G22" s="45">
+        <v>0.73160000000000003</v>
+      </c>
+      <c r="H22" s="45">
+        <v>0.71440000000000003</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="58"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A3:J11">
+    <sortCondition ref="J2"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
@@ -5468,7 +6899,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K39"/>
   <sheetViews>
@@ -6465,7 +7896,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
@@ -6796,7 +8227,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J44"/>
   <sheetViews>
@@ -7457,7 +8888,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection sqref="A1:I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8334,7 +9765,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:I5"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11490,13 +12921,13 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="T1" t="s">
         <v>47</v>
-      </c>
-      <c r="T1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
@@ -12461,7 +13892,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:H3"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12614,7 +14045,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
@@ -13288,7 +14719,7 @@
         <v>0.91739999999999999</v>
       </c>
       <c r="J24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -13308,10 +14739,10 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>53</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>54</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>0</v>
@@ -13335,7 +14766,7 @@
         <v>5</v>
       </c>
       <c r="K1" s="66" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">

--- a/results/Hyperparameter_Tuning/Graph_Embedding_NN Classifier.xlsx
+++ b/results/Hyperparameter_Tuning/Graph_Embedding_NN Classifier.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14295" windowHeight="6645" firstSheet="3" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14295" windowHeight="6645" firstSheet="10" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="deepwalk" sheetId="16" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="68">
   <si>
     <t>Accuracy</t>
   </si>
@@ -234,12 +234,24 @@
     <t>num_walks = 8 , walk_length = 32
 p = 0.25 , q= 0.5</t>
   </si>
+  <si>
+    <t>Remark</t>
+  </si>
+  <si>
+    <t>UMAP: Graph is not fully connected</t>
+  </si>
+  <si>
+    <t>α = 0, β = 10</t>
+  </si>
+  <si>
+    <t>α = 0.1, β = 20</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,8 +274,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -327,6 +347,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,7 +446,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -496,9 +522,6 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -520,7 +543,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -530,15 +552,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -548,10 +584,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFCCECFF"/>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FFFFCCFF"/>
       <color rgb="FFFFCCCC"/>
-      <color rgb="FFFFFFCC"/>
+      <color rgb="FFCCECFF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1647,7 +1683,500 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-SG"/>
+              <a:t>SDNE</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SDNE_ExptVerifiedDataset!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>α = 0, β = 10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>SDNE_ExptVerifiedDataset!$L$1:$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> Sensitivity</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> Specificity</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> Precision</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> F1-Score</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v> ROC-AUC</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v> PR-AUC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SDNE_ExptVerifiedDataset!$L$2:$R$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.86009999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7399</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98029999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97409999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.84079999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98240000000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.96130000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-82CA-4075-B9F1-A6EBB59EA43B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SDNE_ExptVerifiedDataset!$K$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>α = 0.1, β = 20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>SDNE_ExptVerifiedDataset!$L$1:$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> Sensitivity</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> Specificity</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> Precision</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> F1-Score</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v> ROC-AUC</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v> PR-AUC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SDNE_ExptVerifiedDataset!$L$3:$R$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.41049999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.78969999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1399999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.44890000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.57230000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.7199999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.31790000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-82CA-4075-B9F1-A6EBB59EA43B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="791898703"/>
+        <c:axId val="791901199"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="791898703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="791901199"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="791901199"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="791898703"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2190,24 +2719,562 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:colOff>600075</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4566,7 +5633,7 @@
       <c r="A39" s="23">
         <v>256</v>
       </c>
-      <c r="B39" s="50">
+      <c r="B39" s="49">
         <v>32</v>
       </c>
       <c r="C39" s="20"/>
@@ -4685,8 +5752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4731,7 +5798,7 @@
       <c r="I1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="67" t="s">
+      <c r="L1" s="65" t="s">
         <v>17</v>
       </c>
       <c r="M1">
@@ -4766,7 +5833,7 @@
       <c r="I2">
         <v>0.93389999999999995</v>
       </c>
-      <c r="L2" s="68" t="s">
+      <c r="L2" s="66" t="s">
         <v>16</v>
       </c>
       <c r="M2">
@@ -5584,8 +6651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5601,7 +6668,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="61" t="s">
         <v>37</v>
       </c>
     </row>
@@ -5612,7 +6679,7 @@
       <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="55" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="8" t="s">
@@ -5633,33 +6700,33 @@
       <c r="I2" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="73" t="s">
+      <c r="J2" s="69" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="65">
+      <c r="B3" s="63">
         <v>0.96079999999999999</v>
       </c>
-      <c r="C3" s="65">
+      <c r="C3" s="74">
         <v>0.98970000000000002</v>
       </c>
-      <c r="D3" s="65">
+      <c r="D3" s="63">
         <v>0.93179999999999996</v>
       </c>
-      <c r="E3" s="65">
+      <c r="E3" s="63">
         <v>0.93559999999999999</v>
       </c>
-      <c r="F3" s="65">
+      <c r="F3" s="63">
         <v>0.96189999999999998</v>
       </c>
-      <c r="G3" s="65">
+      <c r="G3" s="63">
         <v>0.98899999999999999</v>
       </c>
-      <c r="H3" s="65">
+      <c r="H3" s="63">
         <v>0.9879</v>
       </c>
       <c r="I3" s="3" t="s">
@@ -5670,28 +6737,28 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="65">
+      <c r="B4" s="63">
         <v>0.92259999999999998</v>
       </c>
-      <c r="C4" s="65">
+      <c r="C4" s="63">
         <v>0.92830000000000001</v>
       </c>
-      <c r="D4" s="65">
+      <c r="D4" s="63">
         <v>0.91700000000000004</v>
       </c>
-      <c r="E4" s="65">
+      <c r="E4" s="63">
         <v>0.91800000000000004</v>
       </c>
-      <c r="F4" s="65">
+      <c r="F4" s="63">
         <v>0.92310000000000003</v>
       </c>
-      <c r="G4" s="65">
+      <c r="G4" s="63">
         <v>0.97140000000000004</v>
       </c>
-      <c r="H4" s="65">
+      <c r="H4" s="63">
         <v>0.96799999999999997</v>
       </c>
       <c r="I4" s="3" t="s">
@@ -5701,35 +6768,35 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="70" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="71" t="s">
+    <row r="5" spans="1:10" s="68" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="72">
+      <c r="B5" s="2">
         <v>0.91259999999999997</v>
       </c>
-      <c r="C5" s="72">
+      <c r="C5" s="2">
         <v>0.92020000000000002</v>
       </c>
-      <c r="D5" s="72">
+      <c r="D5" s="2">
         <v>0.90490000000000004</v>
       </c>
-      <c r="E5" s="72">
+      <c r="E5" s="2">
         <v>0.90639999999999998</v>
       </c>
-      <c r="F5" s="72">
+      <c r="F5" s="2">
         <v>0.91320000000000001</v>
       </c>
-      <c r="G5" s="72">
+      <c r="G5" s="2">
         <v>0.96399999999999997</v>
       </c>
-      <c r="H5" s="72">
+      <c r="H5" s="2">
         <v>0.95809999999999995</v>
       </c>
-      <c r="I5" s="69" t="s">
+      <c r="I5" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="J5" s="74">
+      <c r="J5" s="70">
         <v>3</v>
       </c>
     </row>
@@ -5769,25 +6836,25 @@
       <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="64">
+      <c r="B7" s="63">
         <v>0.88360000000000005</v>
       </c>
-      <c r="C7" s="64">
+      <c r="C7" s="63">
         <v>0.86770000000000003</v>
       </c>
-      <c r="D7" s="64">
+      <c r="D7" s="63">
         <v>0.89959999999999996</v>
       </c>
-      <c r="E7" s="64">
+      <c r="E7" s="63">
         <v>0.8962</v>
       </c>
-      <c r="F7" s="64">
+      <c r="F7" s="63">
         <v>0.88180000000000003</v>
       </c>
-      <c r="G7" s="64">
+      <c r="G7" s="63">
         <v>0.93679999999999997</v>
       </c>
-      <c r="H7" s="64">
+      <c r="H7" s="63">
         <v>0.94120000000000004</v>
       </c>
       <c r="I7" s="3" t="s">
@@ -5801,25 +6868,25 @@
       <c r="A8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="64">
+      <c r="B8" s="63">
         <v>0.86260000000000003</v>
       </c>
-      <c r="C8" s="64">
+      <c r="C8" s="63">
         <v>0.89639999999999997</v>
       </c>
-      <c r="D8" s="64">
+      <c r="D8" s="63">
         <v>0.82869999999999999</v>
       </c>
-      <c r="E8" s="64">
+      <c r="E8" s="63">
         <v>0.83940000000000003</v>
       </c>
-      <c r="F8" s="64">
+      <c r="F8" s="63">
         <v>0.86680000000000001</v>
       </c>
-      <c r="G8" s="64">
+      <c r="G8" s="63">
         <v>0.91239999999999999</v>
       </c>
-      <c r="H8" s="64">
+      <c r="H8" s="63">
         <v>0.87180000000000002</v>
       </c>
       <c r="I8" s="42" t="s">
@@ -5833,25 +6900,25 @@
       <c r="A9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="64">
+      <c r="B9" s="63">
         <v>0.84189999999999998</v>
       </c>
-      <c r="C9" s="64">
+      <c r="C9" s="63">
         <v>0.85019999999999996</v>
       </c>
-      <c r="D9" s="64">
+      <c r="D9" s="63">
         <v>0.83360000000000001</v>
       </c>
-      <c r="E9" s="64">
+      <c r="E9" s="63">
         <v>0.83650000000000002</v>
       </c>
-      <c r="F9" s="64">
+      <c r="F9" s="63">
         <v>0.84319999999999995</v>
       </c>
-      <c r="G9" s="64">
+      <c r="G9" s="63">
         <v>0.90049999999999997</v>
       </c>
-      <c r="H9" s="64">
+      <c r="H9" s="63">
         <v>0.88149999999999995</v>
       </c>
       <c r="I9" s="3" t="s">
@@ -5929,7 +6996,7 @@
       <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="63" t="s">
+      <c r="A13" s="62" t="s">
         <v>38</v>
       </c>
       <c r="C13" t="s">
@@ -5943,7 +7010,7 @@
       <c r="B14" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="56" t="s">
+      <c r="C14" s="55" t="s">
         <v>1</v>
       </c>
       <c r="D14" s="8" t="s">
@@ -5972,22 +7039,22 @@
       <c r="B15" s="27">
         <v>0.82850000000000001</v>
       </c>
-      <c r="C15" s="51">
+      <c r="C15" s="50">
         <v>0.74390000000000001</v>
       </c>
-      <c r="D15" s="51">
+      <c r="D15" s="50">
         <v>0.91300000000000003</v>
       </c>
-      <c r="E15" s="51">
+      <c r="E15" s="50">
         <v>0.89529999999999998</v>
       </c>
-      <c r="F15" s="51">
+      <c r="F15" s="50">
         <v>0.8125</v>
       </c>
-      <c r="G15" s="51">
+      <c r="G15" s="50">
         <v>0.87839999999999996</v>
       </c>
-      <c r="H15" s="52">
+      <c r="H15" s="51">
         <v>0.83530000000000004</v>
       </c>
       <c r="I15" s="3" t="s">
@@ -6027,25 +7094,25 @@
       <c r="A17" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="53">
+      <c r="B17" s="52">
         <v>0.88090000000000002</v>
       </c>
-      <c r="C17" s="54">
+      <c r="C17" s="53">
         <v>0.76190000000000002</v>
       </c>
-      <c r="D17" s="54">
+      <c r="D17" s="53">
         <v>1</v>
       </c>
-      <c r="E17" s="54">
+      <c r="E17" s="53">
         <v>1</v>
       </c>
-      <c r="F17" s="54">
+      <c r="F17" s="53">
         <v>0.86439999999999995</v>
       </c>
-      <c r="G17" s="54">
+      <c r="G17" s="53">
         <v>0.99990000000000001</v>
       </c>
-      <c r="H17" s="55">
+      <c r="H17" s="54">
         <v>0.99990000000000001</v>
       </c>
       <c r="I17" s="3" t="s">
@@ -6053,7 +7120,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="63" t="s">
+      <c r="A19" s="62" t="s">
         <v>44</v>
       </c>
     </row>
@@ -6064,7 +7131,7 @@
       <c r="B20" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="56" t="s">
+      <c r="C20" s="55" t="s">
         <v>1</v>
       </c>
       <c r="D20" s="8" t="s">
@@ -6132,13 +7199,13 @@
       <c r="A23" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="58"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="60"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="59"/>
       <c r="I23" s="3"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -6157,10 +7224,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+      <selection activeCell="S27" sqref="S27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6172,9 +7239,10 @@
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
         <v>19</v>
       </c>
@@ -6202,8 +7270,30 @@
       <c r="I1" s="32" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K1" s="79"/>
+      <c r="L1" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="79" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="79" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" s="79" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" s="79" t="s">
+        <v>32</v>
+      </c>
+      <c r="R1" s="79" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="34">
         <v>0</v>
       </c>
@@ -6231,8 +7321,32 @@
       <c r="I2">
         <v>0.77739999999999998</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K2" s="80" t="s">
+        <v>66</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0.86009999999999998</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0.7399</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0.98029999999999995</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0.97409999999999997</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.84079999999999999</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0.98240000000000005</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0.96130000000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="35">
         <v>0</v>
       </c>
@@ -6260,8 +7374,32 @@
       <c r="I3" s="17">
         <v>0.96130000000000004</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K3" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="L3" s="63">
+        <v>0.41049999999999998</v>
+      </c>
+      <c r="M3" s="63">
+        <v>0.78969999999999996</v>
+      </c>
+      <c r="N3" s="63">
+        <v>3.1399999999999997E-2</v>
+      </c>
+      <c r="O3" s="63">
+        <v>0.44890000000000002</v>
+      </c>
+      <c r="P3" s="63">
+        <v>0.57230000000000003</v>
+      </c>
+      <c r="Q3" s="63">
+        <v>6.7199999999999996E-2</v>
+      </c>
+      <c r="R3" s="63">
+        <v>0.31790000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="36">
         <v>0</v>
       </c>
@@ -6290,7 +7428,7 @@
         <v>0.39069999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="36">
         <v>0</v>
       </c>
@@ -6319,7 +7457,7 @@
         <v>0.3332</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="36"/>
       <c r="B6" s="36"/>
       <c r="C6" s="1"/>
@@ -6330,7 +7468,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="36">
         <v>0.1</v>
       </c>
@@ -6359,7 +7497,7 @@
         <v>0.49809999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="36">
         <v>0.1</v>
       </c>
@@ -6388,36 +7526,36 @@
         <v>0.66549999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="36">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="77">
         <v>0.1</v>
       </c>
-      <c r="B9" s="36">
+      <c r="B9" s="77">
         <v>20</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="78">
         <v>0.41049999999999998</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="78">
         <v>0.78969999999999996</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="78">
         <v>3.1399999999999997E-2</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="78">
         <v>0.44890000000000002</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="78">
         <v>0.57230000000000003</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="78">
         <v>6.7199999999999996E-2</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="78">
         <v>0.31790000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="36">
         <v>0.1</v>
       </c>
@@ -6446,7 +7584,7 @@
         <v>0.50749999999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="36"/>
       <c r="B11" s="36"/>
       <c r="C11" s="1"/>
@@ -6457,7 +7595,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="36">
         <v>0.2</v>
       </c>
@@ -6486,7 +7624,7 @@
         <v>0.99680000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="36">
         <v>0.2</v>
       </c>
@@ -6515,14 +7653,14 @@
         <v>0.39279999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="36">
         <v>0.2</v>
       </c>
       <c r="B14" s="36">
         <v>20</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="76">
         <v>0.40039999999999998</v>
       </c>
       <c r="D14" s="1">
@@ -6544,7 +7682,7 @@
         <v>0.32700000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="36">
         <v>0.2</v>
       </c>
@@ -6573,7 +7711,7 @@
         <v>0.4138</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="36"/>
       <c r="B16" s="36"/>
       <c r="C16" s="1"/>
@@ -6896,6 +8034,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6904,7 +8043,7 @@
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:I11"/>
+      <selection activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7901,7 +9040,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:I25"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7953,10 +9092,10 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="57">
+      <c r="A3" s="56">
         <v>0</v>
       </c>
-      <c r="B3" s="57">
+      <c r="B3" s="56">
         <v>10</v>
       </c>
       <c r="C3" s="46"/>
@@ -8232,7 +9371,7 @@
   <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12962,7 +14101,7 @@
       <c r="L2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="61" t="s">
+      <c r="M2" s="60" t="s">
         <v>1</v>
       </c>
       <c r="N2" s="6" t="s">
@@ -13556,7 +14695,7 @@
         <v>0.94340000000000002</v>
       </c>
       <c r="I10" s="7"/>
-      <c r="K10" s="50">
+      <c r="K10" s="49">
         <v>40</v>
       </c>
       <c r="L10" s="20">
@@ -14043,15 +15182,19 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>19</v>
       </c>
@@ -14079,8 +15222,11 @@
       <c r="I1" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K1" s="73" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="24">
         <v>0</v>
       </c>
@@ -14109,7 +15255,7 @@
         <v>0.93230000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="30">
         <v>0</v>
       </c>
@@ -14138,7 +15284,7 @@
         <v>0.9879</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="24">
         <v>0</v>
       </c>
@@ -14167,36 +15313,39 @@
         <v>0.95189999999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="24">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="71">
         <v>0</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="71">
         <v>30</v>
       </c>
-      <c r="C5" s="50">
+      <c r="C5" s="71">
         <v>0.83</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="72">
         <v>0.78610000000000002</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="71">
         <v>0.874</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="71">
         <v>0.68979999999999997</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="71">
         <v>0.73470000000000002</v>
       </c>
-      <c r="H5" s="24">
+      <c r="H5" s="71">
         <v>0.96960000000000002</v>
       </c>
-      <c r="I5" s="24">
+      <c r="I5" s="71">
         <v>0.95779999999999998</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="24">
         <v>0.1</v>
       </c>
@@ -14225,7 +15374,7 @@
         <v>0.93720000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="24">
         <v>0.1</v>
       </c>
@@ -14254,7 +15403,7 @@
         <v>0.93100000000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="24">
         <v>0.1</v>
       </c>
@@ -14283,7 +15432,7 @@
         <v>0.97009999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="24">
         <v>0.1</v>
       </c>
@@ -14305,43 +15454,46 @@
       <c r="G9" s="24">
         <v>0.90880000000000005</v>
       </c>
-      <c r="H9" s="50">
+      <c r="H9" s="49">
         <v>0.9516</v>
       </c>
-      <c r="I9" s="50">
+      <c r="I9" s="49">
         <v>0.91739999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="24">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="71">
         <v>0.2</v>
       </c>
-      <c r="B10" s="24">
+      <c r="B10" s="71">
         <v>0</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="71">
         <v>0.5</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="71">
         <v>0.2</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="71">
         <v>0.8</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="71">
         <v>0.1</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="71">
         <v>0.1333</v>
       </c>
-      <c r="H10" s="24">
+      <c r="H10" s="71">
         <v>0.95720000000000005</v>
       </c>
-      <c r="I10" s="24">
+      <c r="I10" s="71">
         <v>0.93079999999999996</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="24">
         <v>0.2</v>
       </c>
@@ -14370,7 +15522,7 @@
         <v>0.97150000000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="24">
         <v>0.2</v>
       </c>
@@ -14399,7 +15551,7 @@
         <v>0.94499999999999995</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="24">
         <v>0.2</v>
       </c>
@@ -14428,7 +15580,7 @@
         <v>0.92469999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="24">
         <v>0.3</v>
       </c>
@@ -14457,7 +15609,7 @@
         <v>0.96950000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="24">
         <v>0.3</v>
       </c>
@@ -14486,7 +15638,7 @@
         <v>0.98240000000000005</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="24">
         <v>0.3</v>
       </c>
@@ -14703,7 +15855,10 @@
         <f>MIN(C2:C9,C11:C21)</f>
         <v>0.83</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="3">
+        <f>MIN(D2:D9,D11:D21)</f>
+        <v>0.78610000000000002</v>
+      </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3">
@@ -14724,6 +15879,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -14765,7 +15921,7 @@
       <c r="I1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="66" t="s">
+      <c r="K1" s="64" t="s">
         <v>54</v>
       </c>
     </row>

--- a/results/Hyperparameter_Tuning/Graph_Embedding_NN Classifier.xlsx
+++ b/results/Hyperparameter_Tuning/Graph_Embedding_NN Classifier.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14295" windowHeight="6645" firstSheet="8" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14295" windowHeight="6645" firstSheet="7" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="deepwalk" sheetId="16" r:id="rId1"/>
@@ -25,11 +25,12 @@
     <sheet name="node2vec_plus_nw10_wl20" sheetId="28" r:id="rId11"/>
     <sheet name="node2vec_plus_nw8_wl32" sheetId="29" r:id="rId12"/>
     <sheet name="Summary" sheetId="17" r:id="rId13"/>
-    <sheet name="G VS P" sheetId="30" r:id="rId14"/>
-    <sheet name="n2v_plus_ExptVerified" sheetId="31" r:id="rId15"/>
-    <sheet name="LINE_Order3_ExptVerified" sheetId="32" r:id="rId16"/>
-    <sheet name="SDNE_ExptVerified" sheetId="20" r:id="rId17"/>
+    <sheet name="Sheet3" sheetId="35" r:id="rId14"/>
+    <sheet name="G VS P" sheetId="30" r:id="rId15"/>
+    <sheet name="n2v_plus_ExptVerified" sheetId="31" r:id="rId16"/>
+    <sheet name="LINE_Order3_ExptVerified" sheetId="32" r:id="rId17"/>
     <sheet name="struc2vec_ExptVerified" sheetId="21" r:id="rId18"/>
+    <sheet name="SDNE_ExptVerified" sheetId="20" r:id="rId19"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="106">
   <si>
     <t>Accuracy</t>
   </si>
@@ -164,9 +165,6 @@
   </si>
   <si>
     <t>num_walks = 16 , walk_length = 32</t>
-  </si>
-  <si>
-    <t>epochs = 35</t>
   </si>
   <si>
     <t>ksteps=2</t>
@@ -342,6 +340,30 @@
   </si>
   <si>
     <t>0.5596 0.4928 0.6265 0.5746 0.5289 0.5515 0.5756</t>
+  </si>
+  <si>
+    <t>Unbalanced dataset ?</t>
+  </si>
+  <si>
+    <t>PCA ? (ifeature)</t>
+  </si>
+  <si>
+    <t>Does dimensions affect performance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>Hadamard</t>
+  </si>
+  <si>
+    <t>Concatenation</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Sum</t>
   </si>
 </sst>
 </file>
@@ -564,7 +586,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -692,11 +714,18 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -705,8 +734,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFCCCC"/>
       <color rgb="FFFFFFCC"/>
-      <color rgb="FFFFCCCC"/>
       <color rgb="FFCCECFF"/>
       <color rgb="FFFFCCFF"/>
     </mruColors>
@@ -7245,7 +7274,7 @@
         <v>0.94640000000000002</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -8027,8 +8056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8618,10 +8647,10 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="68">
+      <c r="A23" s="85">
         <v>2</v>
       </c>
-      <c r="B23" s="68">
+      <c r="B23" s="85">
         <v>2</v>
       </c>
       <c r="C23" s="70">
@@ -8874,10 +8903,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8952,10 +8981,10 @@
         <v>0.99919999999999998</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="60" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="60" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>11</v>
       </c>
@@ -8986,7 +9015,7 @@
     </row>
     <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="64" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5" s="2">
         <v>0.94930000000000003</v>
@@ -9010,7 +9039,7 @@
         <v>0.98599999999999999</v>
       </c>
       <c r="I5" s="59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -9044,7 +9073,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7" s="13">
         <v>0.89419999999999999</v>
@@ -9068,7 +9097,7 @@
         <v>0.94410000000000005</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -9097,7 +9126,7 @@
         <v>0.87180000000000002</v>
       </c>
       <c r="I8" s="39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -9155,12 +9184,12 @@
         <v>0.78580000000000005</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11" s="3">
         <v>0.60070000000000001</v>
@@ -9184,7 +9213,7 @@
         <v>0.61270000000000002</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -9195,7 +9224,7 @@
         <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -9256,7 +9285,7 @@
         <v>40</v>
       </c>
       <c r="L15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -9285,7 +9314,7 @@
         <v>0.87809999999999999</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -9322,7 +9351,7 @@
         <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
@@ -9380,10 +9409,10 @@
         <v>0.54600000000000004</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
@@ -9412,12 +9441,12 @@
         <v>0.96130000000000004</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="81" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -9427,7 +9456,7 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
@@ -9442,7 +9471,7 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K24" s="4">
         <v>0.57530000000000003</v>
@@ -9468,7 +9497,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -9478,10 +9507,10 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J25" s="83" t="s">
-        <v>97</v>
+        <v>54</v>
+      </c>
+      <c r="J25" s="82" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="30" x14ac:dyDescent="0.25">
@@ -9496,13 +9525,13 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="J26" s="82"/>
+        <v>55</v>
+      </c>
+      <c r="J26" s="83"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -9514,7 +9543,7 @@
       <c r="I27" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J27" s="82"/>
+      <c r="J27" s="83"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
@@ -9528,13 +9557,13 @@
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J28" s="82"/>
+        <v>41</v>
+      </c>
+      <c r="J28" s="83"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -9544,9 +9573,14 @@
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J29" s="82"/>
+        <v>46</v>
+      </c>
+      <c r="J29" s="83"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="87" t="s">
+        <v>98</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A3:I12">
@@ -9562,10 +9596,1124 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:I47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23:I24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="45.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="53" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.99219999999999997</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.99780000000000002</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.98650000000000004</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.98670000000000002</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.99219999999999997</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.99939999999999996</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.99919999999999998</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.96230000000000004</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.98829999999999996</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.93630000000000002</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.93959999999999999</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.96330000000000005</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.99119999999999997</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.98970000000000002</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.94930000000000003</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.97130000000000005</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.9274</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.93049999999999999</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.95040000000000002</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.98719999999999997</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.92259999999999998</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.92830000000000001</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.92310000000000003</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.97140000000000004</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.89419999999999999</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.90669999999999995</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.88160000000000005</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.88470000000000004</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.89549999999999996</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.95020000000000004</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.94410000000000005</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.86260000000000003</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.89639999999999997</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.82869999999999999</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.83940000000000003</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.86680000000000001</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.91239999999999999</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.87180000000000002</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.84189999999999998</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.85019999999999996</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.83360000000000001</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.83650000000000002</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.84319999999999995</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.90049999999999997</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.88149999999999995</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.77059999999999995</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.85109999999999997</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.69010000000000005</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.7339</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.78769999999999996</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.82709999999999995</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.78580000000000005</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.60070000000000001</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.60270000000000001</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.59870000000000001</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.60109999999999997</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.59950000000000003</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.63749999999999996</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0.61270000000000002</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="53" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.9839</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.96009999999999995</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.96109999999999995</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.97230000000000005</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.9929</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0.9849</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.96079999999999999</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.98029999999999995</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.94130000000000003</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.94350000000000001</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0.96150000000000002</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.99029999999999996</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0.98939999999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.94059999999999999</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.97529999999999994</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.90580000000000005</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.91210000000000002</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0.94259999999999999</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.98829999999999996</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0.98770000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0.87890000000000001</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.89419999999999999</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.86370000000000002</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.86890000000000001</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0.88109999999999999</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.94020000000000004</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0.92490000000000006</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0.89329999999999998</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.89780000000000004</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.88880000000000003</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.88980000000000004</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0.89380000000000004</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.95920000000000005</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0.95909999999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0.7984</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.89910000000000001</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.69779999999999998</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.77510000000000001</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.84230000000000005</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0.81179999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0.75919999999999999</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.70220000000000005</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.81610000000000005</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.76170000000000004</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0.82589999999999997</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0.81520000000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0.8861</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.91790000000000005</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.85429999999999995</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.86329999999999996</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0.88970000000000005</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0.9536</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0.95269999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0.67620000000000002</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.72740000000000005</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.62509999999999999</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0.69179999999999997</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0.71430000000000005</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0.67030000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="53" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="3">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.9839</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0.96009999999999995</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0.96109999999999995</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0.97230000000000005</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0.99209999999999998</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0.98529999999999995</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="3">
+        <v>0.96430000000000005</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0.97440000000000004</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0.95430000000000004</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0.95520000000000005</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0.9647</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0.99350000000000005</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0.99260000000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="3">
+        <v>0.93879999999999997</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0.97089999999999999</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0.90669999999999995</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0.91249999999999998</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0.94069999999999998</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0.98719999999999997</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0.98650000000000004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="3">
+        <v>0.88790000000000002</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0.89780000000000004</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0.878</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0.88049999999999995</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0.94869999999999999</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0.93510000000000004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="3">
+        <v>0.89959999999999996</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0.90669999999999995</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0.89239999999999997</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0.89390000000000003</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0.90029999999999999</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0.96220000000000006</v>
+      </c>
+      <c r="H31" s="3">
+        <v>0.96199999999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="3">
+        <v>0.78990000000000005</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0.9143</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0.66549999999999998</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0.76270000000000004</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0.8236</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0.84709999999999996</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0.82069999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="3">
+        <v>0.76390000000000002</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0.71209999999999996</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0.81569999999999998</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0.78659999999999997</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0.69069999999999998</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0.81930000000000003</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0.81420000000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="3">
+        <v>0.88629999999999998</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0.92149999999999999</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0.85109999999999997</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0.86129999999999995</v>
+      </c>
+      <c r="F34" s="3">
+        <v>0.89029999999999998</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0.95589999999999997</v>
+      </c>
+      <c r="H34" s="3">
+        <v>0.95230000000000004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="3">
+        <v>0.68679999999999997</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0.72289999999999999</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0.65069999999999995</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0.69720000000000004</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0.72870000000000001</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0.67820000000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="53" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="3">
+        <v>0.97650000000000003</v>
+      </c>
+      <c r="C39" s="3">
+        <v>0.98880000000000001</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0.96409999999999996</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0.96509999999999996</v>
+      </c>
+      <c r="F39" s="3">
+        <v>0.9768</v>
+      </c>
+      <c r="G39" s="3">
+        <v>0.99460000000000004</v>
+      </c>
+      <c r="H39" s="3">
+        <v>0.98839999999999995</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="3">
+        <v>0.96079999999999999</v>
+      </c>
+      <c r="C40" s="3">
+        <v>0.97850000000000004</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0.94540000000000002</v>
+      </c>
+      <c r="F40" s="3">
+        <v>0.96150000000000002</v>
+      </c>
+      <c r="G40" s="3">
+        <v>0.98740000000000006</v>
+      </c>
+      <c r="H40" s="3">
+        <v>0.98640000000000005</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" s="3">
+        <v>0.94040000000000001</v>
+      </c>
+      <c r="C41" s="3">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="D41" s="3">
+        <v>0.90669999999999995</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0.91259999999999997</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0.94230000000000003</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0.98870000000000002</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0.98839999999999995</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" s="3">
+        <v>0.91590000000000005</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="D42" s="3">
+        <v>0.90990000000000004</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0.91110000000000002</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0.91639999999999999</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0.96930000000000005</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0.9677</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" s="3">
+        <v>0.90159999999999996</v>
+      </c>
+      <c r="C43" s="3">
+        <v>0.90629999999999999</v>
+      </c>
+      <c r="D43" s="3">
+        <v>0.89690000000000003</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0.89790000000000003</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0.96419999999999995</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0.96309999999999996</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="3">
+        <v>0.82669999999999999</v>
+      </c>
+      <c r="C44" s="3">
+        <v>0.90669999999999995</v>
+      </c>
+      <c r="D44" s="3">
+        <v>0.74660000000000004</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0.81169999999999998</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0.8508</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0.87739999999999996</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0.8619</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="3">
+        <v>0.86970000000000003</v>
+      </c>
+      <c r="C45" s="3">
+        <v>0.88519999999999999</v>
+      </c>
+      <c r="D45" s="3">
+        <v>0.85429999999999995</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0.85950000000000004</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0.87129999999999996</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0.93369999999999997</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0.91769999999999996</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="3">
+        <v>0.88970000000000005</v>
+      </c>
+      <c r="C46" s="3">
+        <v>0.91610000000000003</v>
+      </c>
+      <c r="D46" s="3">
+        <v>0.86319999999999997</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0.87019999999999997</v>
+      </c>
+      <c r="F46" s="3">
+        <v>0.89259999999999995</v>
+      </c>
+      <c r="G46" s="3">
+        <v>0.9556</v>
+      </c>
+      <c r="H46" s="3">
+        <v>0.95279999999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" s="3">
+        <v>0.69240000000000002</v>
+      </c>
+      <c r="C47" s="3">
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="D47" s="3">
+        <v>0.66769999999999996</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0.68389999999999995</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0.69879999999999998</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0.7339</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0.68269999999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9586,7 +10734,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>13</v>
@@ -9624,42 +10772,42 @@
         <v>24</v>
       </c>
       <c r="M2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0.99219999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.99219999999999997</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.99780000000000002</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.98650000000000004</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.98670000000000002</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.99219999999999997</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.99939999999999996</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.99919999999999998</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="N2" s="3">
-        <v>0.96230000000000004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0.96230000000000004</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0.98829999999999996</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0.93630000000000002</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0.93959999999999999</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0.96330000000000005</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0.99119999999999997</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0.98970000000000002</v>
-      </c>
-      <c r="J3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="N3" s="3">
         <v>0.96230000000000004</v>
@@ -9667,177 +10815,177 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="B4" s="3">
-        <v>0.94930000000000003</v>
+        <v>0.96230000000000004</v>
       </c>
       <c r="C4" s="3">
-        <v>0.97130000000000005</v>
+        <v>0.98829999999999996</v>
       </c>
       <c r="D4" s="3">
-        <v>0.9274</v>
+        <v>0.93630000000000002</v>
       </c>
       <c r="E4" s="3">
-        <v>0.93049999999999999</v>
+        <v>0.93959999999999999</v>
       </c>
       <c r="F4" s="3">
-        <v>0.95040000000000002</v>
+        <v>0.96330000000000005</v>
       </c>
       <c r="G4" s="3">
-        <v>0.98719999999999997</v>
+        <v>0.99119999999999997</v>
       </c>
       <c r="H4" s="3">
-        <v>0.98599999999999999</v>
+        <v>0.98970000000000002</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="N4" s="3">
-        <v>0.92259999999999998</v>
+        <v>0.96230000000000004</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5" s="3">
-        <v>0.96230000000000004</v>
+        <v>0.94930000000000003</v>
       </c>
       <c r="C5" s="3">
-        <v>0.97670000000000001</v>
+        <v>0.97130000000000005</v>
       </c>
       <c r="D5" s="3">
-        <v>0.94799999999999995</v>
+        <v>0.9274</v>
       </c>
       <c r="E5" s="3">
-        <v>0.94950000000000001</v>
+        <v>0.93049999999999999</v>
       </c>
       <c r="F5" s="3">
-        <v>0.96289999999999998</v>
+        <v>0.95040000000000002</v>
       </c>
       <c r="G5" s="3">
-        <v>0.98740000000000006</v>
+        <v>0.98719999999999997</v>
       </c>
       <c r="H5" s="3">
-        <v>0.98640000000000005</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="J5" t="s">
-        <v>67</v>
-      </c>
-      <c r="M5" s="73" t="s">
-        <v>70</v>
+        <v>65</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="N5" s="3">
-        <v>0.90290000000000004</v>
+        <v>0.92259999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="B6" s="3">
-        <v>0.92259999999999998</v>
+        <v>0.96230000000000004</v>
       </c>
       <c r="C6" s="3">
-        <v>0.92830000000000001</v>
+        <v>0.97670000000000001</v>
       </c>
       <c r="D6" s="3">
-        <v>0.91700000000000004</v>
+        <v>0.94799999999999995</v>
       </c>
       <c r="E6" s="3">
-        <v>0.91800000000000004</v>
+        <v>0.94950000000000001</v>
       </c>
       <c r="F6" s="3">
-        <v>0.92310000000000003</v>
+        <v>0.96289999999999998</v>
       </c>
       <c r="G6" s="3">
-        <v>0.97140000000000004</v>
+        <v>0.98740000000000006</v>
       </c>
       <c r="H6" s="3">
-        <v>0.96799999999999997</v>
+        <v>0.98640000000000005</v>
       </c>
       <c r="J6" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="M6" s="73" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="N6" s="3">
-        <v>0.9002</v>
+        <v>0.90290000000000004</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="B7" s="3">
-        <v>0.89419999999999999</v>
+        <v>0.92259999999999998</v>
       </c>
       <c r="C7" s="3">
-        <v>0.90669999999999995</v>
+        <v>0.92830000000000001</v>
       </c>
       <c r="D7" s="3">
-        <v>0.88160000000000005</v>
+        <v>0.91700000000000004</v>
       </c>
       <c r="E7" s="3">
-        <v>0.88470000000000004</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="F7" s="3">
-        <v>0.89549999999999996</v>
+        <v>0.92310000000000003</v>
       </c>
       <c r="G7" s="3">
-        <v>0.95020000000000004</v>
+        <v>0.97140000000000004</v>
       </c>
       <c r="H7" s="3">
-        <v>0.94410000000000005</v>
+        <v>0.96799999999999997</v>
       </c>
       <c r="J7" t="s">
-        <v>55</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>52</v>
+        <v>27</v>
+      </c>
+      <c r="M7" s="73" t="s">
+        <v>71</v>
       </c>
       <c r="N7" s="3">
-        <v>0.89419999999999999</v>
+        <v>0.9002</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="B8" s="3">
-        <v>0.88360000000000005</v>
+        <v>0.89419999999999999</v>
       </c>
       <c r="C8" s="3">
-        <v>0.86770000000000003</v>
+        <v>0.90669999999999995</v>
       </c>
       <c r="D8" s="3">
-        <v>0.89959999999999996</v>
+        <v>0.88160000000000005</v>
       </c>
       <c r="E8" s="3">
-        <v>0.8962</v>
+        <v>0.88470000000000004</v>
       </c>
       <c r="F8" s="3">
-        <v>0.88180000000000003</v>
+        <v>0.89549999999999996</v>
       </c>
       <c r="G8" s="3">
-        <v>0.93679999999999997</v>
+        <v>0.95020000000000004</v>
       </c>
       <c r="H8" s="3">
-        <v>0.94120000000000004</v>
+        <v>0.94410000000000005</v>
       </c>
       <c r="J8" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="N8" s="3">
-        <v>0.88360000000000005</v>
+        <v>0.89419999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -9866,10 +11014,10 @@
         <v>0.87180000000000002</v>
       </c>
       <c r="J9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M9" s="73" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N9" s="3">
         <v>0.88029999999999997</v>
@@ -9936,7 +11084,7 @@
         <v>0.78580000000000005</v>
       </c>
       <c r="J11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M11" s="3" t="s">
         <v>7</v>
@@ -9947,7 +11095,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B12" s="3">
         <v>0.60070000000000001</v>
@@ -9971,10 +11119,10 @@
         <v>0.61270000000000002</v>
       </c>
       <c r="J12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M12" s="73" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N12" s="3">
         <v>0.83389999999999997</v>
@@ -9982,7 +11130,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M13" s="73" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N13" s="3">
         <v>0.82089999999999996</v>
@@ -9990,8 +11138,9 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>83</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="M14" s="3" t="s">
         <v>12</v>
       </c>
@@ -10024,15 +11173,13 @@
       <c r="H15" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I15" s="7"/>
+      <c r="I15" s="5"/>
       <c r="J15" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="K15" t="s">
-        <v>13</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="K15" s="74"/>
       <c r="M15" s="73" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N15" s="3">
         <v>0.66520000000000001</v>
@@ -10040,7 +11187,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B16" s="3">
         <v>0.90290000000000004</v>
@@ -10068,10 +11215,10 @@
         <v>80</v>
       </c>
       <c r="K16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N16" s="3">
         <v>0.60070000000000001</v>
@@ -10079,7 +11226,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B17" s="3">
         <v>0.9002</v>
@@ -10107,10 +11254,10 @@
         <v>20</v>
       </c>
       <c r="K17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M17" s="73" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N17" s="3">
         <v>0.5</v>
@@ -10118,7 +11265,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B18" s="3">
         <v>0.88029999999999997</v>
@@ -10146,12 +11293,12 @@
         <v>100</v>
       </c>
       <c r="K18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B19" s="3">
         <v>0.83389999999999997</v>
@@ -10179,12 +11326,12 @@
         <v>240</v>
       </c>
       <c r="K19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B20" s="3">
         <v>0.82089999999999996</v>
@@ -10212,32 +11359,32 @@
         <v>343</v>
       </c>
       <c r="K20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B21" s="3">
+        <v>79</v>
+      </c>
+      <c r="B21" s="88">
         <v>0.66520000000000001</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="88">
         <v>0.56950000000000001</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="88">
         <v>0.76100000000000001</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="88">
         <v>0.46189999999999998</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="88">
         <v>0.49890000000000001</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="88">
         <v>0.95179999999999998</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="88">
         <v>0.94779999999999998</v>
       </c>
       <c r="I21" s="5"/>
@@ -10245,40 +11392,54 @@
         <v>400</v>
       </c>
       <c r="K21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B22" s="3">
+        <v>81</v>
+      </c>
+      <c r="B22" s="2">
         <v>0.5</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <v>0.4</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="2">
         <v>0.6</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="2">
         <v>0.2</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="2">
         <v>0.26669999999999999</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="2">
         <v>0.67520000000000002</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="2">
         <v>0.64100000000000001</v>
       </c>
-      <c r="I22" s="5"/>
       <c r="J22" s="32">
         <v>273</v>
       </c>
       <c r="K22" t="s">
-        <v>81</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J24" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J27" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -10289,12 +11450,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10335,6 +11496,27 @@
       <c r="B2" s="4">
         <v>0.25</v>
       </c>
+      <c r="C2">
+        <v>0.27239999999999998</v>
+      </c>
+      <c r="D2">
+        <v>0.54259999999999997</v>
+      </c>
+      <c r="E2">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="F2">
+        <v>0.35220000000000001</v>
+      </c>
+      <c r="G2">
+        <v>0.42709999999999998</v>
+      </c>
+      <c r="H2">
+        <v>0.24129999999999999</v>
+      </c>
+      <c r="I2">
+        <v>0.437</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
@@ -10343,6 +11525,27 @@
       <c r="B3" s="4">
         <v>0.5</v>
       </c>
+      <c r="C3">
+        <v>0.49930000000000002</v>
+      </c>
+      <c r="D3">
+        <v>0.53949999999999998</v>
+      </c>
+      <c r="E3">
+        <v>0.4592</v>
+      </c>
+      <c r="F3">
+        <v>0.50970000000000004</v>
+      </c>
+      <c r="G3">
+        <v>0.5151</v>
+      </c>
+      <c r="H3">
+        <v>0.52569999999999995</v>
+      </c>
+      <c r="I3">
+        <v>0.58540000000000003</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
@@ -10351,6 +11554,27 @@
       <c r="B4" s="10">
         <v>1</v>
       </c>
+      <c r="C4">
+        <v>0.63270000000000004</v>
+      </c>
+      <c r="D4">
+        <v>0.73360000000000003</v>
+      </c>
+      <c r="E4">
+        <v>0.53180000000000005</v>
+      </c>
+      <c r="F4">
+        <v>0.61119999999999997</v>
+      </c>
+      <c r="G4">
+        <v>0.66659999999999997</v>
+      </c>
+      <c r="H4">
+        <v>0.72189999999999999</v>
+      </c>
+      <c r="I4">
+        <v>0.72270000000000001</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
@@ -10359,6 +11583,27 @@
       <c r="B5" s="4">
         <v>2</v>
       </c>
+      <c r="C5">
+        <v>0.37780000000000002</v>
+      </c>
+      <c r="D5">
+        <v>0.61970000000000003</v>
+      </c>
+      <c r="E5">
+        <v>0.13589999999999999</v>
+      </c>
+      <c r="F5">
+        <v>0.41820000000000002</v>
+      </c>
+      <c r="G5">
+        <v>0.49919999999999998</v>
+      </c>
+      <c r="H5">
+        <v>0.40720000000000001</v>
+      </c>
+      <c r="I5">
+        <v>0.4768</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -10367,6 +11612,27 @@
       <c r="B6" s="4">
         <v>4</v>
       </c>
+      <c r="C6">
+        <v>0.54369999999999996</v>
+      </c>
+      <c r="D6">
+        <v>0.74219999999999997</v>
+      </c>
+      <c r="E6">
+        <v>0.3453</v>
+      </c>
+      <c r="F6">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="G6">
+        <v>0.61950000000000005</v>
+      </c>
+      <c r="H6">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="I6">
+        <v>0.60129999999999995</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -10379,6 +11645,27 @@
       <c r="B8" s="4">
         <v>0.25</v>
       </c>
+      <c r="C8">
+        <v>0.30780000000000002</v>
+      </c>
+      <c r="D8">
+        <v>0.50670000000000004</v>
+      </c>
+      <c r="E8">
+        <v>0.109</v>
+      </c>
+      <c r="F8">
+        <v>0.36280000000000001</v>
+      </c>
+      <c r="G8">
+        <v>0.42280000000000001</v>
+      </c>
+      <c r="H8">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.44540000000000002</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -10387,6 +11674,27 @@
       <c r="B9" s="4">
         <v>0.5</v>
       </c>
+      <c r="C9">
+        <v>0.59350000000000003</v>
+      </c>
+      <c r="D9">
+        <v>0.67169999999999996</v>
+      </c>
+      <c r="E9">
+        <v>0.51519999999999999</v>
+      </c>
+      <c r="F9">
+        <v>0.58509999999999995</v>
+      </c>
+      <c r="G9">
+        <v>0.62429999999999997</v>
+      </c>
+      <c r="H9">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="I9">
+        <v>0.7359</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -10395,6 +11703,27 @@
       <c r="B10" s="10">
         <v>1</v>
       </c>
+      <c r="C10">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="D10">
+        <v>0.7278</v>
+      </c>
+      <c r="E10">
+        <v>4.6199999999999998E-2</v>
+      </c>
+      <c r="F10">
+        <v>0.43280000000000002</v>
+      </c>
+      <c r="G10">
+        <v>0.54269999999999996</v>
+      </c>
+      <c r="H10">
+        <v>0.41070000000000001</v>
+      </c>
+      <c r="I10">
+        <v>0.54800000000000004</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -10403,6 +11732,27 @@
       <c r="B11" s="4">
         <v>2</v>
       </c>
+      <c r="C11">
+        <v>0.40560000000000002</v>
+      </c>
+      <c r="D11">
+        <v>0.68340000000000001</v>
+      </c>
+      <c r="E11">
+        <v>0.1278</v>
+      </c>
+      <c r="F11">
+        <v>0.43890000000000001</v>
+      </c>
+      <c r="G11">
+        <v>0.53439999999999999</v>
+      </c>
+      <c r="H11">
+        <v>0.42259999999999998</v>
+      </c>
+      <c r="I11">
+        <v>0.53290000000000004</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -10411,6 +11761,27 @@
       <c r="B12" s="4">
         <v>4</v>
       </c>
+      <c r="C12">
+        <v>0.63859999999999995</v>
+      </c>
+      <c r="D12">
+        <v>0.73180000000000001</v>
+      </c>
+      <c r="E12">
+        <v>0.54530000000000001</v>
+      </c>
+      <c r="F12">
+        <v>0.62039999999999995</v>
+      </c>
+      <c r="G12">
+        <v>0.67030000000000001</v>
+      </c>
+      <c r="H12">
+        <v>0.69789999999999996</v>
+      </c>
+      <c r="I12">
+        <v>0.70550000000000002</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
@@ -10423,8 +11794,27 @@
       <c r="B14" s="4">
         <v>0.25</v>
       </c>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
+      <c r="C14">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="D14">
+        <v>0.53139999999999998</v>
+      </c>
+      <c r="E14">
+        <v>0.32469999999999999</v>
+      </c>
+      <c r="F14">
+        <v>0.44059999999999999</v>
+      </c>
+      <c r="G14">
+        <v>0.48159999999999997</v>
+      </c>
+      <c r="H14">
+        <v>0.43780000000000002</v>
+      </c>
+      <c r="I14">
+        <v>0.49830000000000002</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -10433,6 +11823,27 @@
       <c r="B15" s="4">
         <v>0.5</v>
       </c>
+      <c r="C15">
+        <v>0.6139</v>
+      </c>
+      <c r="D15">
+        <v>0.65469999999999995</v>
+      </c>
+      <c r="E15">
+        <v>0.57310000000000005</v>
+      </c>
+      <c r="F15">
+        <v>0.60670000000000002</v>
+      </c>
+      <c r="G15">
+        <v>0.62929999999999997</v>
+      </c>
+      <c r="H15">
+        <v>0.67710000000000004</v>
+      </c>
+      <c r="I15">
+        <v>0.6774</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -10441,130 +11852,403 @@
       <c r="B16" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>0.65990000000000004</v>
+      </c>
+      <c r="D16">
+        <v>0.52739999999999998</v>
+      </c>
+      <c r="E16">
+        <v>0.79239999999999999</v>
+      </c>
+      <c r="F16">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="G16">
+        <v>0.60809999999999997</v>
+      </c>
+      <c r="H16">
+        <v>0.70350000000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.73960000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>1</v>
       </c>
       <c r="B17" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>0.46210000000000001</v>
+      </c>
+      <c r="D17">
+        <v>0.70669999999999999</v>
+      </c>
+      <c r="E17">
+        <v>0.2175</v>
+      </c>
+      <c r="F17">
+        <v>0.47520000000000001</v>
+      </c>
+      <c r="G17">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="H17">
+        <v>0.5494</v>
+      </c>
+      <c r="I17">
+        <v>0.57899999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>1</v>
       </c>
       <c r="B18" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>0.50649999999999995</v>
+      </c>
+      <c r="D18">
+        <v>0.69550000000000001</v>
+      </c>
+      <c r="E18">
+        <v>0.3175</v>
+      </c>
+      <c r="F18">
+        <v>0.50539999999999996</v>
+      </c>
+      <c r="G18">
+        <v>0.58520000000000005</v>
+      </c>
+      <c r="H18">
+        <v>0.57279999999999998</v>
+      </c>
+      <c r="I18">
+        <v>0.63449999999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>2</v>
       </c>
       <c r="B20" s="4">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>0.34620000000000001</v>
+      </c>
+      <c r="D20">
+        <v>0.52690000000000003</v>
+      </c>
+      <c r="E20">
+        <v>0.16550000000000001</v>
+      </c>
+      <c r="F20">
+        <v>0.3871</v>
+      </c>
+      <c r="G20">
+        <v>0.44619999999999999</v>
+      </c>
+      <c r="H20">
+        <v>0.34470000000000001</v>
+      </c>
+      <c r="I20">
+        <v>0.47320000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>2</v>
       </c>
       <c r="B21" s="4">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>0.55310000000000004</v>
+      </c>
+      <c r="D21">
+        <v>0.55959999999999999</v>
+      </c>
+      <c r="E21">
+        <v>0.54659999999999997</v>
+      </c>
+      <c r="F21">
+        <v>0.55310000000000004</v>
+      </c>
+      <c r="G21">
+        <v>0.55620000000000003</v>
+      </c>
+      <c r="H21">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="I21">
+        <v>0.64629999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>2</v>
       </c>
       <c r="B22" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
+      <c r="C22">
+        <v>0.35830000000000001</v>
+      </c>
+      <c r="D22">
+        <v>0.52380000000000004</v>
+      </c>
+      <c r="E22">
+        <v>0.1928</v>
+      </c>
+      <c r="F22">
+        <v>0.39460000000000001</v>
+      </c>
+      <c r="G22">
+        <v>0.4496</v>
+      </c>
+      <c r="H22">
+        <v>0.432</v>
+      </c>
+      <c r="I22">
+        <v>0.56259999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="84">
         <v>2</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="84">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="76">
+        <v>0.71950000000000003</v>
+      </c>
+      <c r="D23" s="76">
+        <v>0.75070000000000003</v>
+      </c>
+      <c r="E23" s="76">
+        <v>0.68830000000000002</v>
+      </c>
+      <c r="F23" s="76">
+        <v>0.70960000000000001</v>
+      </c>
+      <c r="G23" s="76">
+        <v>0.7288</v>
+      </c>
+      <c r="H23" s="76">
+        <v>0.77690000000000003</v>
+      </c>
+      <c r="I23" s="76">
+        <v>0.77810000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>2</v>
       </c>
       <c r="B24" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>0.7157</v>
+      </c>
+      <c r="D24">
+        <v>0.55740000000000001</v>
+      </c>
+      <c r="E24">
+        <v>0.874</v>
+      </c>
+      <c r="F24">
+        <v>0.81559999999999999</v>
+      </c>
+      <c r="G24">
+        <v>0.66220000000000001</v>
+      </c>
+      <c r="H24">
+        <v>0.80710000000000004</v>
+      </c>
+      <c r="I24">
+        <v>0.83169999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
     </row>
-    <row r="26" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>4</v>
       </c>
       <c r="B26" s="4">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
+      <c r="C26">
+        <v>0.44330000000000003</v>
+      </c>
+      <c r="D26">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="E26">
+        <v>0.34749999999999998</v>
+      </c>
+      <c r="F26">
+        <v>0.45279999999999998</v>
+      </c>
+      <c r="G26">
+        <v>0.4919</v>
+      </c>
+      <c r="H26">
+        <v>0.44619999999999999</v>
+      </c>
+      <c r="I26">
+        <v>0.53439999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="84">
         <v>4</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="84">
         <v>0.5</v>
       </c>
-      <c r="C27" s="74"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C27" s="76">
+        <v>0.52529999999999999</v>
+      </c>
+      <c r="D27" s="76">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="E27" s="76">
+        <v>0.39369999999999999</v>
+      </c>
+      <c r="F27" s="76">
+        <v>0.52080000000000004</v>
+      </c>
+      <c r="G27" s="76">
+        <v>0.58020000000000005</v>
+      </c>
+      <c r="H27" s="76">
+        <v>0.55879999999999996</v>
+      </c>
+      <c r="I27" s="76">
+        <v>0.62539999999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>4</v>
       </c>
       <c r="B28" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C28" s="1">
+        <v>0.47470000000000001</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.56230000000000002</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.47870000000000001</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0.5151</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0.4829</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0.56669999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>4</v>
       </c>
       <c r="B29" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
+      <c r="C29" s="1">
+        <v>0.49780000000000002</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.73140000000000005</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.2641</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.50129999999999997</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0.64119999999999999</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0.70740000000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="23">
         <v>4</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="23">
         <v>4</v>
+      </c>
+      <c r="C30" s="21">
+        <v>0.80359999999999998</v>
+      </c>
+      <c r="D30" s="20">
+        <v>0.63590000000000002</v>
+      </c>
+      <c r="E30" s="20">
+        <v>0.97130000000000005</v>
+      </c>
+      <c r="F30" s="20">
+        <v>0.95960000000000001</v>
+      </c>
+      <c r="G30" s="20">
+        <v>0.76390000000000002</v>
+      </c>
+      <c r="H30" s="20">
+        <v>0.94130000000000003</v>
+      </c>
+      <c r="I30" s="20">
+        <v>0.94910000000000005</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:H4"/>
+      <selection activeCell="O39" sqref="O39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="75" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -10855,822 +12539,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" s="66" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" s="66" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" s="66" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" s="66" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" s="66" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" s="66" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="32">
-        <v>0</v>
-      </c>
-      <c r="B2" s="32">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0.51819999999999999</v>
-      </c>
-      <c r="D2">
-        <v>0.87619999999999998</v>
-      </c>
-      <c r="E2">
-        <v>0.16009999999999999</v>
-      </c>
-      <c r="F2">
-        <v>0.51160000000000005</v>
-      </c>
-      <c r="G2">
-        <v>0.64549999999999996</v>
-      </c>
-      <c r="H2">
-        <v>0.74960000000000004</v>
-      </c>
-      <c r="I2">
-        <v>0.77739999999999998</v>
-      </c>
-      <c r="K2" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="L2" s="2">
-        <v>0.86009999999999998</v>
-      </c>
-      <c r="M2" s="2">
-        <v>0.7399</v>
-      </c>
-      <c r="N2" s="2">
-        <v>0.98029999999999995</v>
-      </c>
-      <c r="O2" s="2">
-        <v>0.97409999999999997</v>
-      </c>
-      <c r="P2" s="2">
-        <v>0.84079999999999999</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>0.98240000000000005</v>
-      </c>
-      <c r="R2" s="2">
-        <v>0.96130000000000004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="78">
-        <v>0</v>
-      </c>
-      <c r="B3" s="78">
-        <v>10</v>
-      </c>
-      <c r="C3" s="76">
-        <v>0.86009999999999998</v>
-      </c>
-      <c r="D3" s="76">
-        <v>0.7399</v>
-      </c>
-      <c r="E3" s="76">
-        <v>0.98029999999999995</v>
-      </c>
-      <c r="F3" s="76">
-        <v>0.97409999999999997</v>
-      </c>
-      <c r="G3" s="76">
-        <v>0.84079999999999999</v>
-      </c>
-      <c r="H3" s="76">
-        <v>0.98240000000000005</v>
-      </c>
-      <c r="I3" s="76">
-        <v>0.96130000000000004</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="L3" s="55">
-        <v>0.41049999999999998</v>
-      </c>
-      <c r="M3" s="55">
-        <v>0.78969999999999996</v>
-      </c>
-      <c r="N3" s="55">
-        <v>3.1399999999999997E-2</v>
-      </c>
-      <c r="O3" s="55">
-        <v>0.44890000000000002</v>
-      </c>
-      <c r="P3" s="55">
-        <v>0.57230000000000003</v>
-      </c>
-      <c r="Q3" s="55">
-        <v>6.7199999999999996E-2</v>
-      </c>
-      <c r="R3" s="55">
-        <v>0.31790000000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="33">
-        <v>0</v>
-      </c>
-      <c r="B4" s="33">
-        <v>20</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.48770000000000002</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.76910000000000001</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.20630000000000001</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.49170000000000003</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.59940000000000004</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0.35170000000000001</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0.39069999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="33">
-        <v>0</v>
-      </c>
-      <c r="B5" s="33">
-        <v>30</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.41299999999999998</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.78879999999999995</v>
-      </c>
-      <c r="E5" s="1">
-        <v>3.7199999999999997E-2</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.44750000000000001</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.57010000000000005</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0.3332</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="33">
-        <v>0.1</v>
-      </c>
-      <c r="B7" s="33">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.44819999999999999</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.79149999999999998</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.10489999999999999</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.46920000000000001</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0.58909999999999996</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0.3155</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0.49809999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="33">
-        <v>0.1</v>
-      </c>
-      <c r="B8" s="33">
-        <v>10</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.58720000000000006</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.82420000000000004</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.35020000000000001</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.56169999999999998</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0.66700000000000004</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0.69</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0.66549999999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="77">
-        <v>0.1</v>
-      </c>
-      <c r="B9" s="77">
-        <v>20</v>
-      </c>
-      <c r="C9" s="42">
-        <v>0.41049999999999998</v>
-      </c>
-      <c r="D9" s="42">
-        <v>0.78969999999999996</v>
-      </c>
-      <c r="E9" s="42">
-        <v>3.1399999999999997E-2</v>
-      </c>
-      <c r="F9" s="42">
-        <v>0.44890000000000002</v>
-      </c>
-      <c r="G9" s="42">
-        <v>0.57230000000000003</v>
-      </c>
-      <c r="H9" s="42">
-        <v>6.7199999999999996E-2</v>
-      </c>
-      <c r="I9" s="42">
-        <v>0.31790000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="33">
-        <v>0.1</v>
-      </c>
-      <c r="B10" s="33">
-        <v>30</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0.443</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.78879999999999995</v>
-      </c>
-      <c r="E10" s="1">
-        <v>9.7299999999999998E-2</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0.46629999999999999</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0.58609999999999995</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0.3982</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0.50749999999999995</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="33">
-        <v>0.2</v>
-      </c>
-      <c r="B12" s="33">
-        <v>0</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0.26669999999999999</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0.99719999999999998</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0.99680000000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="33">
-        <v>0.2</v>
-      </c>
-      <c r="B13" s="33">
-        <v>10</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0.45540000000000003</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0.75470000000000004</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0.15609999999999999</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0.47199999999999998</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0.58079999999999998</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0.2772</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0.39279999999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="33">
-        <v>0.2</v>
-      </c>
-      <c r="B14" s="33">
-        <v>20</v>
-      </c>
-      <c r="C14" s="65">
-        <v>0.40039999999999998</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0.76819999999999999</v>
-      </c>
-      <c r="E14" s="1">
-        <v>3.27E-2</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0.44230000000000003</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0.56120000000000003</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0.12870000000000001</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0.32700000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="33">
-        <v>0.2</v>
-      </c>
-      <c r="B15" s="33">
-        <v>30</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0.47349999999999998</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0.75429999999999997</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0.1928</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0.48299999999999998</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0.58879999999999999</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0.35720000000000002</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0.4138</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="33">
-        <v>0.3</v>
-      </c>
-      <c r="B17" s="33">
-        <v>0</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0.79010000000000002</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0.58120000000000005</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0.99909999999999999</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0.99860000000000004</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0.73399999999999999</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0.99390000000000001</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0.99490000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="33">
-        <v>0.3</v>
-      </c>
-      <c r="B18" s="33">
-        <v>10</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0.86839999999999995</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0.77349999999999997</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0.96319999999999995</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0.95499999999999996</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0.85450000000000004</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0.97</v>
-      </c>
-      <c r="I18" s="1">
-        <v>0.93700000000000006</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="36">
-        <v>0.3</v>
-      </c>
-      <c r="B19" s="36">
-        <v>20</v>
-      </c>
-      <c r="C19" s="21">
-        <v>0.88090000000000002</v>
-      </c>
-      <c r="D19" s="20">
-        <v>0.76190000000000002</v>
-      </c>
-      <c r="E19" s="20">
-        <v>1</v>
-      </c>
-      <c r="F19" s="20">
-        <v>1</v>
-      </c>
-      <c r="G19" s="20">
-        <v>0.86439999999999995</v>
-      </c>
-      <c r="H19" s="20">
-        <v>0.99990000000000001</v>
-      </c>
-      <c r="I19" s="20">
-        <v>0.99990000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="33">
-        <v>0.3</v>
-      </c>
-      <c r="B20" s="33">
-        <v>30</v>
-      </c>
-      <c r="C20" s="1">
-        <v>0.46300000000000002</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0.77669999999999995</v>
-      </c>
-      <c r="E20" s="1">
-        <v>0.14929999999999999</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0.47720000000000001</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0.59109999999999996</v>
-      </c>
-      <c r="H20" s="1">
-        <v>0.31440000000000001</v>
-      </c>
-      <c r="I20" s="1">
-        <v>0.37769999999999998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="33"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="33">
-        <v>0.4</v>
-      </c>
-      <c r="B22" s="33">
-        <v>0</v>
-      </c>
-      <c r="C22" s="1">
-        <v>0.86570000000000003</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0.73809999999999998</v>
-      </c>
-      <c r="E22" s="1">
-        <v>0.99329999999999996</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0.99099999999999999</v>
-      </c>
-      <c r="G22" s="1">
-        <v>0.84589999999999999</v>
-      </c>
-      <c r="H22" s="1">
-        <v>0.96819999999999995</v>
-      </c>
-      <c r="I22" s="1">
-        <v>0.97529999999999994</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="33">
-        <v>0.4</v>
-      </c>
-      <c r="B23" s="33">
-        <v>10</v>
-      </c>
-      <c r="C23" s="1">
-        <v>0.51880000000000004</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0.80669999999999997</v>
-      </c>
-      <c r="E23" s="1">
-        <v>0.23089999999999999</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0.51339999999999997</v>
-      </c>
-      <c r="G23" s="1">
-        <v>0.62690000000000001</v>
-      </c>
-      <c r="H23" s="1">
-        <v>0.5504</v>
-      </c>
-      <c r="I23" s="1">
-        <v>0.53779999999999994</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="33">
-        <v>0.4</v>
-      </c>
-      <c r="B24" s="33">
-        <v>20</v>
-      </c>
-      <c r="C24" s="1">
-        <v>0.47420000000000001</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0.73809999999999998</v>
-      </c>
-      <c r="E24" s="1">
-        <v>0.21029999999999999</v>
-      </c>
-      <c r="F24" s="1">
-        <v>0.48309999999999997</v>
-      </c>
-      <c r="G24" s="1">
-        <v>0.58389999999999997</v>
-      </c>
-      <c r="H24" s="1">
-        <v>0.51249999999999996</v>
-      </c>
-      <c r="I24" s="1">
-        <v>0.59209999999999996</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="33">
-        <v>0.4</v>
-      </c>
-      <c r="B25" s="33">
-        <v>30</v>
-      </c>
-      <c r="C25" s="1">
-        <v>0.79169999999999996</v>
-      </c>
-      <c r="D25" s="1">
-        <v>0.7964</v>
-      </c>
-      <c r="E25" s="1">
-        <v>0.78700000000000003</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0.86899999999999999</v>
-      </c>
-      <c r="G25" s="1">
-        <v>0.8165</v>
-      </c>
-      <c r="H25" s="1">
-        <v>0.75339999999999996</v>
-      </c>
-      <c r="I25" s="1">
-        <v>0.82140000000000002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="2">
-        <f>MAX(C2:C25)</f>
-        <v>0.88090000000000002</v>
-      </c>
-      <c r="D27" s="2">
-        <f t="shared" ref="D27:I27" si="0">MAX(D2:D25)</f>
-        <v>0.87619999999999998</v>
-      </c>
-      <c r="E27" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F27" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G27" s="2">
-        <f t="shared" si="0"/>
-        <v>0.86439999999999995</v>
-      </c>
-      <c r="H27" s="2">
-        <f t="shared" si="0"/>
-        <v>0.99990000000000001</v>
-      </c>
-      <c r="I27" s="2">
-        <f t="shared" si="0"/>
-        <v>0.99990000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="2">
-        <f>MIN(C2:C25)</f>
-        <v>0.40039999999999998</v>
-      </c>
-      <c r="D28" s="2">
-        <f t="shared" ref="D28:I28" si="1">MIN(D2:D25)</f>
-        <v>0.4</v>
-      </c>
-      <c r="E28" s="2">
-        <f t="shared" si="1"/>
-        <v>3.1399999999999997E-2</v>
-      </c>
-      <c r="F28" s="2">
-        <f t="shared" si="1"/>
-        <v>0.2</v>
-      </c>
-      <c r="G28" s="2">
-        <f t="shared" si="1"/>
-        <v>0.26669999999999999</v>
-      </c>
-      <c r="H28" s="2">
-        <f t="shared" si="1"/>
-        <v>6.7199999999999996E-2</v>
-      </c>
-      <c r="I28" s="2">
-        <f t="shared" si="1"/>
-        <v>0.31790000000000002</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -11679,7 +12547,7 @@
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30:I30"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12668,6 +13536,822 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N36" sqref="N36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" s="66" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" s="66" t="s">
+        <v>32</v>
+      </c>
+      <c r="R1" s="66" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="32">
+        <v>0</v>
+      </c>
+      <c r="B2" s="32">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0.51819999999999999</v>
+      </c>
+      <c r="D2">
+        <v>0.87619999999999998</v>
+      </c>
+      <c r="E2">
+        <v>0.16009999999999999</v>
+      </c>
+      <c r="F2">
+        <v>0.51160000000000005</v>
+      </c>
+      <c r="G2">
+        <v>0.64549999999999996</v>
+      </c>
+      <c r="H2">
+        <v>0.74960000000000004</v>
+      </c>
+      <c r="I2">
+        <v>0.77739999999999998</v>
+      </c>
+      <c r="K2" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0.86009999999999998</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0.7399</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0.98029999999999995</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0.97409999999999997</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.84079999999999999</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0.98240000000000005</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0.96130000000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="78">
+        <v>0</v>
+      </c>
+      <c r="B3" s="78">
+        <v>10</v>
+      </c>
+      <c r="C3" s="76">
+        <v>0.86009999999999998</v>
+      </c>
+      <c r="D3" s="76">
+        <v>0.7399</v>
+      </c>
+      <c r="E3" s="76">
+        <v>0.98029999999999995</v>
+      </c>
+      <c r="F3" s="76">
+        <v>0.97409999999999997</v>
+      </c>
+      <c r="G3" s="76">
+        <v>0.84079999999999999</v>
+      </c>
+      <c r="H3" s="76">
+        <v>0.98240000000000005</v>
+      </c>
+      <c r="I3" s="76">
+        <v>0.96130000000000004</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" s="55">
+        <v>0.41049999999999998</v>
+      </c>
+      <c r="M3" s="55">
+        <v>0.78969999999999996</v>
+      </c>
+      <c r="N3" s="55">
+        <v>3.1399999999999997E-2</v>
+      </c>
+      <c r="O3" s="55">
+        <v>0.44890000000000002</v>
+      </c>
+      <c r="P3" s="55">
+        <v>0.57230000000000003</v>
+      </c>
+      <c r="Q3" s="55">
+        <v>6.7199999999999996E-2</v>
+      </c>
+      <c r="R3" s="55">
+        <v>0.31790000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="33">
+        <v>0</v>
+      </c>
+      <c r="B4" s="33">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.48770000000000002</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.76910000000000001</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.20630000000000001</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.49170000000000003</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.59940000000000004</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.35170000000000001</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.39069999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="33">
+        <v>0</v>
+      </c>
+      <c r="B5" s="33">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.78879999999999995</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3.7199999999999997E-2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.44750000000000001</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.57010000000000005</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.3332</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="33"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="33">
+        <v>0.1</v>
+      </c>
+      <c r="B7" s="33">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.44819999999999999</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.79149999999999998</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.10489999999999999</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.46920000000000001</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.58909999999999996</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.3155</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.49809999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="33">
+        <v>0.1</v>
+      </c>
+      <c r="B8" s="33">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.58720000000000006</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.82420000000000004</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.35020000000000001</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.56169999999999998</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.66549999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="77">
+        <v>0.1</v>
+      </c>
+      <c r="B9" s="77">
+        <v>20</v>
+      </c>
+      <c r="C9" s="42">
+        <v>0.41049999999999998</v>
+      </c>
+      <c r="D9" s="42">
+        <v>0.78969999999999996</v>
+      </c>
+      <c r="E9" s="42">
+        <v>3.1399999999999997E-2</v>
+      </c>
+      <c r="F9" s="42">
+        <v>0.44890000000000002</v>
+      </c>
+      <c r="G9" s="42">
+        <v>0.57230000000000003</v>
+      </c>
+      <c r="H9" s="42">
+        <v>6.7199999999999996E-2</v>
+      </c>
+      <c r="I9" s="42">
+        <v>0.31790000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="33">
+        <v>0.1</v>
+      </c>
+      <c r="B10" s="33">
+        <v>30</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.443</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.78879999999999995</v>
+      </c>
+      <c r="E10" s="1">
+        <v>9.7299999999999998E-2</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.46629999999999999</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.58609999999999995</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.3982</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.50749999999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="33"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="33">
+        <v>0.2</v>
+      </c>
+      <c r="B12" s="33">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.26669999999999999</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.99719999999999998</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.99680000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="33">
+        <v>0.2</v>
+      </c>
+      <c r="B13" s="33">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.45540000000000003</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.75470000000000004</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.15609999999999999</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.58079999999999998</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.2772</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.39279999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="33">
+        <v>0.2</v>
+      </c>
+      <c r="B14" s="33">
+        <v>20</v>
+      </c>
+      <c r="C14" s="65">
+        <v>0.40039999999999998</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.76819999999999999</v>
+      </c>
+      <c r="E14" s="1">
+        <v>3.27E-2</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.44230000000000003</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.56120000000000003</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.12870000000000001</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.32700000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="33">
+        <v>0.2</v>
+      </c>
+      <c r="B15" s="33">
+        <v>30</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.47349999999999998</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.75429999999999997</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.1928</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.58879999999999999</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.35720000000000002</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.4138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="33"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="33">
+        <v>0.3</v>
+      </c>
+      <c r="B17" s="33">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.79010000000000002</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.58120000000000005</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.99860000000000004</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0.99390000000000001</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0.99490000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="33">
+        <v>0.3</v>
+      </c>
+      <c r="B18" s="33">
+        <v>10</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.86839999999999995</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.77349999999999997</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.96319999999999995</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.85450000000000004</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0.93700000000000006</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="36">
+        <v>0.3</v>
+      </c>
+      <c r="B19" s="36">
+        <v>20</v>
+      </c>
+      <c r="C19" s="21">
+        <v>0.88090000000000002</v>
+      </c>
+      <c r="D19" s="20">
+        <v>0.76190000000000002</v>
+      </c>
+      <c r="E19" s="20">
+        <v>1</v>
+      </c>
+      <c r="F19" s="20">
+        <v>1</v>
+      </c>
+      <c r="G19" s="20">
+        <v>0.86439999999999995</v>
+      </c>
+      <c r="H19" s="20">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="I19" s="20">
+        <v>0.99990000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="33">
+        <v>0.3</v>
+      </c>
+      <c r="B20" s="33">
+        <v>30</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.77669999999999995</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.14929999999999999</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.47720000000000001</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.59109999999999996</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.31440000000000001</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0.37769999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="33"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="33">
+        <v>0.4</v>
+      </c>
+      <c r="B22" s="33">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.86570000000000003</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.73809999999999998</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.99329999999999996</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.84589999999999999</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.96819999999999995</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0.97529999999999994</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="33">
+        <v>0.4</v>
+      </c>
+      <c r="B23" s="33">
+        <v>10</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.51880000000000004</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.80669999999999997</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.23089999999999999</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.51339999999999997</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.62690000000000001</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0.5504</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0.53779999999999994</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="33">
+        <v>0.4</v>
+      </c>
+      <c r="B24" s="33">
+        <v>20</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.47420000000000001</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.73809999999999998</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.21029999999999999</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.48309999999999997</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.58389999999999997</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0.51249999999999996</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0.59209999999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="33">
+        <v>0.4</v>
+      </c>
+      <c r="B25" s="33">
+        <v>30</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.79169999999999996</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.7964</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.8165</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0.75339999999999996</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0.82140000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="2">
+        <f>MAX(C2:C25)</f>
+        <v>0.88090000000000002</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" ref="D27:I27" si="0">MAX(D2:D25)</f>
+        <v>0.87619999999999998</v>
+      </c>
+      <c r="E27" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F27" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G27" s="2">
+        <f t="shared" si="0"/>
+        <v>0.86439999999999995</v>
+      </c>
+      <c r="H27" s="2">
+        <f t="shared" si="0"/>
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="I27" s="2">
+        <f t="shared" si="0"/>
+        <v>0.99990000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="2">
+        <f>MIN(C2:C25)</f>
+        <v>0.40039999999999998</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" ref="D28:I28" si="1">MIN(D2:D25)</f>
+        <v>0.4</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" si="1"/>
+        <v>3.1399999999999997E-2</v>
+      </c>
+      <c r="F28" s="2">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="G28" s="2">
+        <f t="shared" si="1"/>
+        <v>0.26669999999999999</v>
+      </c>
+      <c r="H28" s="2">
+        <f t="shared" si="1"/>
+        <v>6.7199999999999996E-2</v>
+      </c>
+      <c r="I28" s="2">
+        <f t="shared" si="1"/>
+        <v>0.31790000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -15572,7 +17256,7 @@
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:I1"/>
+      <selection activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15862,31 +17546,31 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="A11" s="84">
         <v>16</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="86">
         <v>32</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="84">
         <v>0.87760000000000005</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="84">
         <v>0.93179999999999996</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="84">
         <v>0.82330000000000003</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="84">
         <v>0.84089999999999998</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="84">
         <v>0.88400000000000001</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="84">
         <v>0.94</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="84">
         <v>0.93240000000000001</v>
       </c>
     </row>
@@ -16689,8 +18373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:H39"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16710,12 +18394,12 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="75" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J2" s="75" t="s">
         <v>0</v>
@@ -16750,13 +18434,13 @@
         <v>18</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -17141,7 +18825,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="75" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -17432,7 +19116,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="75" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -17884,10 +19568,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W24"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17926,10 +19610,10 @@
         <v>5</v>
       </c>
       <c r="K1" s="63" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q1">
         <v>0.95520000000000005</v>
@@ -17982,7 +19666,7 @@
         <v>0.93230000000000002</v>
       </c>
       <c r="P2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q2">
         <v>0.96079999999999999</v>
@@ -18035,7 +19719,7 @@
         <v>0.9879</v>
       </c>
       <c r="P3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q3">
         <v>0.96750000000000003</v>
@@ -18088,7 +19772,7 @@
         <v>0.95189999999999997</v>
       </c>
       <c r="P4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q4">
         <v>0.96519999999999995</v>
@@ -18141,10 +19825,10 @@
         <v>0.95779999999999998</v>
       </c>
       <c r="K5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q5">
         <v>0.96299999999999997</v>
@@ -18341,7 +20025,7 @@
         <v>0.93079999999999996</v>
       </c>
       <c r="K10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
@@ -18728,7 +20412,152 @@
         <v>0.91739999999999999</v>
       </c>
       <c r="J24" t="s">
-        <v>51</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="24">
+        <v>0</v>
+      </c>
+      <c r="B28" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="C28" s="24">
+        <v>0.9294</v>
+      </c>
+      <c r="D28" s="24">
+        <v>0.97619999999999996</v>
+      </c>
+      <c r="E28" s="24">
+        <v>0.88249999999999995</v>
+      </c>
+      <c r="F28" s="24">
+        <v>0.89270000000000005</v>
+      </c>
+      <c r="G28" s="24">
+        <v>0.93259999999999998</v>
+      </c>
+      <c r="H28" s="24">
+        <v>0.96479999999999999</v>
+      </c>
+      <c r="I28" s="24">
+        <v>0.93720000000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="10">
+        <v>0</v>
+      </c>
+      <c r="B29" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="C29" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="D29" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="E29" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="F29" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="G29" s="10">
+        <v>0.1333</v>
+      </c>
+      <c r="H29" s="10">
+        <v>0.95720000000000005</v>
+      </c>
+      <c r="I29" s="10">
+        <v>0.93079999999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="24">
+        <v>0</v>
+      </c>
+      <c r="B30" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="C30" s="24">
+        <v>0.92910000000000004</v>
+      </c>
+      <c r="D30" s="24">
+        <v>0.96950000000000003</v>
+      </c>
+      <c r="E30" s="24">
+        <v>0.88880000000000003</v>
+      </c>
+      <c r="F30" s="24">
+        <v>0.8972</v>
+      </c>
+      <c r="G30" s="24">
+        <v>0.93189999999999995</v>
+      </c>
+      <c r="H30" s="24">
+        <v>0.97860000000000003</v>
+      </c>
+      <c r="I30" s="24">
+        <v>0.96950000000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="24">
+        <v>0</v>
+      </c>
+      <c r="B31" s="24">
+        <v>0.4</v>
+      </c>
+      <c r="C31" s="24">
+        <v>0.90290000000000004</v>
+      </c>
+      <c r="D31" s="24">
+        <v>0.98340000000000005</v>
+      </c>
+      <c r="E31" s="24">
+        <v>0.82240000000000002</v>
+      </c>
+      <c r="F31" s="24">
+        <v>0.84709999999999996</v>
+      </c>
+      <c r="G31" s="24">
+        <v>0.91010000000000002</v>
+      </c>
+      <c r="H31" s="24">
+        <v>0.96709999999999996</v>
+      </c>
+      <c r="I31" s="24">
+        <v>0.9536</v>
       </c>
     </row>
   </sheetData>
@@ -18749,10 +20578,10 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>48</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>49</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>0</v>
@@ -18776,7 +20605,7 @@
         <v>5</v>
       </c>
       <c r="K1" s="56" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">

--- a/results/Hyperparameter_Tuning/Graph_Embedding_NN Classifier.xlsx
+++ b/results/Hyperparameter_Tuning/Graph_Embedding_NN Classifier.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14295" windowHeight="6645" firstSheet="7" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14295" windowHeight="6645" firstSheet="7" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="deepwalk" sheetId="16" r:id="rId1"/>
@@ -713,12 +713,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -726,6 +720,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -791,7 +791,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1343,7 +1342,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1455,7 +1453,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2430,7 +2427,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2537,7 +2533,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2883,7 +2878,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8056,8 +8050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8647,16 +8641,16 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="85">
+      <c r="A23" s="83">
         <v>2</v>
       </c>
-      <c r="B23" s="85">
+      <c r="B23" s="83">
         <v>2</v>
       </c>
       <c r="C23" s="70">
         <v>0.9617</v>
       </c>
-      <c r="D23" s="70">
+      <c r="D23" s="69">
         <v>0.98650000000000004</v>
       </c>
       <c r="E23" s="70">
@@ -8861,6 +8855,10 @@
         <f>MAX(C2:C30)</f>
         <v>0.96230000000000004</v>
       </c>
+      <c r="D32">
+        <f>MAX(D2:D30)</f>
+        <v>0.98650000000000004</v>
+      </c>
       <c r="G32">
         <f t="shared" ref="G32:I32" si="0">MAX(G2:G30)</f>
         <v>0.96289999999999998</v>
@@ -8881,6 +8879,10 @@
       <c r="C33">
         <f>MIN(C2:C30)</f>
         <v>0.93300000000000005</v>
+      </c>
+      <c r="D33">
+        <f>MIN(D2:D30)</f>
+        <v>0.9516</v>
       </c>
       <c r="G33">
         <f t="shared" ref="G33:I33" si="1">MIN(G2:G30)</f>
@@ -9509,7 +9511,7 @@
       <c r="I25" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="J25" s="82" t="s">
+      <c r="J25" s="87" t="s">
         <v>96</v>
       </c>
     </row>
@@ -9527,7 +9529,7 @@
       <c r="I26" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="J26" s="83"/>
+      <c r="J26" s="88"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
@@ -9543,7 +9545,7 @@
       <c r="I27" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J27" s="83"/>
+      <c r="J27" s="88"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
@@ -9559,7 +9561,7 @@
       <c r="I28" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="J28" s="83"/>
+      <c r="J28" s="88"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
@@ -9575,10 +9577,10 @@
       <c r="I29" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J29" s="83"/>
+      <c r="J29" s="88"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="87" t="s">
+      <c r="A31" s="85" t="s">
         <v>98</v>
       </c>
     </row>
@@ -9598,7 +9600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I23" sqref="I23:I24"/>
     </sheetView>
   </sheetViews>
@@ -11366,25 +11368,25 @@
       <c r="A21" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B21" s="88">
+      <c r="B21" s="86">
         <v>0.66520000000000001</v>
       </c>
-      <c r="C21" s="88">
+      <c r="C21" s="86">
         <v>0.56950000000000001</v>
       </c>
-      <c r="D21" s="88">
+      <c r="D21" s="86">
         <v>0.76100000000000001</v>
       </c>
-      <c r="E21" s="88">
+      <c r="E21" s="86">
         <v>0.46189999999999998</v>
       </c>
-      <c r="F21" s="88">
+      <c r="F21" s="86">
         <v>0.49890000000000001</v>
       </c>
-      <c r="G21" s="88">
+      <c r="G21" s="86">
         <v>0.95179999999999998</v>
       </c>
-      <c r="H21" s="88">
+      <c r="H21" s="86">
         <v>0.94779999999999998</v>
       </c>
       <c r="I21" s="5"/>
@@ -12024,10 +12026,10 @@
       </c>
     </row>
     <row r="23" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="84">
+      <c r="A23" s="82">
         <v>2</v>
       </c>
-      <c r="B23" s="84">
+      <c r="B23" s="82">
         <v>2</v>
       </c>
       <c r="C23" s="76">
@@ -12115,10 +12117,10 @@
       </c>
     </row>
     <row r="27" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="84">
+      <c r="A27" s="82">
         <v>4</v>
       </c>
-      <c r="B27" s="84">
+      <c r="B27" s="82">
         <v>0.5</v>
       </c>
       <c r="C27" s="76">
@@ -17546,31 +17548,31 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="84">
+      <c r="A11" s="82">
         <v>16</v>
       </c>
-      <c r="B11" s="86">
+      <c r="B11" s="84">
         <v>32</v>
       </c>
-      <c r="C11" s="84">
+      <c r="C11" s="82">
         <v>0.87760000000000005</v>
       </c>
-      <c r="D11" s="84">
+      <c r="D11" s="82">
         <v>0.93179999999999996</v>
       </c>
-      <c r="E11" s="84">
+      <c r="E11" s="82">
         <v>0.82330000000000003</v>
       </c>
-      <c r="F11" s="84">
+      <c r="F11" s="82">
         <v>0.84089999999999998</v>
       </c>
-      <c r="G11" s="84">
+      <c r="G11" s="82">
         <v>0.88400000000000001</v>
       </c>
-      <c r="H11" s="84">
+      <c r="H11" s="82">
         <v>0.94</v>
       </c>
-      <c r="I11" s="84">
+      <c r="I11" s="82">
         <v>0.93240000000000001</v>
       </c>
     </row>

--- a/results/Hyperparameter_Tuning/Graph_Embedding_NN Classifier.xlsx
+++ b/results/Hyperparameter_Tuning/Graph_Embedding_NN Classifier.xlsx
@@ -9,28 +9,26 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14295" windowHeight="6645" firstSheet="7" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14295" windowHeight="6645" firstSheet="3" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="deepwalk" sheetId="16" r:id="rId1"/>
-    <sheet name="node2vec_nw16_wl32" sheetId="19" r:id="rId2"/>
-    <sheet name="node2vec_nw8_wl64" sheetId="22" r:id="rId3"/>
+    <sheet name="node2vec_nw16_wl32" sheetId="19" state="hidden" r:id="rId2"/>
+    <sheet name="node2vec_nw8_wl64" sheetId="22" state="hidden" r:id="rId3"/>
     <sheet name="node2vec_nw8_wl32" sheetId="23" r:id="rId4"/>
     <sheet name="struc2vec" sheetId="11" r:id="rId5"/>
     <sheet name="LINE" sheetId="12" r:id="rId6"/>
-    <sheet name="GraRep" sheetId="18" r:id="rId7"/>
-    <sheet name="SDNE" sheetId="13" r:id="rId8"/>
+    <sheet name="SDNE" sheetId="13" r:id="rId7"/>
+    <sheet name="GraRep" sheetId="18" r:id="rId8"/>
     <sheet name="VAE" sheetId="26" r:id="rId9"/>
     <sheet name="ripple2vec" sheetId="27" r:id="rId10"/>
-    <sheet name="node2vec_plus_nw10_wl20" sheetId="28" r:id="rId11"/>
+    <sheet name="node2vec_plus_nw10_wl20" sheetId="28" state="hidden" r:id="rId11"/>
     <sheet name="node2vec_plus_nw8_wl32" sheetId="29" r:id="rId12"/>
-    <sheet name="Summary" sheetId="17" r:id="rId13"/>
-    <sheet name="Sheet3" sheetId="35" r:id="rId14"/>
-    <sheet name="G VS P" sheetId="30" r:id="rId15"/>
-    <sheet name="n2v_plus_ExptVerified" sheetId="31" r:id="rId16"/>
-    <sheet name="LINE_Order3_ExptVerified" sheetId="32" r:id="rId17"/>
-    <sheet name="struc2vec_ExptVerified" sheetId="21" r:id="rId18"/>
-    <sheet name="SDNE_ExptVerified" sheetId="20" r:id="rId19"/>
+    <sheet name="nSNE" sheetId="36" r:id="rId13"/>
+    <sheet name="compute_edges" sheetId="35" r:id="rId14"/>
+    <sheet name="Summary" sheetId="17" state="hidden" r:id="rId15"/>
+    <sheet name="struc2vec_ExptVerified" sheetId="21" state="hidden" r:id="rId16"/>
+    <sheet name="G VS P" sheetId="30" r:id="rId17"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -42,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="108">
   <si>
     <t>Accuracy</t>
   </si>
@@ -222,9 +220,6 @@
     <t>α = 0, β = 10</t>
   </si>
   <si>
-    <t>α = 0.1, β = 20</t>
-  </si>
-  <si>
     <t>a0_b10--0:</t>
   </si>
   <si>
@@ -342,15 +337,6 @@
     <t>0.5596 0.4928 0.6265 0.5746 0.5289 0.5515 0.5756</t>
   </si>
   <si>
-    <t>Unbalanced dataset ?</t>
-  </si>
-  <si>
-    <t>PCA ? (ifeature)</t>
-  </si>
-  <si>
-    <t>Does dimensions affect performance</t>
-  </si>
-  <si>
     <t xml:space="preserve">  </t>
   </si>
   <si>
@@ -365,12 +351,30 @@
   <si>
     <t>Sum</t>
   </si>
+  <si>
+    <t>However, hadamard maintain the original dimensions</t>
+  </si>
+  <si>
+    <t>while concatenation doubles it</t>
+  </si>
+  <si>
+    <t>Results of Hadamard and Concatenation comparable (except GraRep and VAE)</t>
+  </si>
+  <si>
+    <t>Therefore, for this work, we will choose hadamard</t>
+  </si>
+  <si>
+    <t>Exception: Sum/Avg on GraRep makes it comparable to other random walk methods</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -393,16 +397,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="15">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -484,6 +480,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,7 +594,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -622,9 +630,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -634,14 +639,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -649,8 +648,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -686,13 +683,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
@@ -702,12 +692,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -716,16 +700,20 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -791,6 +779,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1342,6 +1331,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1443,6 +1433,686 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-SG"/>
+              <a:t>Accuracy</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>compute_edges!$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>compute_edges!$K$3:$K$11</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>LINE</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SDNE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>node2vec+</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>struc2vec</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ripple2vec</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>node2vec</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Deepwalk</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>GraRep</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>VAE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>compute_edges!$L$3:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.97199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96430000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93879999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.88790000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.89959999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.78990000000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.76390000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.88629999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.68679999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B7A3-4C85-B5DE-460F119CE3E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>compute_edges!$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>compute_edges!$K$3:$K$11</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>LINE</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SDNE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>node2vec+</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>struc2vec</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ripple2vec</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>node2vec</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Deepwalk</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>GraRep</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>VAE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>compute_edges!$M$3:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.97199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96079999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.87890000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.89329999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7984</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.75919999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8861</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.67620000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B7A3-4C85-B5DE-460F119CE3E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>compute_edges!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hadamard</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>compute_edges!$K$3:$K$11</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>LINE</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SDNE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>node2vec+</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>struc2vec</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ripple2vec</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>node2vec</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Deepwalk</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>GraRep</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>VAE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>compute_edges!$N$3:$N$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.99219999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96230000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94930000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.92259999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.89419999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.86260000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.84189999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.77059999999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.60070000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B7A3-4C85-B5DE-460F119CE3E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>compute_edges!$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Concatenation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>compute_edges!$K$3:$K$11</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>LINE</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SDNE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>node2vec+</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>struc2vec</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ripple2vec</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>node2vec</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Deepwalk</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>GraRep</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>VAE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>compute_edges!$O$3:$O$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.97650000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96079999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94040000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.91590000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.90159999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.82669999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.86970000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.88970000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.69240000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B7A3-4C85-B5DE-460F119CE3E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="181999520"/>
+        <c:axId val="181999936"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="181999520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="181999936"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="181999936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.55000000000000004"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="181999520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-SG"/>
               <a:t>Graph</a:t>
             </a:r>
             <a:r>
@@ -1453,6 +2123,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2427,457 +3098,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-SG"/>
-              <a:t>SDNE</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>SDNE_ExptVerified!$K$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>α = 0, β = 10</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>SDNE_ExptVerified!$L$1:$R$1</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Accuracy</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v> Sensitivity</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v> Specificity</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v> Precision</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v> F1-Score</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v> ROC-AUC</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v> PR-AUC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>SDNE_ExptVerified!$L$2:$R$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.86009999999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.7399</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.98029999999999995</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.97409999999999997</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.84079999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.98240000000000005</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.96130000000000004</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-82CA-4075-B9F1-A6EBB59EA43B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>SDNE_ExptVerified!$K$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>α = 0.1, β = 20</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>SDNE_ExptVerified!$L$1:$R$1</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Accuracy</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v> Sensitivity</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v> Specificity</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v> Precision</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v> F1-Score</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v> ROC-AUC</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v> PR-AUC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>SDNE_ExptVerified!$L$3:$R$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.41049999999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.78969999999999996</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.1399999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.44890000000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.57230000000000003</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.7199999999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.31790000000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-82CA-4075-B9F1-A6EBB59EA43B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="791898703"/>
-        <c:axId val="791901199"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="791898703"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="791901199"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="791901199"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="791898703"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4625,20 +4846,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4660,20 +4881,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -7032,7 +7253,7 @@
       <c r="A39" s="23">
         <v>256</v>
       </c>
-      <c r="B39" s="45">
+      <c r="B39" s="40">
         <v>32</v>
       </c>
       <c r="C39" s="20"/>
@@ -7197,7 +7418,7 @@
       <c r="I1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="57" t="s">
+      <c r="L1" s="52" t="s">
         <v>17</v>
       </c>
       <c r="M1">
@@ -7232,7 +7453,7 @@
       <c r="I2">
         <v>0.93389999999999995</v>
       </c>
-      <c r="L2" s="58" t="s">
+      <c r="L2" s="53" t="s">
         <v>16</v>
       </c>
       <c r="M2">
@@ -7775,25 +7996,25 @@
       <c r="B23" s="25">
         <v>2</v>
       </c>
-      <c r="C23" s="43">
+      <c r="C23" s="38">
         <v>0.91259999999999997</v>
       </c>
-      <c r="D23" s="43">
+      <c r="D23" s="38">
         <v>0.92020000000000002</v>
       </c>
-      <c r="E23" s="43">
+      <c r="E23" s="38">
         <v>0.90490000000000004</v>
       </c>
-      <c r="F23" s="43">
+      <c r="F23" s="38">
         <v>0.90639999999999998</v>
       </c>
-      <c r="G23" s="43">
+      <c r="G23" s="38">
         <v>0.91320000000000001</v>
       </c>
-      <c r="H23" s="43">
+      <c r="H23" s="38">
         <v>0.96399999999999997</v>
       </c>
-      <c r="I23" s="43">
+      <c r="I23" s="38">
         <v>0.95809999999999995</v>
       </c>
     </row>
@@ -7994,7 +8215,7 @@
       <c r="I31" s="24"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="34" t="s">
+      <c r="B32" s="32" t="s">
         <v>22</v>
       </c>
       <c r="C32" s="13">
@@ -8018,7 +8239,7 @@
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="34" t="s">
+      <c r="B33" s="32" t="s">
         <v>23</v>
       </c>
       <c r="C33" s="13">
@@ -8050,7 +8271,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
@@ -8641,31 +8862,31 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="83">
+      <c r="A23" s="73">
         <v>2</v>
       </c>
-      <c r="B23" s="83">
+      <c r="B23" s="73">
         <v>2</v>
       </c>
-      <c r="C23" s="70">
+      <c r="C23" s="62">
         <v>0.9617</v>
       </c>
-      <c r="D23" s="69">
+      <c r="D23" s="61">
         <v>0.98650000000000004</v>
       </c>
-      <c r="E23" s="70">
+      <c r="E23" s="62">
         <v>0.93679999999999997</v>
       </c>
-      <c r="F23" s="70">
+      <c r="F23" s="62">
         <v>0.93979999999999997</v>
       </c>
-      <c r="G23" s="70">
+      <c r="G23" s="62">
         <v>0.96260000000000001</v>
       </c>
-      <c r="H23" s="70">
+      <c r="H23" s="62">
         <v>0.99019999999999997</v>
       </c>
-      <c r="I23" s="70">
+      <c r="I23" s="62">
         <v>0.98199999999999998</v>
       </c>
     </row>
@@ -8732,31 +8953,31 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="68">
+      <c r="A27" s="60">
         <v>4</v>
       </c>
-      <c r="B27" s="68">
+      <c r="B27" s="60">
         <v>0.5</v>
       </c>
-      <c r="C27" s="69">
+      <c r="C27" s="61">
         <v>0.96230000000000004</v>
       </c>
-      <c r="D27" s="70">
+      <c r="D27" s="62">
         <v>0.97670000000000001</v>
       </c>
-      <c r="E27" s="70">
+      <c r="E27" s="62">
         <v>0.94799999999999995</v>
       </c>
-      <c r="F27" s="70">
+      <c r="F27" s="62">
         <v>0.94950000000000001</v>
       </c>
-      <c r="G27" s="70">
+      <c r="G27" s="62">
         <v>0.96289999999999998</v>
       </c>
-      <c r="H27" s="70">
+      <c r="H27" s="62">
         <v>0.98740000000000006</v>
       </c>
-      <c r="I27" s="70">
+      <c r="I27" s="62">
         <v>0.98640000000000005</v>
       </c>
     </row>
@@ -8905,10 +9126,2137 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="22">
+        <v>8</v>
+      </c>
+      <c r="B2" s="22">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0.98180000000000001</v>
+      </c>
+      <c r="D2">
+        <v>0.97889999999999999</v>
+      </c>
+      <c r="E2">
+        <v>0.98480000000000001</v>
+      </c>
+      <c r="F2">
+        <v>0.98470000000000002</v>
+      </c>
+      <c r="G2">
+        <v>0.98180000000000001</v>
+      </c>
+      <c r="H2">
+        <v>0.99780000000000002</v>
+      </c>
+      <c r="I2">
+        <v>0.99790000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="22">
+        <v>8</v>
+      </c>
+      <c r="B3" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C3">
+        <v>0.97870000000000001</v>
+      </c>
+      <c r="D3">
+        <v>0.98070000000000002</v>
+      </c>
+      <c r="E3">
+        <v>0.97670000000000001</v>
+      </c>
+      <c r="F3">
+        <v>0.9768</v>
+      </c>
+      <c r="G3">
+        <v>0.97870000000000001</v>
+      </c>
+      <c r="H3">
+        <v>0.998</v>
+      </c>
+      <c r="I3">
+        <v>0.99819999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="22">
+        <v>8</v>
+      </c>
+      <c r="B4" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="C4">
+        <v>0.98070000000000002</v>
+      </c>
+      <c r="D4">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="E4">
+        <v>0.98340000000000005</v>
+      </c>
+      <c r="F4">
+        <v>0.98329999999999995</v>
+      </c>
+      <c r="G4">
+        <v>0.98070000000000002</v>
+      </c>
+      <c r="H4">
+        <v>0.998</v>
+      </c>
+      <c r="I4">
+        <v>0.99829999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="22">
+        <v>8</v>
+      </c>
+      <c r="B5" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="C5">
+        <v>0.97709999999999997</v>
+      </c>
+      <c r="D5">
+        <v>0.97889999999999999</v>
+      </c>
+      <c r="E5">
+        <v>0.97529999999999994</v>
+      </c>
+      <c r="F5">
+        <v>0.97540000000000004</v>
+      </c>
+      <c r="G5">
+        <v>0.97719999999999996</v>
+      </c>
+      <c r="H5">
+        <v>0.99780000000000002</v>
+      </c>
+      <c r="I5">
+        <v>0.99790000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="22">
+        <v>8</v>
+      </c>
+      <c r="B6" s="10">
+        <v>1</v>
+      </c>
+      <c r="C6" s="81">
+        <v>0.68630000000000002</v>
+      </c>
+      <c r="D6">
+        <v>0.76319999999999999</v>
+      </c>
+      <c r="E6">
+        <v>0.60940000000000005</v>
+      </c>
+      <c r="F6">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="G6" s="81">
+        <v>0.70830000000000004</v>
+      </c>
+      <c r="H6" s="81">
+        <v>0.74990000000000001</v>
+      </c>
+      <c r="I6" s="81">
+        <v>0.71050000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="22"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="22">
+        <v>16</v>
+      </c>
+      <c r="B8" s="22">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0.98</v>
+      </c>
+      <c r="D8">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="E8">
+        <v>0.97709999999999997</v>
+      </c>
+      <c r="F8">
+        <v>0.97729999999999995</v>
+      </c>
+      <c r="G8">
+        <v>0.98009999999999997</v>
+      </c>
+      <c r="H8">
+        <v>0.99790000000000001</v>
+      </c>
+      <c r="I8">
+        <v>0.99760000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="22">
+        <v>16</v>
+      </c>
+      <c r="B9" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C9">
+        <v>0.98209999999999997</v>
+      </c>
+      <c r="D9">
+        <v>0.98119999999999996</v>
+      </c>
+      <c r="E9">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="F9">
+        <v>0.9829</v>
+      </c>
+      <c r="G9">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="H9">
+        <v>0.99870000000000003</v>
+      </c>
+      <c r="I9">
+        <v>0.99870000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="22">
+        <v>16</v>
+      </c>
+      <c r="B10" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="C10">
+        <v>0.98119999999999996</v>
+      </c>
+      <c r="D10">
+        <v>0.97760000000000002</v>
+      </c>
+      <c r="E10">
+        <v>0.98480000000000001</v>
+      </c>
+      <c r="F10">
+        <v>0.98460000000000003</v>
+      </c>
+      <c r="G10">
+        <v>0.98109999999999997</v>
+      </c>
+      <c r="H10">
+        <v>0.99870000000000003</v>
+      </c>
+      <c r="I10">
+        <v>0.99870000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="22">
+        <v>16</v>
+      </c>
+      <c r="B11" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="C11">
+        <v>0.97889999999999999</v>
+      </c>
+      <c r="D11">
+        <v>0.98160000000000003</v>
+      </c>
+      <c r="E11">
+        <v>0.97619999999999996</v>
+      </c>
+      <c r="F11">
+        <v>0.97640000000000005</v>
+      </c>
+      <c r="G11">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="H11">
+        <v>0.99639999999999995</v>
+      </c>
+      <c r="I11">
+        <v>0.99629999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="22">
+        <v>16</v>
+      </c>
+      <c r="B12" s="10">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.75849999999999995</v>
+      </c>
+      <c r="D12">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="E12">
+        <v>0.69510000000000005</v>
+      </c>
+      <c r="F12">
+        <v>0.73070000000000002</v>
+      </c>
+      <c r="G12">
+        <v>0.77270000000000005</v>
+      </c>
+      <c r="H12">
+        <v>0.84789999999999999</v>
+      </c>
+      <c r="I12">
+        <v>0.84609999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="22"/>
+      <c r="B13" s="10"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="22">
+        <v>32</v>
+      </c>
+      <c r="B14" s="22">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="D14">
+        <v>0.98429999999999995</v>
+      </c>
+      <c r="E14">
+        <v>0.98160000000000003</v>
+      </c>
+      <c r="F14">
+        <v>0.98170000000000002</v>
+      </c>
+      <c r="G14">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="H14">
+        <v>0.99819999999999998</v>
+      </c>
+      <c r="I14">
+        <v>0.99770000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="22">
+        <v>32</v>
+      </c>
+      <c r="B15" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C15">
+        <v>0.98519999999999996</v>
+      </c>
+      <c r="D15">
+        <v>0.98740000000000006</v>
+      </c>
+      <c r="E15">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="F15">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="G15">
+        <v>0.98519999999999996</v>
+      </c>
+      <c r="H15">
+        <v>0.99860000000000004</v>
+      </c>
+      <c r="I15">
+        <v>0.99850000000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="22">
+        <v>32</v>
+      </c>
+      <c r="B16" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="C16">
+        <v>0.98719999999999997</v>
+      </c>
+      <c r="D16">
+        <v>0.98829999999999996</v>
+      </c>
+      <c r="E16">
+        <v>0.98609999999999998</v>
+      </c>
+      <c r="F16">
+        <v>0.98609999999999998</v>
+      </c>
+      <c r="G16">
+        <v>0.98719999999999997</v>
+      </c>
+      <c r="H16">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="22">
+        <v>32</v>
+      </c>
+      <c r="B17" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="C17">
+        <v>0.98360000000000003</v>
+      </c>
+      <c r="D17">
+        <v>0.98160000000000003</v>
+      </c>
+      <c r="E17">
+        <v>0.98570000000000002</v>
+      </c>
+      <c r="F17">
+        <v>0.98560000000000003</v>
+      </c>
+      <c r="G17">
+        <v>0.98360000000000003</v>
+      </c>
+      <c r="H17">
+        <v>0.99929999999999997</v>
+      </c>
+      <c r="I17">
+        <v>0.99929999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="22">
+        <v>32</v>
+      </c>
+      <c r="B18" s="10">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>0.75019999999999998</v>
+      </c>
+      <c r="D18">
+        <v>0.77</v>
+      </c>
+      <c r="E18">
+        <v>0.73050000000000004</v>
+      </c>
+      <c r="F18">
+        <v>0.7409</v>
+      </c>
+      <c r="G18">
+        <v>0.75490000000000002</v>
+      </c>
+      <c r="H18">
+        <v>0.83950000000000002</v>
+      </c>
+      <c r="I18">
+        <v>0.82689999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="22"/>
+      <c r="B19" s="10"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="22">
+        <v>64</v>
+      </c>
+      <c r="B20" s="22">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0.99480000000000002</v>
+      </c>
+      <c r="D20">
+        <v>0.99329999999999996</v>
+      </c>
+      <c r="E20">
+        <v>0.99639999999999995</v>
+      </c>
+      <c r="F20">
+        <v>0.99639999999999995</v>
+      </c>
+      <c r="G20">
+        <v>0.99480000000000002</v>
+      </c>
+      <c r="H20">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="I20">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="22">
+        <v>64</v>
+      </c>
+      <c r="B21" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C21">
+        <v>0.99370000000000003</v>
+      </c>
+      <c r="D21">
+        <v>0.99329999999999996</v>
+      </c>
+      <c r="E21">
+        <v>0.99419999999999997</v>
+      </c>
+      <c r="F21">
+        <v>0.99419999999999997</v>
+      </c>
+      <c r="G21">
+        <v>0.99370000000000003</v>
+      </c>
+      <c r="H21">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="I21">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="22">
+        <v>64</v>
+      </c>
+      <c r="B22" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="C22">
+        <v>0.99329999999999996</v>
+      </c>
+      <c r="D22">
+        <v>0.99329999999999996</v>
+      </c>
+      <c r="E22">
+        <v>0.99329999999999996</v>
+      </c>
+      <c r="F22">
+        <v>0.99329999999999996</v>
+      </c>
+      <c r="G22">
+        <v>0.99329999999999996</v>
+      </c>
+      <c r="H22">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="I22">
+        <v>0.99970000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="22">
+        <v>64</v>
+      </c>
+      <c r="B23" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="C23">
+        <v>0.99350000000000005</v>
+      </c>
+      <c r="D23">
+        <v>0.99460000000000004</v>
+      </c>
+      <c r="E23">
+        <v>0.99239999999999995</v>
+      </c>
+      <c r="F23">
+        <v>0.99239999999999995</v>
+      </c>
+      <c r="G23">
+        <v>0.99350000000000005</v>
+      </c>
+      <c r="H23">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="I23">
+        <v>0.99960000000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="22">
+        <v>64</v>
+      </c>
+      <c r="B24" s="10">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>0.84509999999999996</v>
+      </c>
+      <c r="D24">
+        <v>0.8498</v>
+      </c>
+      <c r="E24">
+        <v>0.84040000000000004</v>
+      </c>
+      <c r="F24">
+        <v>0.84189999999999998</v>
+      </c>
+      <c r="G24">
+        <v>0.8458</v>
+      </c>
+      <c r="H24">
+        <v>0.91859999999999997</v>
+      </c>
+      <c r="I24">
+        <v>0.92020000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="22"/>
+      <c r="B25" s="10"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="22">
+        <v>128</v>
+      </c>
+      <c r="B26" s="22">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0.99570000000000003</v>
+      </c>
+      <c r="D26">
+        <v>0.99639999999999995</v>
+      </c>
+      <c r="E26">
+        <v>0.99509999999999998</v>
+      </c>
+      <c r="F26">
+        <v>0.99509999999999998</v>
+      </c>
+      <c r="G26">
+        <v>0.99570000000000003</v>
+      </c>
+      <c r="H26">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="I26">
+        <v>0.99990000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="82">
+        <v>128</v>
+      </c>
+      <c r="B27" s="16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C27" s="18">
+        <v>0.99639999999999995</v>
+      </c>
+      <c r="D27" s="17">
+        <v>0.99690000000000001</v>
+      </c>
+      <c r="E27" s="17">
+        <v>0.996</v>
+      </c>
+      <c r="F27" s="17">
+        <v>0.996</v>
+      </c>
+      <c r="G27" s="18">
+        <v>0.99639999999999995</v>
+      </c>
+      <c r="H27" s="18">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="I27" s="18">
+        <v>0.99990000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="22">
+        <v>128</v>
+      </c>
+      <c r="B28" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="C28">
+        <v>0.99529999999999996</v>
+      </c>
+      <c r="D28">
+        <v>0.99690000000000001</v>
+      </c>
+      <c r="E28">
+        <v>0.99370000000000003</v>
+      </c>
+      <c r="F28">
+        <v>0.99370000000000003</v>
+      </c>
+      <c r="G28">
+        <v>0.99529999999999996</v>
+      </c>
+      <c r="H28">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="I28">
+        <v>0.99990000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="22">
+        <v>128</v>
+      </c>
+      <c r="B29" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="C29">
+        <v>0.99419999999999997</v>
+      </c>
+      <c r="D29">
+        <v>0.99550000000000005</v>
+      </c>
+      <c r="E29">
+        <v>0.99280000000000002</v>
+      </c>
+      <c r="F29">
+        <v>0.9929</v>
+      </c>
+      <c r="G29">
+        <v>0.99419999999999997</v>
+      </c>
+      <c r="H29">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="I29">
+        <v>0.99990000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="22">
+        <v>128</v>
+      </c>
+      <c r="B30" s="10">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>0.86519999999999997</v>
+      </c>
+      <c r="D30">
+        <v>0.86639999999999995</v>
+      </c>
+      <c r="E30">
+        <v>0.86409999999999998</v>
+      </c>
+      <c r="F30">
+        <v>0.86460000000000004</v>
+      </c>
+      <c r="G30">
+        <v>0.86539999999999995</v>
+      </c>
+      <c r="H30">
+        <v>0.93479999999999996</v>
+      </c>
+      <c r="I30">
+        <v>0.9244</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="80" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="3">
+        <f>MAX(C2:C30)</f>
+        <v>0.99639999999999995</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3">
+        <f t="shared" ref="G32:I32" si="0">MAX(G2:G30)</f>
+        <v>0.99639999999999995</v>
+      </c>
+      <c r="H32" s="3">
+        <f t="shared" si="0"/>
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="I32" s="3">
+        <f t="shared" si="0"/>
+        <v>0.99990000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="80" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="3">
+        <f>MIN(C2:C30)</f>
+        <v>0.68630000000000002</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3">
+        <f t="shared" ref="G33:I33" si="1">MIN(G2:G30)</f>
+        <v>0.70830000000000004</v>
+      </c>
+      <c r="H33" s="3">
+        <f t="shared" si="1"/>
+        <v>0.74990000000000001</v>
+      </c>
+      <c r="I33" s="3">
+        <f t="shared" si="1"/>
+        <v>0.71050000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R47"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="45.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="48" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.99219999999999997</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.99780000000000002</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.98650000000000004</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.98670000000000002</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.99219999999999997</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.99939999999999996</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.99919999999999998</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0.99219999999999997</v>
+      </c>
+      <c r="O3" s="3">
+        <v>0.97650000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.96230000000000004</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.98829999999999996</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.93630000000000002</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.93959999999999999</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.96330000000000005</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.99119999999999997</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.98970000000000002</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0.96430000000000005</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0.96079999999999999</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0.96230000000000004</v>
+      </c>
+      <c r="O4" s="3">
+        <v>0.96079999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.94930000000000003</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.97130000000000005</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.9274</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.93049999999999999</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.95040000000000002</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.98719999999999997</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0.93879999999999997</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0.94059999999999999</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0.94930000000000003</v>
+      </c>
+      <c r="O5" s="3">
+        <v>0.94040000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.92259999999999998</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.92830000000000001</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.92310000000000003</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.97140000000000004</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0.88790000000000002</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0.87890000000000001</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0.92259999999999998</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0.91590000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.89419999999999999</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.90669999999999995</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.88160000000000005</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.88470000000000004</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.89549999999999996</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.95020000000000004</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.94410000000000005</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0.89959999999999996</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0.89329999999999998</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0.89419999999999999</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0.90159999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.86260000000000003</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.89639999999999997</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.82869999999999999</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.83940000000000003</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.86680000000000001</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.91239999999999999</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.87180000000000002</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0.78990000000000005</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0.7984</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0.86260000000000003</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0.82669999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.84189999999999998</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.85019999999999996</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.83360000000000001</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.83650000000000002</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.84319999999999995</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.90049999999999997</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.88149999999999995</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0.76390000000000002</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0.75919999999999999</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0.84189999999999998</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0.86970000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.77059999999999995</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.85109999999999997</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.69010000000000005</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.7339</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.78769999999999996</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.82709999999999995</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.78580000000000005</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="77">
+        <v>0.88629999999999998</v>
+      </c>
+      <c r="M10" s="77">
+        <v>0.8861</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0.77059999999999995</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0.88970000000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.60070000000000001</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.60270000000000001</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.59870000000000001</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.60109999999999997</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.59950000000000003</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.63749999999999996</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0.61270000000000002</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0.68679999999999997</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0.67620000000000002</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0.60070000000000001</v>
+      </c>
+      <c r="O11" s="3">
+        <v>0.69240000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="48" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="R14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.9839</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.96009999999999995</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.96109999999999995</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.97230000000000005</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.9929</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0.9849</v>
+      </c>
+      <c r="R15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.96079999999999999</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.98029999999999995</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.94130000000000003</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.94350000000000001</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0.96150000000000002</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.99029999999999996</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0.98939999999999995</v>
+      </c>
+      <c r="R16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.94059999999999999</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.97529999999999994</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.90580000000000005</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.91210000000000002</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0.94259999999999999</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.98829999999999996</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0.98770000000000002</v>
+      </c>
+      <c r="R17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0.87890000000000001</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.89419999999999999</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.86370000000000002</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.86890000000000001</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0.88109999999999999</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.94020000000000004</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0.92490000000000006</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0.89329999999999998</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.89780000000000004</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.88880000000000003</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.88980000000000004</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0.89380000000000004</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.95920000000000005</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0.95909999999999995</v>
+      </c>
+      <c r="R19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0.7984</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.89910000000000001</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.69779999999999998</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.77510000000000001</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.84230000000000005</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0.81179999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0.75919999999999999</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.70220000000000005</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.81610000000000005</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.76170000000000004</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0.82589999999999997</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0.81520000000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0.8861</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.91790000000000005</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.85429999999999995</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.86329999999999996</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0.88970000000000005</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0.9536</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0.95269999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0.67620000000000002</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.72740000000000005</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.62509999999999999</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0.69179999999999997</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0.71430000000000005</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0.67030000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="48" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="3">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.9839</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0.96009999999999995</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0.96109999999999995</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0.97230000000000005</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0.99209999999999998</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0.98529999999999995</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="3">
+        <v>0.96430000000000005</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0.97440000000000004</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0.95430000000000004</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0.95520000000000005</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0.9647</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0.99350000000000005</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0.99260000000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="3">
+        <v>0.93879999999999997</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0.97089999999999999</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0.90669999999999995</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0.91249999999999998</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0.94069999999999998</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0.98719999999999997</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0.98650000000000004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="3">
+        <v>0.88790000000000002</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0.89780000000000004</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0.878</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0.88049999999999995</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0.94869999999999999</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0.93510000000000004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="3">
+        <v>0.89959999999999996</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0.90669999999999995</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0.89239999999999997</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0.89390000000000003</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0.90029999999999999</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0.96220000000000006</v>
+      </c>
+      <c r="H31" s="3">
+        <v>0.96199999999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="3">
+        <v>0.78990000000000005</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0.9143</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0.66549999999999998</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0.76270000000000004</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0.8236</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0.84709999999999996</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0.82069999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="3">
+        <v>0.76390000000000002</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0.71209999999999996</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0.81569999999999998</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0.78659999999999997</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0.69069999999999998</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0.81930000000000003</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0.81420000000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="3">
+        <v>0.88629999999999998</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0.92149999999999999</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0.85109999999999997</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0.86129999999999995</v>
+      </c>
+      <c r="F34" s="3">
+        <v>0.89029999999999998</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0.95589999999999997</v>
+      </c>
+      <c r="H34" s="3">
+        <v>0.95230000000000004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="3">
+        <v>0.68679999999999997</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0.72289999999999999</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0.65069999999999995</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0.69720000000000004</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0.72870000000000001</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0.67820000000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="48" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="3">
+        <v>0.97650000000000003</v>
+      </c>
+      <c r="C39" s="3">
+        <v>0.98880000000000001</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0.96409999999999996</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0.96509999999999996</v>
+      </c>
+      <c r="F39" s="3">
+        <v>0.9768</v>
+      </c>
+      <c r="G39" s="3">
+        <v>0.99460000000000004</v>
+      </c>
+      <c r="H39" s="3">
+        <v>0.98839999999999995</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="3">
+        <v>0.96079999999999999</v>
+      </c>
+      <c r="C40" s="3">
+        <v>0.97850000000000004</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0.94540000000000002</v>
+      </c>
+      <c r="F40" s="3">
+        <v>0.96150000000000002</v>
+      </c>
+      <c r="G40" s="3">
+        <v>0.98740000000000006</v>
+      </c>
+      <c r="H40" s="3">
+        <v>0.98640000000000005</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" s="3">
+        <v>0.94040000000000001</v>
+      </c>
+      <c r="C41" s="3">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="D41" s="3">
+        <v>0.90669999999999995</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0.91259999999999997</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0.94230000000000003</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0.98870000000000002</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0.98839999999999995</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" s="3">
+        <v>0.91590000000000005</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="D42" s="3">
+        <v>0.90990000000000004</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0.91110000000000002</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0.91639999999999999</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0.96930000000000005</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0.9677</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" s="3">
+        <v>0.90159999999999996</v>
+      </c>
+      <c r="C43" s="3">
+        <v>0.90629999999999999</v>
+      </c>
+      <c r="D43" s="3">
+        <v>0.89690000000000003</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0.89790000000000003</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0.96419999999999995</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0.96309999999999996</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="3">
+        <v>0.82669999999999999</v>
+      </c>
+      <c r="C44" s="3">
+        <v>0.90669999999999995</v>
+      </c>
+      <c r="D44" s="3">
+        <v>0.74660000000000004</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0.81169999999999998</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0.8508</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0.87739999999999996</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0.8619</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="3">
+        <v>0.86970000000000003</v>
+      </c>
+      <c r="C45" s="3">
+        <v>0.88519999999999999</v>
+      </c>
+      <c r="D45" s="3">
+        <v>0.85429999999999995</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0.85950000000000004</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0.87129999999999996</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0.93369999999999997</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0.91769999999999996</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="3">
+        <v>0.88970000000000005</v>
+      </c>
+      <c r="C46" s="3">
+        <v>0.91610000000000003</v>
+      </c>
+      <c r="D46" s="3">
+        <v>0.86319999999999997</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0.87019999999999997</v>
+      </c>
+      <c r="F46" s="3">
+        <v>0.89259999999999995</v>
+      </c>
+      <c r="G46" s="3">
+        <v>0.9556</v>
+      </c>
+      <c r="H46" s="3">
+        <v>0.95279999999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" s="3">
+        <v>0.69240000000000002</v>
+      </c>
+      <c r="C47" s="3">
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="D47" s="3">
+        <v>0.66769999999999996</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0.68389999999999995</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0.69879999999999998</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0.7339</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0.68269999999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I11"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8924,7 +11272,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="48" t="s">
         <v>37</v>
       </c>
     </row>
@@ -8935,7 +11283,7 @@
       <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="46" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="8" t="s">
@@ -8983,32 +11331,32 @@
         <v>0.99919999999999998</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="60" customFormat="1" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="55">
+      <c r="B4" s="50">
         <v>0.96230000000000004</v>
       </c>
-      <c r="C4" s="55">
+      <c r="C4" s="50">
         <v>0.98829999999999996</v>
       </c>
-      <c r="D4" s="55">
+      <c r="D4" s="50">
         <v>0.93630000000000002</v>
       </c>
-      <c r="E4" s="55">
+      <c r="E4" s="50">
         <v>0.93959999999999999</v>
       </c>
-      <c r="F4" s="55">
+      <c r="F4" s="50">
         <v>0.96330000000000005</v>
       </c>
-      <c r="G4" s="55">
+      <c r="G4" s="50">
         <v>0.99119999999999997</v>
       </c>
-      <c r="H4" s="55">
+      <c r="H4" s="50">
         <v>0.98970000000000002</v>
       </c>
       <c r="I4" s="3" t="s">
@@ -9016,7 +11364,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="59" t="s">
         <v>52</v>
       </c>
       <c r="B5" s="2">
@@ -9040,33 +11388,33 @@
       <c r="H5" s="2">
         <v>0.98599999999999999</v>
       </c>
-      <c r="I5" s="59" t="s">
-        <v>65</v>
+      <c r="I5" s="54" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="55">
+      <c r="B6" s="50">
         <v>0.92259999999999998</v>
       </c>
-      <c r="C6" s="55">
+      <c r="C6" s="50">
         <v>0.92830000000000001</v>
       </c>
-      <c r="D6" s="55">
+      <c r="D6" s="50">
         <v>0.91700000000000004</v>
       </c>
-      <c r="E6" s="55">
+      <c r="E6" s="50">
         <v>0.91800000000000004</v>
       </c>
-      <c r="F6" s="55">
+      <c r="F6" s="50">
         <v>0.92310000000000003</v>
       </c>
-      <c r="G6" s="55">
+      <c r="G6" s="50">
         <v>0.97140000000000004</v>
       </c>
-      <c r="H6" s="55">
+      <c r="H6" s="50">
         <v>0.96799999999999997</v>
       </c>
       <c r="I6" s="3" t="s">
@@ -9106,28 +11454,28 @@
       <c r="A8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="55">
+      <c r="B8" s="50">
         <v>0.86260000000000003</v>
       </c>
-      <c r="C8" s="55">
+      <c r="C8" s="50">
         <v>0.89639999999999997</v>
       </c>
-      <c r="D8" s="55">
+      <c r="D8" s="50">
         <v>0.82869999999999999</v>
       </c>
-      <c r="E8" s="55">
+      <c r="E8" s="50">
         <v>0.83940000000000003</v>
       </c>
-      <c r="F8" s="55">
+      <c r="F8" s="50">
         <v>0.86680000000000001</v>
       </c>
-      <c r="G8" s="55">
+      <c r="G8" s="50">
         <v>0.91239999999999999</v>
       </c>
-      <c r="H8" s="55">
+      <c r="H8" s="50">
         <v>0.87180000000000002</v>
       </c>
-      <c r="I8" s="39" t="s">
+      <c r="I8" s="36" t="s">
         <v>55</v>
       </c>
     </row>
@@ -9135,25 +11483,25 @@
       <c r="A9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="55">
+      <c r="B9" s="50">
         <v>0.84189999999999998</v>
       </c>
-      <c r="C9" s="55">
+      <c r="C9" s="50">
         <v>0.85019999999999996</v>
       </c>
-      <c r="D9" s="55">
+      <c r="D9" s="50">
         <v>0.83360000000000001</v>
       </c>
-      <c r="E9" s="55">
+      <c r="E9" s="50">
         <v>0.83650000000000002</v>
       </c>
-      <c r="F9" s="55">
+      <c r="F9" s="50">
         <v>0.84319999999999995</v>
       </c>
-      <c r="G9" s="55">
+      <c r="G9" s="50">
         <v>0.90049999999999997</v>
       </c>
-      <c r="H9" s="55">
+      <c r="H9" s="50">
         <v>0.88149999999999995</v>
       </c>
       <c r="I9" s="3" t="s">
@@ -9222,7 +11570,7 @@
       <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="49" t="s">
         <v>38</v>
       </c>
       <c r="C13" t="s">
@@ -9236,7 +11584,7 @@
       <c r="B14" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="51" t="s">
+      <c r="C14" s="46" t="s">
         <v>1</v>
       </c>
       <c r="D14" s="8" t="s">
@@ -9265,54 +11613,54 @@
       <c r="B15" s="27">
         <v>0.82850000000000001</v>
       </c>
-      <c r="C15" s="46">
+      <c r="C15" s="41">
         <v>0.74390000000000001</v>
       </c>
-      <c r="D15" s="46">
+      <c r="D15" s="41">
         <v>0.91300000000000003</v>
       </c>
-      <c r="E15" s="46">
+      <c r="E15" s="41">
         <v>0.89529999999999998</v>
       </c>
-      <c r="F15" s="46">
+      <c r="F15" s="41">
         <v>0.8125</v>
       </c>
-      <c r="G15" s="46">
+      <c r="G15" s="41">
         <v>0.87839999999999996</v>
       </c>
-      <c r="H15" s="47">
+      <c r="H15" s="42">
         <v>0.83530000000000004</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>40</v>
       </c>
       <c r="L15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="42">
+      <c r="B16" s="37">
         <v>0.83809999999999996</v>
       </c>
-      <c r="C16" s="42">
+      <c r="C16" s="37">
         <v>0.67620000000000002</v>
       </c>
-      <c r="D16" s="42">
+      <c r="D16" s="37">
         <v>1</v>
       </c>
-      <c r="E16" s="42">
+      <c r="E16" s="37">
         <v>1</v>
       </c>
-      <c r="F16" s="42">
+      <c r="F16" s="37">
         <v>0.80679999999999996</v>
       </c>
-      <c r="G16" s="42">
+      <c r="G16" s="37">
         <v>0.7883</v>
       </c>
-      <c r="H16" s="42">
+      <c r="H16" s="37">
         <v>0.87809999999999999</v>
       </c>
       <c r="I16" s="3" t="s">
@@ -9323,25 +11671,25 @@
       <c r="A17" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="48">
+      <c r="B17" s="43">
         <v>0.88090000000000002</v>
       </c>
-      <c r="C17" s="49">
+      <c r="C17" s="44">
         <v>0.76190000000000002</v>
       </c>
-      <c r="D17" s="49">
+      <c r="D17" s="44">
         <v>1</v>
       </c>
-      <c r="E17" s="49">
+      <c r="E17" s="44">
         <v>1</v>
       </c>
-      <c r="F17" s="49">
+      <c r="F17" s="44">
         <v>0.86439999999999995</v>
       </c>
-      <c r="G17" s="49">
+      <c r="G17" s="44">
         <v>0.99990000000000001</v>
       </c>
-      <c r="H17" s="50">
+      <c r="H17" s="45">
         <v>0.99990000000000001</v>
       </c>
       <c r="I17" s="3" t="s">
@@ -9349,7 +11697,7 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="54" t="s">
+      <c r="A19" s="49" t="s">
         <v>38</v>
       </c>
       <c r="C19" t="s">
@@ -9363,7 +11711,7 @@
       <c r="B20" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="51" t="s">
+      <c r="C20" s="46" t="s">
         <v>1</v>
       </c>
       <c r="D20" s="8" t="s">
@@ -9386,7 +11734,7 @@
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="81" t="s">
+      <c r="A21" s="71" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="3">
@@ -9411,14 +11759,14 @@
         <v>0.54600000000000004</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="81" t="s">
+      <c r="A22" s="71" t="s">
         <v>11</v>
       </c>
       <c r="B22" s="2">
@@ -9447,8 +11795,8 @@
       </c>
     </row>
     <row r="23" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="81" t="s">
-        <v>87</v>
+      <c r="A23" s="71" t="s">
+        <v>86</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -9457,12 +11805,12 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
-      <c r="I23" s="39" t="s">
-        <v>65</v>
+      <c r="I23" s="36" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="81" t="s">
+      <c r="A24" s="71" t="s">
         <v>9</v>
       </c>
       <c r="B24" s="3"/>
@@ -9473,7 +11821,7 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K24" s="4">
         <v>0.57530000000000003</v>
@@ -9511,8 +11859,8 @@
       <c r="I25" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="J25" s="87" t="s">
-        <v>96</v>
+      <c r="J25" s="78" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="30" x14ac:dyDescent="0.25">
@@ -9526,14 +11874,14 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
-      <c r="I26" s="39" t="s">
+      <c r="I26" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="J26" s="88"/>
+      <c r="J26" s="79"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -9545,7 +11893,7 @@
       <c r="I27" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J27" s="88"/>
+      <c r="J27" s="79"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
@@ -9561,7 +11909,7 @@
       <c r="I28" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="J28" s="88"/>
+      <c r="J28" s="79"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
@@ -9577,12 +11925,10 @@
       <c r="I29" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J29" s="88"/>
+      <c r="J29" s="79"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="85" t="s">
-        <v>98</v>
-      </c>
+      <c r="A31" s="76"/>
     </row>
   </sheetData>
   <sortState ref="A3:I12">
@@ -9596,2955 +11942,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I47"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23:I24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="45.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0.99219999999999997</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0.99780000000000002</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0.98650000000000004</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0.98670000000000002</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0.99219999999999997</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0.99939999999999996</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0.99919999999999998</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0.96230000000000004</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0.98829999999999996</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.93630000000000002</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0.93959999999999999</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0.96330000000000005</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0.99119999999999997</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0.98970000000000002</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0.94930000000000003</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0.97130000000000005</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0.9274</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0.93049999999999999</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0.95040000000000002</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0.98719999999999997</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0.98599999999999999</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0.92259999999999998</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0.92830000000000001</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0.91700000000000004</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0.91800000000000004</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0.92310000000000003</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0.97140000000000004</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0.96799999999999997</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0.89419999999999999</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0.90669999999999995</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0.88160000000000005</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0.88470000000000004</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0.89549999999999996</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0.95020000000000004</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0.94410000000000005</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0.86260000000000003</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0.89639999999999997</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0.82869999999999999</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0.83940000000000003</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0.86680000000000001</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0.91239999999999999</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0.87180000000000002</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0.84189999999999998</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0.85019999999999996</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0.83360000000000001</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0.83650000000000002</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0.84319999999999995</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0.90049999999999997</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0.88149999999999995</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="3">
-        <v>0.77059999999999995</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0.85109999999999997</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0.69010000000000005</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0.7339</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0.78769999999999996</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0.82709999999999995</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0.78580000000000005</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="3">
-        <v>0.60070000000000001</v>
-      </c>
-      <c r="C11" s="3">
-        <v>0.60270000000000001</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0.59870000000000001</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0.60109999999999997</v>
-      </c>
-      <c r="F11" s="3">
-        <v>0.59950000000000003</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0.63749999999999996</v>
-      </c>
-      <c r="H11" s="3">
-        <v>0.61270000000000002</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="53" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="3">
-        <v>0.97199999999999998</v>
-      </c>
-      <c r="C15" s="3">
-        <v>0.9839</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0.96009999999999995</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0.96109999999999995</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0.97230000000000005</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0.9929</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0.9849</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="3">
-        <v>0.96079999999999999</v>
-      </c>
-      <c r="C16" s="3">
-        <v>0.98029999999999995</v>
-      </c>
-      <c r="D16" s="3">
-        <v>0.94130000000000003</v>
-      </c>
-      <c r="E16" s="3">
-        <v>0.94350000000000001</v>
-      </c>
-      <c r="F16" s="3">
-        <v>0.96150000000000002</v>
-      </c>
-      <c r="G16" s="3">
-        <v>0.99029999999999996</v>
-      </c>
-      <c r="H16" s="3">
-        <v>0.98939999999999995</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="3">
-        <v>0.94059999999999999</v>
-      </c>
-      <c r="C17" s="3">
-        <v>0.97529999999999994</v>
-      </c>
-      <c r="D17" s="3">
-        <v>0.90580000000000005</v>
-      </c>
-      <c r="E17" s="3">
-        <v>0.91210000000000002</v>
-      </c>
-      <c r="F17" s="3">
-        <v>0.94259999999999999</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0.98829999999999996</v>
-      </c>
-      <c r="H17" s="3">
-        <v>0.98770000000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3">
-        <v>0.87890000000000001</v>
-      </c>
-      <c r="C18" s="3">
-        <v>0.89419999999999999</v>
-      </c>
-      <c r="D18" s="3">
-        <v>0.86370000000000002</v>
-      </c>
-      <c r="E18" s="3">
-        <v>0.86890000000000001</v>
-      </c>
-      <c r="F18" s="3">
-        <v>0.88109999999999999</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0.94020000000000004</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0.92490000000000006</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" s="3">
-        <v>0.89329999999999998</v>
-      </c>
-      <c r="C19" s="3">
-        <v>0.89780000000000004</v>
-      </c>
-      <c r="D19" s="3">
-        <v>0.88880000000000003</v>
-      </c>
-      <c r="E19" s="3">
-        <v>0.88980000000000004</v>
-      </c>
-      <c r="F19" s="3">
-        <v>0.89380000000000004</v>
-      </c>
-      <c r="G19" s="3">
-        <v>0.95920000000000005</v>
-      </c>
-      <c r="H19" s="3">
-        <v>0.95909999999999995</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="3">
-        <v>0.7984</v>
-      </c>
-      <c r="C20" s="3">
-        <v>0.89910000000000001</v>
-      </c>
-      <c r="D20" s="3">
-        <v>0.69779999999999998</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0.77510000000000001</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0.82699999999999996</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0.84230000000000005</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0.81179999999999997</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="3">
-        <v>0.75919999999999999</v>
-      </c>
-      <c r="C21" s="3">
-        <v>0.70220000000000005</v>
-      </c>
-      <c r="D21" s="3">
-        <v>0.81610000000000005</v>
-      </c>
-      <c r="E21" s="3">
-        <v>0.76170000000000004</v>
-      </c>
-      <c r="F21" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="G21" s="3">
-        <v>0.82589999999999997</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0.81520000000000004</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="3">
-        <v>0.8861</v>
-      </c>
-      <c r="C22" s="3">
-        <v>0.91790000000000005</v>
-      </c>
-      <c r="D22" s="3">
-        <v>0.85429999999999995</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0.86329999999999996</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0.88970000000000005</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0.9536</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0.95269999999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="3">
-        <v>0.67620000000000002</v>
-      </c>
-      <c r="C23" s="3">
-        <v>0.72740000000000005</v>
-      </c>
-      <c r="D23" s="3">
-        <v>0.62509999999999999</v>
-      </c>
-      <c r="E23" s="3">
-        <v>0.66100000000000003</v>
-      </c>
-      <c r="F23" s="3">
-        <v>0.69179999999999997</v>
-      </c>
-      <c r="G23" s="3">
-        <v>0.71430000000000005</v>
-      </c>
-      <c r="H23" s="3">
-        <v>0.67030000000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="53" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="3">
-        <v>0.97199999999999998</v>
-      </c>
-      <c r="C27" s="3">
-        <v>0.9839</v>
-      </c>
-      <c r="D27" s="3">
-        <v>0.96009999999999995</v>
-      </c>
-      <c r="E27" s="3">
-        <v>0.96109999999999995</v>
-      </c>
-      <c r="F27" s="3">
-        <v>0.97230000000000005</v>
-      </c>
-      <c r="G27" s="3">
-        <v>0.99209999999999998</v>
-      </c>
-      <c r="H27" s="3">
-        <v>0.98529999999999995</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" s="3">
-        <v>0.96430000000000005</v>
-      </c>
-      <c r="C28" s="3">
-        <v>0.97440000000000004</v>
-      </c>
-      <c r="D28" s="3">
-        <v>0.95430000000000004</v>
-      </c>
-      <c r="E28" s="3">
-        <v>0.95520000000000005</v>
-      </c>
-      <c r="F28" s="3">
-        <v>0.9647</v>
-      </c>
-      <c r="G28" s="3">
-        <v>0.99350000000000005</v>
-      </c>
-      <c r="H28" s="3">
-        <v>0.99260000000000004</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B29" s="3">
-        <v>0.93879999999999997</v>
-      </c>
-      <c r="C29" s="3">
-        <v>0.97089999999999999</v>
-      </c>
-      <c r="D29" s="3">
-        <v>0.90669999999999995</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0.91249999999999998</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0.94069999999999998</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0.98719999999999997</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0.98650000000000004</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" s="3">
-        <v>0.88790000000000002</v>
-      </c>
-      <c r="C30" s="3">
-        <v>0.89780000000000004</v>
-      </c>
-      <c r="D30" s="3">
-        <v>0.878</v>
-      </c>
-      <c r="E30" s="3">
-        <v>0.88049999999999995</v>
-      </c>
-      <c r="F30" s="3">
-        <v>0.88900000000000001</v>
-      </c>
-      <c r="G30" s="3">
-        <v>0.94869999999999999</v>
-      </c>
-      <c r="H30" s="3">
-        <v>0.93510000000000004</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B31" s="3">
-        <v>0.89959999999999996</v>
-      </c>
-      <c r="C31" s="3">
-        <v>0.90669999999999995</v>
-      </c>
-      <c r="D31" s="3">
-        <v>0.89239999999999997</v>
-      </c>
-      <c r="E31" s="3">
-        <v>0.89390000000000003</v>
-      </c>
-      <c r="F31" s="3">
-        <v>0.90029999999999999</v>
-      </c>
-      <c r="G31" s="3">
-        <v>0.96220000000000006</v>
-      </c>
-      <c r="H31" s="3">
-        <v>0.96199999999999997</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B32" s="3">
-        <v>0.78990000000000005</v>
-      </c>
-      <c r="C32" s="3">
-        <v>0.9143</v>
-      </c>
-      <c r="D32" s="3">
-        <v>0.66549999999999998</v>
-      </c>
-      <c r="E32" s="3">
-        <v>0.76270000000000004</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0.8236</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0.84709999999999996</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0.82069999999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" s="3">
-        <v>0.76390000000000002</v>
-      </c>
-      <c r="C33" s="3">
-        <v>0.71209999999999996</v>
-      </c>
-      <c r="D33" s="3">
-        <v>0.81569999999999998</v>
-      </c>
-      <c r="E33" s="3">
-        <v>0.78659999999999997</v>
-      </c>
-      <c r="F33" s="3">
-        <v>0.69069999999999998</v>
-      </c>
-      <c r="G33" s="3">
-        <v>0.81930000000000003</v>
-      </c>
-      <c r="H33" s="3">
-        <v>0.81420000000000003</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" s="3">
-        <v>0.88629999999999998</v>
-      </c>
-      <c r="C34" s="3">
-        <v>0.92149999999999999</v>
-      </c>
-      <c r="D34" s="3">
-        <v>0.85109999999999997</v>
-      </c>
-      <c r="E34" s="3">
-        <v>0.86129999999999995</v>
-      </c>
-      <c r="F34" s="3">
-        <v>0.89029999999999998</v>
-      </c>
-      <c r="G34" s="3">
-        <v>0.95589999999999997</v>
-      </c>
-      <c r="H34" s="3">
-        <v>0.95230000000000004</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B35" s="3">
-        <v>0.68679999999999997</v>
-      </c>
-      <c r="C35" s="3">
-        <v>0.72289999999999999</v>
-      </c>
-      <c r="D35" s="3">
-        <v>0.65069999999999995</v>
-      </c>
-      <c r="E35" s="3">
-        <v>0.67500000000000004</v>
-      </c>
-      <c r="F35" s="3">
-        <v>0.69720000000000004</v>
-      </c>
-      <c r="G35" s="3">
-        <v>0.72870000000000001</v>
-      </c>
-      <c r="H35" s="3">
-        <v>0.67820000000000003</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="53" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="3">
-        <v>0.97650000000000003</v>
-      </c>
-      <c r="C39" s="3">
-        <v>0.98880000000000001</v>
-      </c>
-      <c r="D39" s="3">
-        <v>0.96409999999999996</v>
-      </c>
-      <c r="E39" s="3">
-        <v>0.96509999999999996</v>
-      </c>
-      <c r="F39" s="3">
-        <v>0.9768</v>
-      </c>
-      <c r="G39" s="3">
-        <v>0.99460000000000004</v>
-      </c>
-      <c r="H39" s="3">
-        <v>0.98839999999999995</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B40" s="3">
-        <v>0.96079999999999999</v>
-      </c>
-      <c r="C40" s="3">
-        <v>0.97850000000000004</v>
-      </c>
-      <c r="D40" s="3">
-        <v>0.94299999999999995</v>
-      </c>
-      <c r="E40" s="3">
-        <v>0.94540000000000002</v>
-      </c>
-      <c r="F40" s="3">
-        <v>0.96150000000000002</v>
-      </c>
-      <c r="G40" s="3">
-        <v>0.98740000000000006</v>
-      </c>
-      <c r="H40" s="3">
-        <v>0.98640000000000005</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B41" s="3">
-        <v>0.94040000000000001</v>
-      </c>
-      <c r="C41" s="3">
-        <v>0.97399999999999998</v>
-      </c>
-      <c r="D41" s="3">
-        <v>0.90669999999999995</v>
-      </c>
-      <c r="E41" s="3">
-        <v>0.91259999999999997</v>
-      </c>
-      <c r="F41" s="3">
-        <v>0.94230000000000003</v>
-      </c>
-      <c r="G41" s="3">
-        <v>0.98870000000000002</v>
-      </c>
-      <c r="H41" s="3">
-        <v>0.98839999999999995</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B42" s="3">
-        <v>0.91590000000000005</v>
-      </c>
-      <c r="C42" s="3">
-        <v>0.92200000000000004</v>
-      </c>
-      <c r="D42" s="3">
-        <v>0.90990000000000004</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0.91110000000000002</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0.91639999999999999</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0.96930000000000005</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0.9677</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B43" s="3">
-        <v>0.90159999999999996</v>
-      </c>
-      <c r="C43" s="3">
-        <v>0.90629999999999999</v>
-      </c>
-      <c r="D43" s="3">
-        <v>0.89690000000000003</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0.89790000000000003</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0.90200000000000002</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0.96419999999999995</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0.96309999999999996</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B44" s="3">
-        <v>0.82669999999999999</v>
-      </c>
-      <c r="C44" s="3">
-        <v>0.90669999999999995</v>
-      </c>
-      <c r="D44" s="3">
-        <v>0.74660000000000004</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0.81169999999999998</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0.8508</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0.87739999999999996</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0.8619</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B45" s="3">
-        <v>0.86970000000000003</v>
-      </c>
-      <c r="C45" s="3">
-        <v>0.88519999999999999</v>
-      </c>
-      <c r="D45" s="3">
-        <v>0.85429999999999995</v>
-      </c>
-      <c r="E45" s="3">
-        <v>0.85950000000000004</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0.87129999999999996</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0.93369999999999997</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0.91769999999999996</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B46" s="3">
-        <v>0.88970000000000005</v>
-      </c>
-      <c r="C46" s="3">
-        <v>0.91610000000000003</v>
-      </c>
-      <c r="D46" s="3">
-        <v>0.86319999999999997</v>
-      </c>
-      <c r="E46" s="3">
-        <v>0.87019999999999997</v>
-      </c>
-      <c r="F46" s="3">
-        <v>0.89259999999999995</v>
-      </c>
-      <c r="G46" s="3">
-        <v>0.9556</v>
-      </c>
-      <c r="H46" s="3">
-        <v>0.95279999999999998</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B47" s="3">
-        <v>0.69240000000000002</v>
-      </c>
-      <c r="C47" s="3">
-        <v>0.71699999999999997</v>
-      </c>
-      <c r="D47" s="3">
-        <v>0.66769999999999996</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0.68389999999999995</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0.69879999999999998</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0.7339</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0.68269999999999997</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="45.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="71" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="2">
-        <v>0.99219999999999997</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0.99219999999999997</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.99780000000000002</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.98650000000000004</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.98670000000000002</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0.99219999999999997</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0.99939999999999996</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0.99919999999999998</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N3" s="3">
-        <v>0.96230000000000004</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0.96230000000000004</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0.98829999999999996</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.93630000000000002</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0.93959999999999999</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0.96330000000000005</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0.99119999999999997</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0.98970000000000002</v>
-      </c>
-      <c r="J4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="N4" s="3">
-        <v>0.96230000000000004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0.94930000000000003</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0.97130000000000005</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0.9274</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0.93049999999999999</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0.95040000000000002</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0.98719999999999997</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0.98599999999999999</v>
-      </c>
-      <c r="J5" t="s">
-        <v>65</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="N5" s="3">
-        <v>0.92259999999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0.96230000000000004</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0.97670000000000001</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0.94799999999999995</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0.94950000000000001</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0.96289999999999998</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0.98740000000000006</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0.98640000000000005</v>
-      </c>
-      <c r="J6" t="s">
-        <v>66</v>
-      </c>
-      <c r="M6" s="73" t="s">
-        <v>69</v>
-      </c>
-      <c r="N6" s="3">
-        <v>0.90290000000000004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0.92259999999999998</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0.92830000000000001</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0.91700000000000004</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0.91800000000000004</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0.92310000000000003</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0.97140000000000004</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0.96799999999999997</v>
-      </c>
-      <c r="J7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M7" s="73" t="s">
-        <v>71</v>
-      </c>
-      <c r="N7" s="3">
-        <v>0.9002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0.89419999999999999</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0.90669999999999995</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0.88160000000000005</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0.88470000000000004</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0.89549999999999996</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0.95020000000000004</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0.94410000000000005</v>
-      </c>
-      <c r="J8" t="s">
-        <v>54</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0.89419999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0.86260000000000003</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0.89639999999999997</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0.82869999999999999</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0.83940000000000003</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0.86680000000000001</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0.91239999999999999</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0.87180000000000002</v>
-      </c>
-      <c r="J9" t="s">
-        <v>55</v>
-      </c>
-      <c r="M9" s="73" t="s">
-        <v>73</v>
-      </c>
-      <c r="N9" s="3">
-        <v>0.88029999999999997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="3">
-        <v>0.84189999999999998</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0.85019999999999996</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0.83360000000000001</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0.83650000000000002</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0.84319999999999995</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0.90049999999999997</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0.88149999999999995</v>
-      </c>
-      <c r="J10" t="s">
-        <v>26</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N10" s="3">
-        <v>0.86260000000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="3">
-        <v>0.77059999999999995</v>
-      </c>
-      <c r="C11" s="3">
-        <v>0.85109999999999997</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0.69010000000000005</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0.7339</v>
-      </c>
-      <c r="F11" s="3">
-        <v>0.78769999999999996</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0.82709999999999995</v>
-      </c>
-      <c r="H11" s="3">
-        <v>0.78580000000000005</v>
-      </c>
-      <c r="J11" t="s">
-        <v>41</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N11" s="3">
-        <v>0.84189999999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="3">
-        <v>0.60070000000000001</v>
-      </c>
-      <c r="C12" s="3">
-        <v>0.60270000000000001</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0.59870000000000001</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0.60109999999999997</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0.59950000000000003</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0.63749999999999996</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0.61270000000000002</v>
-      </c>
-      <c r="J12" t="s">
-        <v>46</v>
-      </c>
-      <c r="M12" s="73" t="s">
-        <v>75</v>
-      </c>
-      <c r="N12" s="3">
-        <v>0.83389999999999997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M13" s="73" t="s">
-        <v>77</v>
-      </c>
-      <c r="N13" s="3">
-        <v>0.82089999999999996</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="I14" s="7"/>
-      <c r="M14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0.77059999999999995</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="K15" s="74"/>
-      <c r="M15" s="73" t="s">
-        <v>79</v>
-      </c>
-      <c r="N15" s="3">
-        <v>0.66520000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B16" s="3">
-        <v>0.90290000000000004</v>
-      </c>
-      <c r="C16" s="3">
-        <v>0.92910000000000004</v>
-      </c>
-      <c r="D16" s="3">
-        <v>0.87670000000000003</v>
-      </c>
-      <c r="E16" s="3">
-        <v>0.88300000000000001</v>
-      </c>
-      <c r="F16" s="3">
-        <v>0.90539999999999998</v>
-      </c>
-      <c r="G16" s="3">
-        <v>0.95699999999999996</v>
-      </c>
-      <c r="H16" s="3">
-        <v>0.93689999999999996</v>
-      </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="32">
-        <v>80</v>
-      </c>
-      <c r="K16" t="s">
-        <v>68</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="N16" s="3">
-        <v>0.60070000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B17" s="3">
-        <v>0.9002</v>
-      </c>
-      <c r="C17" s="3">
-        <v>0.92510000000000003</v>
-      </c>
-      <c r="D17" s="3">
-        <v>0.87529999999999997</v>
-      </c>
-      <c r="E17" s="3">
-        <v>0.88149999999999995</v>
-      </c>
-      <c r="F17" s="3">
-        <v>0.90269999999999995</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0.95830000000000004</v>
-      </c>
-      <c r="H17" s="3">
-        <v>0.93910000000000005</v>
-      </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="32">
-        <v>20</v>
-      </c>
-      <c r="K17" t="s">
-        <v>70</v>
-      </c>
-      <c r="M17" s="73" t="s">
-        <v>81</v>
-      </c>
-      <c r="N17" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B18" s="3">
-        <v>0.88029999999999997</v>
-      </c>
-      <c r="C18" s="3">
-        <v>0.92510000000000003</v>
-      </c>
-      <c r="D18" s="3">
-        <v>0.83540000000000003</v>
-      </c>
-      <c r="E18" s="3">
-        <v>0.84899999999999998</v>
-      </c>
-      <c r="F18" s="3">
-        <v>0.88539999999999996</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0.93759999999999999</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0.91180000000000005</v>
-      </c>
-      <c r="I18" s="5"/>
-      <c r="J18" s="32">
-        <v>100</v>
-      </c>
-      <c r="K18" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B19" s="3">
-        <v>0.83389999999999997</v>
-      </c>
-      <c r="C19" s="3">
-        <v>0.86409999999999998</v>
-      </c>
-      <c r="D19" s="3">
-        <v>0.80359999999999998</v>
-      </c>
-      <c r="E19" s="3">
-        <v>0.81520000000000004</v>
-      </c>
-      <c r="F19" s="3">
-        <v>0.8387</v>
-      </c>
-      <c r="G19" s="3">
-        <v>0.88690000000000002</v>
-      </c>
-      <c r="H19" s="3">
-        <v>0.84330000000000005</v>
-      </c>
-      <c r="I19" s="5"/>
-      <c r="J19" s="32">
-        <v>240</v>
-      </c>
-      <c r="K19" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20" s="3">
-        <v>0.82089999999999996</v>
-      </c>
-      <c r="C20" s="3">
-        <v>0.91349999999999998</v>
-      </c>
-      <c r="D20" s="3">
-        <v>0.72829999999999995</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0.82699999999999996</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0.85350000000000004</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0.9476</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0.94210000000000005</v>
-      </c>
-      <c r="I20" s="5"/>
-      <c r="J20" s="32">
-        <v>343</v>
-      </c>
-      <c r="K20" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B21" s="86">
-        <v>0.66520000000000001</v>
-      </c>
-      <c r="C21" s="86">
-        <v>0.56950000000000001</v>
-      </c>
-      <c r="D21" s="86">
-        <v>0.76100000000000001</v>
-      </c>
-      <c r="E21" s="86">
-        <v>0.46189999999999998</v>
-      </c>
-      <c r="F21" s="86">
-        <v>0.49890000000000001</v>
-      </c>
-      <c r="G21" s="86">
-        <v>0.95179999999999998</v>
-      </c>
-      <c r="H21" s="86">
-        <v>0.94779999999999998</v>
-      </c>
-      <c r="I21" s="5"/>
-      <c r="J21" s="32">
-        <v>400</v>
-      </c>
-      <c r="K21" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B22" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="D22" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="E22" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="F22" s="2">
-        <v>0.26669999999999999</v>
-      </c>
-      <c r="G22" s="2">
-        <v>0.67520000000000002</v>
-      </c>
-      <c r="H22" s="2">
-        <v>0.64100000000000001</v>
-      </c>
-      <c r="J22" s="32">
-        <v>273</v>
-      </c>
-      <c r="K22" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="J24" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K25" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="J27" t="s">
-        <v>101</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="M2:N23">
-    <sortCondition descending="1" ref="N2:N23"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="B2" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="C2">
-        <v>0.27239999999999998</v>
-      </c>
-      <c r="D2">
-        <v>0.54259999999999997</v>
-      </c>
-      <c r="E2">
-        <v>2.2000000000000001E-3</v>
-      </c>
-      <c r="F2">
-        <v>0.35220000000000001</v>
-      </c>
-      <c r="G2">
-        <v>0.42709999999999998</v>
-      </c>
-      <c r="H2">
-        <v>0.24129999999999999</v>
-      </c>
-      <c r="I2">
-        <v>0.437</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="C3">
-        <v>0.49930000000000002</v>
-      </c>
-      <c r="D3">
-        <v>0.53949999999999998</v>
-      </c>
-      <c r="E3">
-        <v>0.4592</v>
-      </c>
-      <c r="F3">
-        <v>0.50970000000000004</v>
-      </c>
-      <c r="G3">
-        <v>0.5151</v>
-      </c>
-      <c r="H3">
-        <v>0.52569999999999995</v>
-      </c>
-      <c r="I3">
-        <v>0.58540000000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="B4" s="10">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>0.63270000000000004</v>
-      </c>
-      <c r="D4">
-        <v>0.73360000000000003</v>
-      </c>
-      <c r="E4">
-        <v>0.53180000000000005</v>
-      </c>
-      <c r="F4">
-        <v>0.61119999999999997</v>
-      </c>
-      <c r="G4">
-        <v>0.66659999999999997</v>
-      </c>
-      <c r="H4">
-        <v>0.72189999999999999</v>
-      </c>
-      <c r="I4">
-        <v>0.72270000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="B5" s="4">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>0.37780000000000002</v>
-      </c>
-      <c r="D5">
-        <v>0.61970000000000003</v>
-      </c>
-      <c r="E5">
-        <v>0.13589999999999999</v>
-      </c>
-      <c r="F5">
-        <v>0.41820000000000002</v>
-      </c>
-      <c r="G5">
-        <v>0.49919999999999998</v>
-      </c>
-      <c r="H5">
-        <v>0.40720000000000001</v>
-      </c>
-      <c r="I5">
-        <v>0.4768</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="B6" s="4">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>0.54369999999999996</v>
-      </c>
-      <c r="D6">
-        <v>0.74219999999999997</v>
-      </c>
-      <c r="E6">
-        <v>0.3453</v>
-      </c>
-      <c r="F6">
-        <v>0.53200000000000003</v>
-      </c>
-      <c r="G6">
-        <v>0.61950000000000005</v>
-      </c>
-      <c r="H6">
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="I6">
-        <v>0.60129999999999995</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="B8" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="C8">
-        <v>0.30780000000000002</v>
-      </c>
-      <c r="D8">
-        <v>0.50670000000000004</v>
-      </c>
-      <c r="E8">
-        <v>0.109</v>
-      </c>
-      <c r="F8">
-        <v>0.36280000000000001</v>
-      </c>
-      <c r="G8">
-        <v>0.42280000000000001</v>
-      </c>
-      <c r="H8">
-        <v>0.30499999999999999</v>
-      </c>
-      <c r="I8">
-        <v>0.44540000000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="B9" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="C9">
-        <v>0.59350000000000003</v>
-      </c>
-      <c r="D9">
-        <v>0.67169999999999996</v>
-      </c>
-      <c r="E9">
-        <v>0.51519999999999999</v>
-      </c>
-      <c r="F9">
-        <v>0.58509999999999995</v>
-      </c>
-      <c r="G9">
-        <v>0.62429999999999997</v>
-      </c>
-      <c r="H9">
-        <v>0.64900000000000002</v>
-      </c>
-      <c r="I9">
-        <v>0.7359</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="B10" s="10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>0.38700000000000001</v>
-      </c>
-      <c r="D10">
-        <v>0.7278</v>
-      </c>
-      <c r="E10">
-        <v>4.6199999999999998E-2</v>
-      </c>
-      <c r="F10">
-        <v>0.43280000000000002</v>
-      </c>
-      <c r="G10">
-        <v>0.54269999999999996</v>
-      </c>
-      <c r="H10">
-        <v>0.41070000000000001</v>
-      </c>
-      <c r="I10">
-        <v>0.54800000000000004</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="B11" s="4">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>0.40560000000000002</v>
-      </c>
-      <c r="D11">
-        <v>0.68340000000000001</v>
-      </c>
-      <c r="E11">
-        <v>0.1278</v>
-      </c>
-      <c r="F11">
-        <v>0.43890000000000001</v>
-      </c>
-      <c r="G11">
-        <v>0.53439999999999999</v>
-      </c>
-      <c r="H11">
-        <v>0.42259999999999998</v>
-      </c>
-      <c r="I11">
-        <v>0.53290000000000004</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="B12" s="4">
-        <v>4</v>
-      </c>
-      <c r="C12">
-        <v>0.63859999999999995</v>
-      </c>
-      <c r="D12">
-        <v>0.73180000000000001</v>
-      </c>
-      <c r="E12">
-        <v>0.54530000000000001</v>
-      </c>
-      <c r="F12">
-        <v>0.62039999999999995</v>
-      </c>
-      <c r="G12">
-        <v>0.67030000000000001</v>
-      </c>
-      <c r="H12">
-        <v>0.69789999999999996</v>
-      </c>
-      <c r="I12">
-        <v>0.70550000000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>1</v>
-      </c>
-      <c r="B14" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="C14">
-        <v>0.42799999999999999</v>
-      </c>
-      <c r="D14">
-        <v>0.53139999999999998</v>
-      </c>
-      <c r="E14">
-        <v>0.32469999999999999</v>
-      </c>
-      <c r="F14">
-        <v>0.44059999999999999</v>
-      </c>
-      <c r="G14">
-        <v>0.48159999999999997</v>
-      </c>
-      <c r="H14">
-        <v>0.43780000000000002</v>
-      </c>
-      <c r="I14">
-        <v>0.49830000000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>1</v>
-      </c>
-      <c r="B15" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="C15">
-        <v>0.6139</v>
-      </c>
-      <c r="D15">
-        <v>0.65469999999999995</v>
-      </c>
-      <c r="E15">
-        <v>0.57310000000000005</v>
-      </c>
-      <c r="F15">
-        <v>0.60670000000000002</v>
-      </c>
-      <c r="G15">
-        <v>0.62929999999999997</v>
-      </c>
-      <c r="H15">
-        <v>0.67710000000000004</v>
-      </c>
-      <c r="I15">
-        <v>0.6774</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>1</v>
-      </c>
-      <c r="B16" s="10">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>0.65990000000000004</v>
-      </c>
-      <c r="D16">
-        <v>0.52739999999999998</v>
-      </c>
-      <c r="E16">
-        <v>0.79239999999999999</v>
-      </c>
-      <c r="F16">
-        <v>0.71899999999999997</v>
-      </c>
-      <c r="G16">
-        <v>0.60809999999999997</v>
-      </c>
-      <c r="H16">
-        <v>0.70350000000000001</v>
-      </c>
-      <c r="I16">
-        <v>0.73960000000000004</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>1</v>
-      </c>
-      <c r="B17" s="4">
-        <v>2</v>
-      </c>
-      <c r="C17">
-        <v>0.46210000000000001</v>
-      </c>
-      <c r="D17">
-        <v>0.70669999999999999</v>
-      </c>
-      <c r="E17">
-        <v>0.2175</v>
-      </c>
-      <c r="F17">
-        <v>0.47520000000000001</v>
-      </c>
-      <c r="G17">
-        <v>0.56799999999999995</v>
-      </c>
-      <c r="H17">
-        <v>0.5494</v>
-      </c>
-      <c r="I17">
-        <v>0.57899999999999996</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>1</v>
-      </c>
-      <c r="B18" s="4">
-        <v>4</v>
-      </c>
-      <c r="C18">
-        <v>0.50649999999999995</v>
-      </c>
-      <c r="D18">
-        <v>0.69550000000000001</v>
-      </c>
-      <c r="E18">
-        <v>0.3175</v>
-      </c>
-      <c r="F18">
-        <v>0.50539999999999996</v>
-      </c>
-      <c r="G18">
-        <v>0.58520000000000005</v>
-      </c>
-      <c r="H18">
-        <v>0.57279999999999998</v>
-      </c>
-      <c r="I18">
-        <v>0.63449999999999995</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>2</v>
-      </c>
-      <c r="B20" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="C20">
-        <v>0.34620000000000001</v>
-      </c>
-      <c r="D20">
-        <v>0.52690000000000003</v>
-      </c>
-      <c r="E20">
-        <v>0.16550000000000001</v>
-      </c>
-      <c r="F20">
-        <v>0.3871</v>
-      </c>
-      <c r="G20">
-        <v>0.44619999999999999</v>
-      </c>
-      <c r="H20">
-        <v>0.34470000000000001</v>
-      </c>
-      <c r="I20">
-        <v>0.47320000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>2</v>
-      </c>
-      <c r="B21" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="C21">
-        <v>0.55310000000000004</v>
-      </c>
-      <c r="D21">
-        <v>0.55959999999999999</v>
-      </c>
-      <c r="E21">
-        <v>0.54659999999999997</v>
-      </c>
-      <c r="F21">
-        <v>0.55310000000000004</v>
-      </c>
-      <c r="G21">
-        <v>0.55620000000000003</v>
-      </c>
-      <c r="H21">
-        <v>0.59899999999999998</v>
-      </c>
-      <c r="I21">
-        <v>0.64629999999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>2</v>
-      </c>
-      <c r="B22" s="10">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>0.35830000000000001</v>
-      </c>
-      <c r="D22">
-        <v>0.52380000000000004</v>
-      </c>
-      <c r="E22">
-        <v>0.1928</v>
-      </c>
-      <c r="F22">
-        <v>0.39460000000000001</v>
-      </c>
-      <c r="G22">
-        <v>0.4496</v>
-      </c>
-      <c r="H22">
-        <v>0.432</v>
-      </c>
-      <c r="I22">
-        <v>0.56259999999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="82">
-        <v>2</v>
-      </c>
-      <c r="B23" s="82">
-        <v>2</v>
-      </c>
-      <c r="C23" s="76">
-        <v>0.71950000000000003</v>
-      </c>
-      <c r="D23" s="76">
-        <v>0.75070000000000003</v>
-      </c>
-      <c r="E23" s="76">
-        <v>0.68830000000000002</v>
-      </c>
-      <c r="F23" s="76">
-        <v>0.70960000000000001</v>
-      </c>
-      <c r="G23" s="76">
-        <v>0.7288</v>
-      </c>
-      <c r="H23" s="76">
-        <v>0.77690000000000003</v>
-      </c>
-      <c r="I23" s="76">
-        <v>0.77810000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
-        <v>2</v>
-      </c>
-      <c r="B24" s="4">
-        <v>4</v>
-      </c>
-      <c r="C24">
-        <v>0.7157</v>
-      </c>
-      <c r="D24">
-        <v>0.55740000000000001</v>
-      </c>
-      <c r="E24">
-        <v>0.874</v>
-      </c>
-      <c r="F24">
-        <v>0.81559999999999999</v>
-      </c>
-      <c r="G24">
-        <v>0.66220000000000001</v>
-      </c>
-      <c r="H24">
-        <v>0.80710000000000004</v>
-      </c>
-      <c r="I24">
-        <v>0.83169999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-    </row>
-    <row r="26" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>4</v>
-      </c>
-      <c r="B26" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="C26">
-        <v>0.44330000000000003</v>
-      </c>
-      <c r="D26">
-        <v>0.53900000000000003</v>
-      </c>
-      <c r="E26">
-        <v>0.34749999999999998</v>
-      </c>
-      <c r="F26">
-        <v>0.45279999999999998</v>
-      </c>
-      <c r="G26">
-        <v>0.4919</v>
-      </c>
-      <c r="H26">
-        <v>0.44619999999999999</v>
-      </c>
-      <c r="I26">
-        <v>0.53439999999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="82">
-        <v>4</v>
-      </c>
-      <c r="B27" s="82">
-        <v>0.5</v>
-      </c>
-      <c r="C27" s="76">
-        <v>0.52529999999999999</v>
-      </c>
-      <c r="D27" s="76">
-        <v>0.65700000000000003</v>
-      </c>
-      <c r="E27" s="76">
-        <v>0.39369999999999999</v>
-      </c>
-      <c r="F27" s="76">
-        <v>0.52080000000000004</v>
-      </c>
-      <c r="G27" s="76">
-        <v>0.58020000000000005</v>
-      </c>
-      <c r="H27" s="76">
-        <v>0.55879999999999996</v>
-      </c>
-      <c r="I27" s="76">
-        <v>0.62539999999999996</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
-        <v>4</v>
-      </c>
-      <c r="B28" s="10">
-        <v>1</v>
-      </c>
-      <c r="C28" s="1">
-        <v>0.47470000000000001</v>
-      </c>
-      <c r="D28" s="1">
-        <v>0.56230000000000002</v>
-      </c>
-      <c r="E28" s="1">
-        <v>0.38700000000000001</v>
-      </c>
-      <c r="F28" s="1">
-        <v>0.47870000000000001</v>
-      </c>
-      <c r="G28" s="1">
-        <v>0.5151</v>
-      </c>
-      <c r="H28" s="1">
-        <v>0.4829</v>
-      </c>
-      <c r="I28" s="1">
-        <v>0.56669999999999998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
-        <v>4</v>
-      </c>
-      <c r="B29" s="4">
-        <v>2</v>
-      </c>
-      <c r="C29" s="1">
-        <v>0.49780000000000002</v>
-      </c>
-      <c r="D29" s="1">
-        <v>0.73140000000000005</v>
-      </c>
-      <c r="E29" s="1">
-        <v>0.2641</v>
-      </c>
-      <c r="F29" s="1">
-        <v>0.50129999999999997</v>
-      </c>
-      <c r="G29" s="1">
-        <v>0.59399999999999997</v>
-      </c>
-      <c r="H29" s="1">
-        <v>0.64119999999999999</v>
-      </c>
-      <c r="I29" s="1">
-        <v>0.70740000000000003</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="23">
-        <v>4</v>
-      </c>
-      <c r="B30" s="23">
-        <v>4</v>
-      </c>
-      <c r="C30" s="21">
-        <v>0.80359999999999998</v>
-      </c>
-      <c r="D30" s="20">
-        <v>0.63590000000000002</v>
-      </c>
-      <c r="E30" s="20">
-        <v>0.97130000000000005</v>
-      </c>
-      <c r="F30" s="20">
-        <v>0.95960000000000001</v>
-      </c>
-      <c r="G30" s="20">
-        <v>0.76390000000000002</v>
-      </c>
-      <c r="H30" s="20">
-        <v>0.94130000000000003</v>
-      </c>
-      <c r="I30" s="20">
-        <v>0.94910000000000005</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O39" sqref="O39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="22">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>0.68179999999999996</v>
-      </c>
-      <c r="C3">
-        <v>0.51259999999999994</v>
-      </c>
-      <c r="D3">
-        <v>0.85109999999999997</v>
-      </c>
-      <c r="E3">
-        <v>0.78029999999999999</v>
-      </c>
-      <c r="F3">
-        <v>0.61750000000000005</v>
-      </c>
-      <c r="G3">
-        <v>0.71819999999999995</v>
-      </c>
-      <c r="H3">
-        <v>0.74929999999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>0.51880000000000004</v>
-      </c>
-      <c r="C4">
-        <v>0.48699999999999999</v>
-      </c>
-      <c r="D4">
-        <v>0.55069999999999997</v>
-      </c>
-      <c r="E4">
-        <v>0.52139999999999997</v>
-      </c>
-      <c r="F4">
-        <v>0.50329999999999997</v>
-      </c>
-      <c r="G4">
-        <v>0.50549999999999995</v>
-      </c>
-      <c r="H4">
-        <v>0.54600000000000004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>15</v>
-      </c>
-      <c r="B5">
-        <v>0.4975</v>
-      </c>
-      <c r="C5">
-        <v>0.48430000000000001</v>
-      </c>
-      <c r="D5">
-        <v>0.51080000000000003</v>
-      </c>
-      <c r="E5">
-        <v>0.49859999999999999</v>
-      </c>
-      <c r="F5">
-        <v>0.49099999999999999</v>
-      </c>
-      <c r="G5">
-        <v>0.47399999999999998</v>
-      </c>
-      <c r="H5">
-        <v>0.5292</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>20</v>
-      </c>
-      <c r="B6">
-        <v>0.46050000000000002</v>
-      </c>
-      <c r="C6">
-        <v>0.50090000000000001</v>
-      </c>
-      <c r="D6">
-        <v>0.42020000000000002</v>
-      </c>
-      <c r="E6">
-        <v>0.46510000000000001</v>
-      </c>
-      <c r="F6">
-        <v>0.48180000000000001</v>
-      </c>
-      <c r="G6">
-        <v>0.44600000000000001</v>
-      </c>
-      <c r="H6">
-        <v>0.48899999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>25</v>
-      </c>
-      <c r="B7">
-        <v>0.43830000000000002</v>
-      </c>
-      <c r="C7">
-        <v>0.47889999999999999</v>
-      </c>
-      <c r="D7">
-        <v>0.39779999999999999</v>
-      </c>
-      <c r="E7">
-        <v>0.44309999999999999</v>
-      </c>
-      <c r="F7">
-        <v>0.46029999999999999</v>
-      </c>
-      <c r="G7">
-        <v>0.41770000000000002</v>
-      </c>
-      <c r="H7">
-        <v>0.45879999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>30</v>
-      </c>
-      <c r="B8">
-        <v>0.44840000000000002</v>
-      </c>
-      <c r="C8">
-        <v>0.50539999999999996</v>
-      </c>
-      <c r="D8">
-        <v>0.39150000000000001</v>
-      </c>
-      <c r="E8">
-        <v>0.45369999999999999</v>
-      </c>
-      <c r="F8">
-        <v>0.47810000000000002</v>
-      </c>
-      <c r="G8">
-        <v>0.41930000000000001</v>
-      </c>
-      <c r="H8">
-        <v>0.4486</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>35</v>
-      </c>
-      <c r="B9">
-        <v>0.4345</v>
-      </c>
-      <c r="C9">
-        <v>0.50180000000000002</v>
-      </c>
-      <c r="D9">
-        <v>0.36730000000000002</v>
-      </c>
-      <c r="E9">
-        <v>0.44209999999999999</v>
-      </c>
-      <c r="F9">
-        <v>0.47</v>
-      </c>
-      <c r="G9">
-        <v>0.40150000000000002</v>
-      </c>
-      <c r="H9">
-        <v>0.44080000000000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
-        <v>40</v>
-      </c>
-      <c r="B10">
-        <v>0.47889999999999999</v>
-      </c>
-      <c r="C10">
-        <v>0.51259999999999994</v>
-      </c>
-      <c r="D10">
-        <v>0.44529999999999997</v>
-      </c>
-      <c r="E10">
-        <v>0.48039999999999999</v>
-      </c>
-      <c r="F10">
-        <v>0.49580000000000002</v>
-      </c>
-      <c r="G10">
-        <v>0.45540000000000003</v>
-      </c>
-      <c r="H10">
-        <v>0.47410000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>45</v>
-      </c>
-      <c r="B11">
-        <v>0.48859999999999998</v>
-      </c>
-      <c r="C11">
-        <v>0.50129999999999997</v>
-      </c>
-      <c r="D11">
-        <v>0.4758</v>
-      </c>
-      <c r="E11">
-        <v>0.4889</v>
-      </c>
-      <c r="F11">
-        <v>0.495</v>
-      </c>
-      <c r="G11">
-        <v>0.47089999999999999</v>
-      </c>
-      <c r="H11">
-        <v>0.49020000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>50</v>
-      </c>
-      <c r="B12">
-        <v>0.4834</v>
-      </c>
-      <c r="C12">
-        <v>0.50629999999999997</v>
-      </c>
-      <c r="D12">
-        <v>0.46050000000000002</v>
-      </c>
-      <c r="E12">
-        <v>0.48420000000000002</v>
-      </c>
-      <c r="F12">
-        <v>0.49490000000000001</v>
-      </c>
-      <c r="G12">
-        <v>0.46439999999999998</v>
-      </c>
-      <c r="H12">
-        <v>0.48549999999999999</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K39"/>
   <sheetViews>
@@ -12566,34 +11964,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="K1" s="30" t="s">
         <v>35</v>
       </c>
     </row>
@@ -13297,31 +12695,31 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="76">
+      <c r="A30" s="68">
         <v>128</v>
       </c>
-      <c r="B30" s="76">
+      <c r="B30" s="68">
         <v>16</v>
       </c>
-      <c r="C30" s="76">
+      <c r="C30" s="68">
         <v>0.57530000000000003</v>
       </c>
-      <c r="D30" s="76">
+      <c r="D30" s="68">
         <v>0.68389999999999995</v>
       </c>
-      <c r="E30" s="76">
+      <c r="E30" s="68">
         <v>0.46679999999999999</v>
       </c>
-      <c r="F30" s="76">
+      <c r="F30" s="68">
         <v>0.56279999999999997</v>
       </c>
-      <c r="G30" s="76">
+      <c r="G30" s="68">
         <v>0.61719999999999997</v>
       </c>
-      <c r="H30" s="76">
+      <c r="H30" s="68">
         <v>0.56910000000000005</v>
       </c>
-      <c r="I30" s="76">
+      <c r="I30" s="68">
         <v>0.51649999999999996</v>
       </c>
     </row>
@@ -13471,7 +12869,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="37" t="s">
+      <c r="B38" s="34" t="s">
         <v>22</v>
       </c>
       <c r="C38" s="3">
@@ -13504,7 +12902,7 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="37" t="s">
+      <c r="B39" s="34" t="s">
         <v>23</v>
       </c>
       <c r="C39" s="3">
@@ -13541,819 +12939,735 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R28"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N36" sqref="N36"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="45.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="29" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="63" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0.99219999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.99219999999999997</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.99780000000000002</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.98650000000000004</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.98670000000000002</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.99219999999999997</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.99939999999999996</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.99919999999999998</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0.96230000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.96230000000000004</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.98829999999999996</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.93630000000000002</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.93959999999999999</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.96330000000000005</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.99119999999999997</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.98970000000000002</v>
+      </c>
+      <c r="J4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0.96230000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.94930000000000003</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.97130000000000005</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.9274</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.93049999999999999</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.95040000000000002</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.98719999999999997</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="J5" t="s">
+        <v>64</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0.92259999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.96230000000000004</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.97670000000000001</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.94950000000000001</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.96289999999999998</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.98740000000000006</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.98640000000000005</v>
+      </c>
+      <c r="J6" t="s">
+        <v>65</v>
+      </c>
+      <c r="M6" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0.90290000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.92259999999999998</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.92830000000000001</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.92310000000000003</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.97140000000000004</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="J7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0.9002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.89419999999999999</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.90669999999999995</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.88160000000000005</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.88470000000000004</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.89549999999999996</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.95020000000000004</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.94410000000000005</v>
+      </c>
+      <c r="J8" t="s">
+        <v>54</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0.89419999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.86260000000000003</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.89639999999999997</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.82869999999999999</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.83940000000000003</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.86680000000000001</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.91239999999999999</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.87180000000000002</v>
+      </c>
+      <c r="J9" t="s">
+        <v>55</v>
+      </c>
+      <c r="M9" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0.88029999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.84189999999999998</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.85019999999999996</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.83360000000000001</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.83650000000000002</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.84319999999999995</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.90049999999999997</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.88149999999999995</v>
+      </c>
+      <c r="J10" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0.86260000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.77059999999999995</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.85109999999999997</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.69010000000000005</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.7339</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.78769999999999996</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.82709999999999995</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0.78580000000000005</v>
+      </c>
+      <c r="J11" t="s">
+        <v>41</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0.84189999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.60070000000000001</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.60270000000000001</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.59870000000000001</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.60109999999999997</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.59950000000000003</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.63749999999999996</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0.61270000000000002</v>
+      </c>
+      <c r="J12" t="s">
+        <v>46</v>
+      </c>
+      <c r="M12" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0.83389999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M13" s="65" t="s">
+        <v>76</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0.82089999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="I14" s="7"/>
+      <c r="M14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0.77059999999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" s="5"/>
+      <c r="J15" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="K15" s="66"/>
+      <c r="M15" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0.66520000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.90290000000000004</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.92910000000000004</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.87670000000000003</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0.90539999999999998</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0.93689999999999996</v>
+      </c>
+      <c r="I16" s="5"/>
+      <c r="J16" s="31">
+        <v>80</v>
+      </c>
+      <c r="K16" t="s">
+        <v>67</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0.60070000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.9002</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.92510000000000003</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.87529999999999997</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.88149999999999995</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0.90269999999999995</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.95830000000000004</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0.93910000000000005</v>
+      </c>
+      <c r="I17" s="5"/>
+      <c r="J17" s="31">
         <v>20</v>
       </c>
-      <c r="C1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" s="66" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" s="66" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" s="66" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" s="66" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" s="66" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" s="66" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="32">
-        <v>0</v>
-      </c>
-      <c r="B2" s="32">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0.51819999999999999</v>
-      </c>
-      <c r="D2">
-        <v>0.87619999999999998</v>
-      </c>
-      <c r="E2">
-        <v>0.16009999999999999</v>
-      </c>
-      <c r="F2">
-        <v>0.51160000000000005</v>
-      </c>
-      <c r="G2">
-        <v>0.64549999999999996</v>
-      </c>
-      <c r="H2">
-        <v>0.74960000000000004</v>
-      </c>
-      <c r="I2">
-        <v>0.77739999999999998</v>
-      </c>
-      <c r="K2" s="67" t="s">
-        <v>58</v>
-      </c>
-      <c r="L2" s="2">
-        <v>0.86009999999999998</v>
-      </c>
-      <c r="M2" s="2">
-        <v>0.7399</v>
-      </c>
-      <c r="N2" s="2">
-        <v>0.98029999999999995</v>
-      </c>
-      <c r="O2" s="2">
-        <v>0.97409999999999997</v>
-      </c>
-      <c r="P2" s="2">
-        <v>0.84079999999999999</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>0.98240000000000005</v>
-      </c>
-      <c r="R2" s="2">
-        <v>0.96130000000000004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="78">
-        <v>0</v>
-      </c>
-      <c r="B3" s="78">
-        <v>10</v>
-      </c>
-      <c r="C3" s="76">
-        <v>0.86009999999999998</v>
-      </c>
-      <c r="D3" s="76">
-        <v>0.7399</v>
-      </c>
-      <c r="E3" s="76">
-        <v>0.98029999999999995</v>
-      </c>
-      <c r="F3" s="76">
-        <v>0.97409999999999997</v>
-      </c>
-      <c r="G3" s="76">
-        <v>0.84079999999999999</v>
-      </c>
-      <c r="H3" s="76">
-        <v>0.98240000000000005</v>
-      </c>
-      <c r="I3" s="76">
-        <v>0.96130000000000004</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="L3" s="55">
-        <v>0.41049999999999998</v>
-      </c>
-      <c r="M3" s="55">
-        <v>0.78969999999999996</v>
-      </c>
-      <c r="N3" s="55">
-        <v>3.1399999999999997E-2</v>
-      </c>
-      <c r="O3" s="55">
-        <v>0.44890000000000002</v>
-      </c>
-      <c r="P3" s="55">
-        <v>0.57230000000000003</v>
-      </c>
-      <c r="Q3" s="55">
-        <v>6.7199999999999996E-2</v>
-      </c>
-      <c r="R3" s="55">
-        <v>0.31790000000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="33">
-        <v>0</v>
-      </c>
-      <c r="B4" s="33">
-        <v>20</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.48770000000000002</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.76910000000000001</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.20630000000000001</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.49170000000000003</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.59940000000000004</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0.35170000000000001</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0.39069999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="33">
-        <v>0</v>
-      </c>
-      <c r="B5" s="33">
-        <v>30</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.41299999999999998</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.78879999999999995</v>
-      </c>
-      <c r="E5" s="1">
-        <v>3.7199999999999997E-2</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.44750000000000001</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.57010000000000005</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0.3332</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="33">
-        <v>0.1</v>
-      </c>
-      <c r="B7" s="33">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.44819999999999999</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.79149999999999998</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.10489999999999999</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.46920000000000001</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0.58909999999999996</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0.3155</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0.49809999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="33">
-        <v>0.1</v>
-      </c>
-      <c r="B8" s="33">
-        <v>10</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.58720000000000006</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.82420000000000004</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.35020000000000001</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.56169999999999998</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0.66700000000000004</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0.69</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0.66549999999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="77">
-        <v>0.1</v>
-      </c>
-      <c r="B9" s="77">
-        <v>20</v>
-      </c>
-      <c r="C9" s="42">
-        <v>0.41049999999999998</v>
-      </c>
-      <c r="D9" s="42">
-        <v>0.78969999999999996</v>
-      </c>
-      <c r="E9" s="42">
-        <v>3.1399999999999997E-2</v>
-      </c>
-      <c r="F9" s="42">
-        <v>0.44890000000000002</v>
-      </c>
-      <c r="G9" s="42">
-        <v>0.57230000000000003</v>
-      </c>
-      <c r="H9" s="42">
-        <v>6.7199999999999996E-2</v>
-      </c>
-      <c r="I9" s="42">
-        <v>0.31790000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="33">
-        <v>0.1</v>
-      </c>
-      <c r="B10" s="33">
-        <v>30</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0.443</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.78879999999999995</v>
-      </c>
-      <c r="E10" s="1">
-        <v>9.7299999999999998E-2</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0.46629999999999999</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0.58609999999999995</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0.3982</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0.50749999999999995</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="33">
+      <c r="K17" t="s">
+        <v>69</v>
+      </c>
+      <c r="M17" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0.88029999999999997</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.92510000000000003</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.83540000000000003</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.84899999999999998</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0.88539999999999996</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.93759999999999999</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0.91180000000000005</v>
+      </c>
+      <c r="I18" s="5"/>
+      <c r="J18" s="31">
+        <v>100</v>
+      </c>
+      <c r="K18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0.83389999999999997</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.86409999999999998</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.80359999999999998</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.81520000000000004</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0.8387</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.88690000000000002</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0.84330000000000005</v>
+      </c>
+      <c r="I19" s="5"/>
+      <c r="J19" s="31">
+        <v>240</v>
+      </c>
+      <c r="K19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0.82089999999999996</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.91349999999999998</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.72829999999999995</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0.85350000000000004</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.9476</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0.94210000000000005</v>
+      </c>
+      <c r="I20" s="5"/>
+      <c r="J20" s="31">
+        <v>343</v>
+      </c>
+      <c r="K20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="75">
+        <v>0.66520000000000001</v>
+      </c>
+      <c r="C21" s="75">
+        <v>0.56950000000000001</v>
+      </c>
+      <c r="D21" s="75">
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="E21" s="75">
+        <v>0.46189999999999998</v>
+      </c>
+      <c r="F21" s="75">
+        <v>0.49890000000000001</v>
+      </c>
+      <c r="G21" s="75">
+        <v>0.95179999999999998</v>
+      </c>
+      <c r="H21" s="75">
+        <v>0.94779999999999998</v>
+      </c>
+      <c r="I21" s="5"/>
+      <c r="J21" s="31">
+        <v>400</v>
+      </c>
+      <c r="K21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E22" s="2">
         <v>0.2</v>
       </c>
-      <c r="B12" s="33">
-        <v>0</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="G12" s="1">
+      <c r="F22" s="2">
         <v>0.26669999999999999</v>
       </c>
-      <c r="H12" s="1">
-        <v>0.99719999999999998</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0.99680000000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="33">
-        <v>0.2</v>
-      </c>
-      <c r="B13" s="33">
-        <v>10</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0.45540000000000003</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0.75470000000000004</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0.15609999999999999</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0.47199999999999998</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0.58079999999999998</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0.2772</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0.39279999999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="33">
-        <v>0.2</v>
-      </c>
-      <c r="B14" s="33">
-        <v>20</v>
-      </c>
-      <c r="C14" s="65">
-        <v>0.40039999999999998</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0.76819999999999999</v>
-      </c>
-      <c r="E14" s="1">
-        <v>3.27E-2</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0.44230000000000003</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0.56120000000000003</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0.12870000000000001</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0.32700000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="33">
-        <v>0.2</v>
-      </c>
-      <c r="B15" s="33">
-        <v>30</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0.47349999999999998</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0.75429999999999997</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0.1928</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0.48299999999999998</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0.58879999999999999</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0.35720000000000002</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0.4138</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="33">
-        <v>0.3</v>
-      </c>
-      <c r="B17" s="33">
-        <v>0</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0.79010000000000002</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0.58120000000000005</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0.99909999999999999</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0.99860000000000004</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0.73399999999999999</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0.99390000000000001</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0.99490000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="33">
-        <v>0.3</v>
-      </c>
-      <c r="B18" s="33">
-        <v>10</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0.86839999999999995</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0.77349999999999997</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0.96319999999999995</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0.95499999999999996</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0.85450000000000004</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0.97</v>
-      </c>
-      <c r="I18" s="1">
-        <v>0.93700000000000006</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="36">
-        <v>0.3</v>
-      </c>
-      <c r="B19" s="36">
-        <v>20</v>
-      </c>
-      <c r="C19" s="21">
-        <v>0.88090000000000002</v>
-      </c>
-      <c r="D19" s="20">
-        <v>0.76190000000000002</v>
-      </c>
-      <c r="E19" s="20">
-        <v>1</v>
-      </c>
-      <c r="F19" s="20">
-        <v>1</v>
-      </c>
-      <c r="G19" s="20">
-        <v>0.86439999999999995</v>
-      </c>
-      <c r="H19" s="20">
-        <v>0.99990000000000001</v>
-      </c>
-      <c r="I19" s="20">
-        <v>0.99990000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="33">
-        <v>0.3</v>
-      </c>
-      <c r="B20" s="33">
-        <v>30</v>
-      </c>
-      <c r="C20" s="1">
-        <v>0.46300000000000002</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0.77669999999999995</v>
-      </c>
-      <c r="E20" s="1">
-        <v>0.14929999999999999</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0.47720000000000001</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0.59109999999999996</v>
-      </c>
-      <c r="H20" s="1">
-        <v>0.31440000000000001</v>
-      </c>
-      <c r="I20" s="1">
-        <v>0.37769999999999998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="33"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="33">
-        <v>0.4</v>
-      </c>
-      <c r="B22" s="33">
-        <v>0</v>
-      </c>
-      <c r="C22" s="1">
-        <v>0.86570000000000003</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0.73809999999999998</v>
-      </c>
-      <c r="E22" s="1">
-        <v>0.99329999999999996</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0.99099999999999999</v>
-      </c>
-      <c r="G22" s="1">
-        <v>0.84589999999999999</v>
-      </c>
-      <c r="H22" s="1">
-        <v>0.96819999999999995</v>
-      </c>
-      <c r="I22" s="1">
-        <v>0.97529999999999994</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="33">
-        <v>0.4</v>
-      </c>
-      <c r="B23" s="33">
-        <v>10</v>
-      </c>
-      <c r="C23" s="1">
-        <v>0.51880000000000004</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0.80669999999999997</v>
-      </c>
-      <c r="E23" s="1">
-        <v>0.23089999999999999</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0.51339999999999997</v>
-      </c>
-      <c r="G23" s="1">
-        <v>0.62690000000000001</v>
-      </c>
-      <c r="H23" s="1">
-        <v>0.5504</v>
-      </c>
-      <c r="I23" s="1">
-        <v>0.53779999999999994</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="33">
-        <v>0.4</v>
-      </c>
-      <c r="B24" s="33">
-        <v>20</v>
-      </c>
-      <c r="C24" s="1">
-        <v>0.47420000000000001</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0.73809999999999998</v>
-      </c>
-      <c r="E24" s="1">
-        <v>0.21029999999999999</v>
-      </c>
-      <c r="F24" s="1">
-        <v>0.48309999999999997</v>
-      </c>
-      <c r="G24" s="1">
-        <v>0.58389999999999997</v>
-      </c>
-      <c r="H24" s="1">
-        <v>0.51249999999999996</v>
-      </c>
-      <c r="I24" s="1">
-        <v>0.59209999999999996</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="33">
-        <v>0.4</v>
-      </c>
-      <c r="B25" s="33">
-        <v>30</v>
-      </c>
-      <c r="C25" s="1">
-        <v>0.79169999999999996</v>
-      </c>
-      <c r="D25" s="1">
-        <v>0.7964</v>
-      </c>
-      <c r="E25" s="1">
-        <v>0.78700000000000003</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0.86899999999999999</v>
-      </c>
-      <c r="G25" s="1">
-        <v>0.8165</v>
-      </c>
-      <c r="H25" s="1">
-        <v>0.75339999999999996</v>
-      </c>
-      <c r="I25" s="1">
-        <v>0.82140000000000002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="2">
-        <f>MAX(C2:C25)</f>
-        <v>0.88090000000000002</v>
-      </c>
-      <c r="D27" s="2">
-        <f t="shared" ref="D27:I27" si="0">MAX(D2:D25)</f>
-        <v>0.87619999999999998</v>
-      </c>
-      <c r="E27" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F27" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G27" s="2">
-        <f t="shared" si="0"/>
-        <v>0.86439999999999995</v>
-      </c>
-      <c r="H27" s="2">
-        <f t="shared" si="0"/>
-        <v>0.99990000000000001</v>
-      </c>
-      <c r="I27" s="2">
-        <f t="shared" si="0"/>
-        <v>0.99990000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="2">
-        <f>MIN(C2:C25)</f>
-        <v>0.40039999999999998</v>
-      </c>
-      <c r="D28" s="2">
-        <f t="shared" ref="D28:I28" si="1">MIN(D2:D25)</f>
-        <v>0.4</v>
-      </c>
-      <c r="E28" s="2">
-        <f t="shared" si="1"/>
-        <v>3.1399999999999997E-2</v>
-      </c>
-      <c r="F28" s="2">
-        <f t="shared" si="1"/>
-        <v>0.2</v>
-      </c>
-      <c r="G28" s="2">
-        <f t="shared" si="1"/>
-        <v>0.26669999999999999</v>
-      </c>
-      <c r="H28" s="2">
-        <f t="shared" si="1"/>
-        <v>6.7199999999999996E-2</v>
-      </c>
-      <c r="I28" s="2">
-        <f t="shared" si="1"/>
-        <v>0.31790000000000002</v>
+      <c r="G22" s="2">
+        <v>0.67520000000000002</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="J22" s="31">
+        <v>273</v>
+      </c>
+      <c r="K22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J27" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="M2:N23">
+    <sortCondition descending="1" ref="N2:N23"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -15181,7 +14495,7 @@
       <c r="I31" s="5"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="34" t="s">
+      <c r="B32" s="32" t="s">
         <v>22</v>
       </c>
       <c r="C32" s="13">
@@ -15205,7 +14519,7 @@
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="34" t="s">
+      <c r="B33" s="32" t="s">
         <v>23</v>
       </c>
       <c r="C33" s="13">
@@ -15625,7 +14939,7 @@
       <c r="B15" s="4">
         <v>0.5</v>
       </c>
-      <c r="C15" s="38">
+      <c r="C15" s="35">
         <v>0.86119999999999997</v>
       </c>
       <c r="D15">
@@ -16058,7 +15372,7 @@
       <c r="I31" s="5"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="34" t="s">
+      <c r="B32" s="32" t="s">
         <v>22</v>
       </c>
       <c r="C32" s="3">
@@ -16082,7 +15396,7 @@
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="34" t="s">
+      <c r="B33" s="32" t="s">
         <v>23</v>
       </c>
       <c r="C33" s="3">
@@ -16106,7 +15420,7 @@
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="34" t="s">
+      <c r="B34" s="32" t="s">
         <v>34</v>
       </c>
       <c r="C34" s="3">
@@ -16136,29 +15450,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U34"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>14</v>
       </c>
@@ -16186,41 +15490,8 @@
       <c r="I1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>0.25</v>
       </c>
@@ -16248,41 +15519,8 @@
       <c r="I2">
         <v>0.79320000000000002</v>
       </c>
-      <c r="K2" s="42">
-        <v>8</v>
-      </c>
-      <c r="L2" s="42">
-        <v>32</v>
-      </c>
-      <c r="M2" s="10">
-        <v>0.25</v>
-      </c>
-      <c r="N2" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="O2" s="42">
-        <v>0.86260000000000003</v>
-      </c>
-      <c r="P2" s="42">
-        <v>0.89639999999999997</v>
-      </c>
-      <c r="Q2" s="42">
-        <v>0.82869999999999999</v>
-      </c>
-      <c r="R2" s="42">
-        <v>0.83940000000000003</v>
-      </c>
-      <c r="S2" s="42">
-        <v>0.86680000000000001</v>
-      </c>
-      <c r="T2" s="42">
-        <v>0.91239999999999999</v>
-      </c>
-      <c r="U2" s="42">
-        <v>0.87180000000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <v>0.25</v>
       </c>
@@ -16310,41 +15548,8 @@
       <c r="I3" s="17">
         <v>0.87180000000000002</v>
       </c>
-      <c r="K3" s="42">
-        <v>8</v>
-      </c>
-      <c r="L3" s="42">
-        <v>32</v>
-      </c>
-      <c r="M3" s="10">
-        <v>0.25</v>
-      </c>
-      <c r="N3" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="O3" s="42">
-        <v>0.86009999999999998</v>
-      </c>
-      <c r="P3" s="42">
-        <v>0.88160000000000005</v>
-      </c>
-      <c r="Q3" s="42">
-        <v>0.83860000000000001</v>
-      </c>
-      <c r="R3" s="42">
-        <v>0.84540000000000004</v>
-      </c>
-      <c r="S3" s="42">
-        <v>0.8629</v>
-      </c>
-      <c r="T3" s="42">
-        <v>0.91069999999999995</v>
-      </c>
-      <c r="U3" s="42">
-        <v>0.87280000000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>0.25</v>
       </c>
@@ -16372,19 +15577,8 @@
       <c r="I4">
         <v>0.89</v>
       </c>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="42"/>
-      <c r="U4" s="42"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>0.25</v>
       </c>
@@ -16412,41 +15606,8 @@
       <c r="I5">
         <v>0.85680000000000001</v>
       </c>
-      <c r="K5" s="42">
-        <v>8</v>
-      </c>
-      <c r="L5" s="42">
-        <v>64</v>
-      </c>
-      <c r="M5" s="10">
-        <v>0.25</v>
-      </c>
-      <c r="N5" s="10">
-        <v>2</v>
-      </c>
-      <c r="O5" s="42">
-        <v>0.86260000000000003</v>
-      </c>
-      <c r="P5" s="42">
-        <v>0.90810000000000002</v>
-      </c>
-      <c r="Q5" s="42">
-        <v>0.81699999999999995</v>
-      </c>
-      <c r="R5" s="42">
-        <v>0.83250000000000002</v>
-      </c>
-      <c r="S5" s="42">
-        <v>0.86850000000000005</v>
-      </c>
-      <c r="T5" s="42">
-        <v>0.91239999999999999</v>
-      </c>
-      <c r="U5" s="42">
-        <v>0.88890000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>0.25</v>
       </c>
@@ -16474,41 +15635,8 @@
       <c r="I6">
         <v>0.87519999999999998</v>
       </c>
-      <c r="K6" s="42">
-        <v>8</v>
-      </c>
-      <c r="L6" s="42">
-        <v>64</v>
-      </c>
-      <c r="M6" s="10">
-        <v>0.25</v>
-      </c>
-      <c r="N6" s="10">
-        <v>2</v>
-      </c>
-      <c r="O6">
-        <v>0.85199999999999998</v>
-      </c>
-      <c r="P6">
-        <v>0.88300000000000001</v>
-      </c>
-      <c r="Q6">
-        <v>0.82110000000000005</v>
-      </c>
-      <c r="R6">
-        <v>0.83209999999999995</v>
-      </c>
-      <c r="S6">
-        <v>0.85640000000000005</v>
-      </c>
-      <c r="T6">
-        <v>0.90759999999999996</v>
-      </c>
-      <c r="U6">
-        <v>0.88290000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
@@ -16518,41 +15646,8 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
-      <c r="K7" s="42">
-        <v>8</v>
-      </c>
-      <c r="L7" s="42">
-        <v>64</v>
-      </c>
-      <c r="M7" s="10">
-        <v>0.25</v>
-      </c>
-      <c r="N7" s="10">
-        <v>2</v>
-      </c>
-      <c r="O7">
-        <v>0.77649999999999997</v>
-      </c>
-      <c r="P7">
-        <v>0.74129999999999996</v>
-      </c>
-      <c r="Q7">
-        <v>0.81169999999999998</v>
-      </c>
-      <c r="R7">
-        <v>0.76029999999999998</v>
-      </c>
-      <c r="S7">
-        <v>0.73080000000000001</v>
-      </c>
-      <c r="T7">
-        <v>0.83479999999999999</v>
-      </c>
-      <c r="U7">
-        <v>0.81579999999999997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>0.5</v>
       </c>
@@ -16581,7 +15676,7 @@
         <v>0.86570000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>0.5</v>
       </c>
@@ -16610,7 +15705,7 @@
         <v>0.87219999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>0.5</v>
       </c>
@@ -16639,7 +15734,7 @@
         <v>0.87239999999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>0.5</v>
       </c>
@@ -16668,7 +15763,7 @@
         <v>0.87229999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>0.5</v>
       </c>
@@ -16697,7 +15792,7 @@
         <v>0.88429999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
@@ -16708,7 +15803,7 @@
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>1</v>
       </c>
@@ -16737,7 +15832,7 @@
         <v>0.81669999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>1</v>
       </c>
@@ -16766,7 +15861,7 @@
         <v>0.86140000000000005</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>1</v>
       </c>
@@ -17177,7 +16272,7 @@
       <c r="I31" s="5"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="34" t="s">
+      <c r="B32" s="32" t="s">
         <v>22</v>
       </c>
       <c r="C32" s="3">
@@ -17201,7 +16296,7 @@
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="34" t="s">
+      <c r="B33" s="32" t="s">
         <v>23</v>
       </c>
       <c r="C33" s="3">
@@ -17225,7 +16320,7 @@
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="34" t="s">
+      <c r="B34" s="32" t="s">
         <v>34</v>
       </c>
       <c r="C34" s="3">
@@ -17548,31 +16643,31 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="82">
+      <c r="A11" s="72">
         <v>16</v>
       </c>
-      <c r="B11" s="84">
+      <c r="B11" s="74">
         <v>32</v>
       </c>
-      <c r="C11" s="82">
+      <c r="C11" s="72">
         <v>0.87760000000000005</v>
       </c>
-      <c r="D11" s="82">
+      <c r="D11" s="72">
         <v>0.93179999999999996</v>
       </c>
-      <c r="E11" s="82">
+      <c r="E11" s="72">
         <v>0.82330000000000003</v>
       </c>
-      <c r="F11" s="82">
+      <c r="F11" s="72">
         <v>0.84089999999999998</v>
       </c>
-      <c r="G11" s="82">
+      <c r="G11" s="72">
         <v>0.88400000000000001</v>
       </c>
-      <c r="H11" s="82">
+      <c r="H11" s="72">
         <v>0.94</v>
       </c>
-      <c r="I11" s="82">
+      <c r="I11" s="72">
         <v>0.93240000000000001</v>
       </c>
     </row>
@@ -18400,10 +17495,10 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
-        <v>84</v>
-      </c>
-      <c r="J2" s="75" t="s">
+      <c r="A2" s="67" t="s">
+        <v>83</v>
+      </c>
+      <c r="J2" s="67" t="s">
         <v>0</v>
       </c>
     </row>
@@ -18436,13 +17531,13 @@
         <v>18</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -18470,7 +17565,7 @@
       <c r="H4">
         <v>0.78139999999999998</v>
       </c>
-      <c r="J4" s="79">
+      <c r="J4" s="69">
         <v>5</v>
       </c>
       <c r="K4" s="3">
@@ -18508,16 +17603,16 @@
       <c r="H5" s="20">
         <v>0.89500000000000002</v>
       </c>
-      <c r="J5" s="72">
+      <c r="J5" s="64">
         <v>10</v>
       </c>
-      <c r="K5" s="72">
+      <c r="K5" s="64">
         <v>0.83450000000000002</v>
       </c>
-      <c r="L5" s="72">
+      <c r="L5" s="64">
         <v>0.98829999999999996</v>
       </c>
-      <c r="M5" s="72">
+      <c r="M5" s="64">
         <v>0.99219999999999997</v>
       </c>
     </row>
@@ -18590,7 +17685,7 @@
       <c r="K7" s="3">
         <v>0.66049999999999998</v>
       </c>
-      <c r="L7" s="80">
+      <c r="L7" s="70">
         <v>0.99080000000000001</v>
       </c>
       <c r="M7" s="3">
@@ -18736,7 +17831,7 @@
       <c r="H11">
         <v>0.58850000000000002</v>
       </c>
-      <c r="J11" s="55">
+      <c r="J11" s="50">
         <v>40</v>
       </c>
       <c r="K11" s="3">
@@ -18826,8 +17921,8 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="75" t="s">
-        <v>85</v>
+      <c r="A15" s="67" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -19117,8 +18212,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="75" t="s">
-        <v>86</v>
+      <c r="A28" s="67" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -19415,160 +18510,6 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>0.70469999999999999</v>
-      </c>
-      <c r="C2">
-        <v>0.83589999999999998</v>
-      </c>
-      <c r="D2">
-        <v>0.57350000000000001</v>
-      </c>
-      <c r="E2">
-        <v>0.66390000000000005</v>
-      </c>
-      <c r="F2">
-        <v>0.73960000000000004</v>
-      </c>
-      <c r="G2">
-        <v>0.76629999999999998</v>
-      </c>
-      <c r="H2">
-        <v>0.73699999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>0.77059999999999995</v>
-      </c>
-      <c r="C3">
-        <v>0.85109999999999997</v>
-      </c>
-      <c r="D3">
-        <v>0.69010000000000005</v>
-      </c>
-      <c r="E3">
-        <v>0.7339</v>
-      </c>
-      <c r="F3">
-        <v>0.78769999999999996</v>
-      </c>
-      <c r="G3">
-        <v>0.82709999999999995</v>
-      </c>
-      <c r="H3">
-        <v>0.78580000000000005</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>0.58320000000000005</v>
-      </c>
-      <c r="C4">
-        <v>0.94750000000000001</v>
-      </c>
-      <c r="D4">
-        <v>0.21879999999999999</v>
-      </c>
-      <c r="E4">
-        <v>0.55249999999999999</v>
-      </c>
-      <c r="F4">
-        <v>0.69569999999999999</v>
-      </c>
-      <c r="G4">
-        <v>0.58450000000000002</v>
-      </c>
-      <c r="H4">
-        <v>0.54979999999999996</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>0.73680000000000001</v>
-      </c>
-      <c r="C5">
-        <v>0.86050000000000004</v>
-      </c>
-      <c r="D5">
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="E5">
-        <v>0.68979999999999997</v>
-      </c>
-      <c r="F5">
-        <v>0.76570000000000005</v>
-      </c>
-      <c r="G5">
-        <v>0.77690000000000003</v>
-      </c>
-      <c r="H5">
-        <v>0.7208</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W31"/>
   <sheetViews>
@@ -19611,11 +18552,11 @@
       <c r="I1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="63" t="s">
+      <c r="K1" s="58" t="s">
         <v>56</v>
       </c>
       <c r="P1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q1">
         <v>0.95520000000000005</v>
@@ -19668,7 +18609,7 @@
         <v>0.93230000000000002</v>
       </c>
       <c r="P2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q2">
         <v>0.96079999999999999</v>
@@ -19721,7 +18662,7 @@
         <v>0.9879</v>
       </c>
       <c r="P3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q3">
         <v>0.96750000000000003</v>
@@ -19774,7 +18715,7 @@
         <v>0.95189999999999997</v>
       </c>
       <c r="P4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q4">
         <v>0.96519999999999995</v>
@@ -19799,38 +18740,38 @@
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="61">
+      <c r="A5" s="56">
         <v>0</v>
       </c>
-      <c r="B5" s="61">
+      <c r="B5" s="56">
         <v>30</v>
       </c>
-      <c r="C5" s="61">
+      <c r="C5" s="56">
         <v>0.83</v>
       </c>
-      <c r="D5" s="62">
+      <c r="D5" s="57">
         <v>0.78610000000000002</v>
       </c>
-      <c r="E5" s="61">
+      <c r="E5" s="56">
         <v>0.874</v>
       </c>
-      <c r="F5" s="61">
+      <c r="F5" s="56">
         <v>0.68979999999999997</v>
       </c>
-      <c r="G5" s="61">
+      <c r="G5" s="56">
         <v>0.73470000000000002</v>
       </c>
-      <c r="H5" s="61">
+      <c r="H5" s="56">
         <v>0.96960000000000002</v>
       </c>
-      <c r="I5" s="61">
+      <c r="I5" s="56">
         <v>0.95779999999999998</v>
       </c>
       <c r="K5" t="s">
         <v>57</v>
       </c>
       <c r="P5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q5">
         <v>0.96299999999999997</v>
@@ -19991,39 +18932,39 @@
       <c r="G9" s="24">
         <v>0.90880000000000005</v>
       </c>
-      <c r="H9" s="45">
+      <c r="H9" s="40">
         <v>0.9516</v>
       </c>
-      <c r="I9" s="45">
+      <c r="I9" s="40">
         <v>0.91739999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="61">
+      <c r="A10" s="56">
         <v>0.2</v>
       </c>
-      <c r="B10" s="61">
+      <c r="B10" s="56">
         <v>0</v>
       </c>
-      <c r="C10" s="61">
+      <c r="C10" s="56">
         <v>0.5</v>
       </c>
-      <c r="D10" s="61">
+      <c r="D10" s="56">
         <v>0.2</v>
       </c>
-      <c r="E10" s="61">
+      <c r="E10" s="56">
         <v>0.8</v>
       </c>
-      <c r="F10" s="61">
+      <c r="F10" s="56">
         <v>0.1</v>
       </c>
-      <c r="G10" s="61">
+      <c r="G10" s="56">
         <v>0.1333</v>
       </c>
-      <c r="H10" s="61">
+      <c r="H10" s="56">
         <v>0.95720000000000005</v>
       </c>
-      <c r="I10" s="61">
+      <c r="I10" s="56">
         <v>0.93079999999999996</v>
       </c>
       <c r="K10" t="s">
@@ -20361,7 +19302,7 @@
       <c r="I22" s="24"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="32" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="3">
@@ -20388,7 +19329,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="32" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="3">
@@ -20565,6 +19506,160 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.70469999999999999</v>
+      </c>
+      <c r="C2">
+        <v>0.83589999999999998</v>
+      </c>
+      <c r="D2">
+        <v>0.57350000000000001</v>
+      </c>
+      <c r="E2">
+        <v>0.66390000000000005</v>
+      </c>
+      <c r="F2">
+        <v>0.73960000000000004</v>
+      </c>
+      <c r="G2">
+        <v>0.76629999999999998</v>
+      </c>
+      <c r="H2">
+        <v>0.73699999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.77059999999999995</v>
+      </c>
+      <c r="C3">
+        <v>0.85109999999999997</v>
+      </c>
+      <c r="D3">
+        <v>0.69010000000000005</v>
+      </c>
+      <c r="E3">
+        <v>0.7339</v>
+      </c>
+      <c r="F3">
+        <v>0.78769999999999996</v>
+      </c>
+      <c r="G3">
+        <v>0.82709999999999995</v>
+      </c>
+      <c r="H3">
+        <v>0.78580000000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>0.58320000000000005</v>
+      </c>
+      <c r="C4">
+        <v>0.94750000000000001</v>
+      </c>
+      <c r="D4">
+        <v>0.21879999999999999</v>
+      </c>
+      <c r="E4">
+        <v>0.55249999999999999</v>
+      </c>
+      <c r="F4">
+        <v>0.69569999999999999</v>
+      </c>
+      <c r="G4">
+        <v>0.58450000000000002</v>
+      </c>
+      <c r="H4">
+        <v>0.54979999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>0.73680000000000001</v>
+      </c>
+      <c r="C5">
+        <v>0.86050000000000004</v>
+      </c>
+      <c r="D5">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="E5">
+        <v>0.68979999999999997</v>
+      </c>
+      <c r="F5">
+        <v>0.76570000000000005</v>
+      </c>
+      <c r="G5">
+        <v>0.77690000000000003</v>
+      </c>
+      <c r="H5">
+        <v>0.7208</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -20573,10 +19668,14 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
@@ -20606,7 +19705,7 @@
       <c r="I1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="56" t="s">
+      <c r="K1" s="51" t="s">
         <v>49</v>
       </c>
     </row>

--- a/results/Hyperparameter_Tuning/Graph_Embedding_NN Classifier.xlsx
+++ b/results/Hyperparameter_Tuning/Graph_Embedding_NN Classifier.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14295" windowHeight="6645" firstSheet="3" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14295" windowHeight="6645" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="deepwalk" sheetId="16" r:id="rId1"/>
@@ -25,10 +25,9 @@
     <sheet name="node2vec_plus_nw10_wl20" sheetId="28" state="hidden" r:id="rId11"/>
     <sheet name="node2vec_plus_nw8_wl32" sheetId="29" r:id="rId12"/>
     <sheet name="nSNE" sheetId="36" r:id="rId13"/>
-    <sheet name="compute_edges" sheetId="35" r:id="rId14"/>
-    <sheet name="Summary" sheetId="17" state="hidden" r:id="rId15"/>
-    <sheet name="struc2vec_ExptVerified" sheetId="21" state="hidden" r:id="rId16"/>
-    <sheet name="G VS P" sheetId="30" r:id="rId17"/>
+    <sheet name="Summary" sheetId="17" state="hidden" r:id="rId14"/>
+    <sheet name="struc2vec_ExptVerified" sheetId="21" state="hidden" r:id="rId15"/>
+    <sheet name="G VS P" sheetId="30" r:id="rId16"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="99">
   <si>
     <t>Accuracy</t>
   </si>
@@ -340,33 +339,6 @@
     <t xml:space="preserve">  </t>
   </si>
   <si>
-    <t>Hadamard</t>
-  </si>
-  <si>
-    <t>Concatenation</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>However, hadamard maintain the original dimensions</t>
-  </si>
-  <si>
-    <t>while concatenation doubles it</t>
-  </si>
-  <si>
-    <t>Results of Hadamard and Concatenation comparable (except GraRep and VAE)</t>
-  </si>
-  <si>
-    <t>Therefore, for this work, we will choose hadamard</t>
-  </si>
-  <si>
-    <t>Exception: Sum/Avg on GraRep makes it comparable to other random walk methods</t>
-  </si>
-  <si>
     <t>K</t>
   </si>
 </sst>
@@ -594,7 +566,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -704,16 +676,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -779,7 +750,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1331,7 +1301,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1433,686 +1402,6 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-SG"/>
-              <a:t>Accuracy</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>compute_edges!$L$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Sum</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>compute_edges!$K$3:$K$11</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>LINE</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>SDNE</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>node2vec+</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>struc2vec</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>ripple2vec</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>node2vec</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Deepwalk</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>GraRep</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>VAE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>compute_edges!$L$3:$L$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.97199999999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.96430000000000005</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.93879999999999997</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.88790000000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.89959999999999996</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.78990000000000005</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.76390000000000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.88629999999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.68679999999999997</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B7A3-4C85-B5DE-460F119CE3E7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>compute_edges!$M$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Average</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>compute_edges!$K$3:$K$11</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>LINE</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>SDNE</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>node2vec+</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>struc2vec</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>ripple2vec</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>node2vec</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Deepwalk</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>GraRep</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>VAE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>compute_edges!$M$3:$M$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.97199999999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.96079999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.94059999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.87890000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.89329999999999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.7984</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.75919999999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.8861</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.67620000000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B7A3-4C85-B5DE-460F119CE3E7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>compute_edges!$N$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Hadamard</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>compute_edges!$K$3:$K$11</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>LINE</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>SDNE</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>node2vec+</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>struc2vec</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>ripple2vec</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>node2vec</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Deepwalk</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>GraRep</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>VAE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>compute_edges!$N$3:$N$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.99219999999999997</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.96230000000000004</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.94930000000000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.92259999999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.89419999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.86260000000000003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.84189999999999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.77059999999999995</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.60070000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B7A3-4C85-B5DE-460F119CE3E7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>compute_edges!$O$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Concatenation</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>compute_edges!$K$3:$K$11</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>LINE</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>SDNE</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>node2vec+</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>struc2vec</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>ripple2vec</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>node2vec</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Deepwalk</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>GraRep</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>VAE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>compute_edges!$O$3:$O$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.97650000000000003</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.96079999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.94040000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.91590000000000005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.90159999999999996</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.82669999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.86970000000000003</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.88970000000000005</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.69240000000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-B7A3-4C85-B5DE-460F119CE3E7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="181999520"/>
-        <c:axId val="181999936"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="181999520"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="181999936"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="181999936"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0.55000000000000004"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="181999520"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-SG"/>
               <a:t>Graph</a:t>
             </a:r>
             <a:r>
@@ -2123,7 +1412,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3098,7 +2386,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3206,46 +2493,6 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4304,509 +3551,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -4843,41 +3587,6 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -9128,8 +7837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27:I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9140,7 +7849,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>20</v>
@@ -9290,7 +7999,7 @@
       <c r="B6" s="10">
         <v>1</v>
       </c>
-      <c r="C6" s="81">
+      <c r="C6" s="78">
         <v>0.68630000000000002</v>
       </c>
       <c r="D6">
@@ -9302,13 +8011,13 @@
       <c r="F6">
         <v>0.66200000000000003</v>
       </c>
-      <c r="G6" s="81">
+      <c r="G6" s="78">
         <v>0.70830000000000004</v>
       </c>
-      <c r="H6" s="81">
+      <c r="H6" s="78">
         <v>0.74990000000000001</v>
       </c>
-      <c r="I6" s="81">
+      <c r="I6" s="78">
         <v>0.71050000000000002</v>
       </c>
     </row>
@@ -9800,7 +8509,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="82">
+      <c r="A27" s="79">
         <v>128</v>
       </c>
       <c r="B27" s="16">
@@ -9916,7 +8625,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="80" t="s">
+      <c r="B32" s="77" t="s">
         <v>22</v>
       </c>
       <c r="C32" s="3">
@@ -9940,7 +8649,7 @@
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="80" t="s">
+      <c r="B33" s="77" t="s">
         <v>23</v>
       </c>
       <c r="C33" s="3">
@@ -9969,1289 +8678,6 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R47"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="45.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0.99219999999999997</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0.99780000000000002</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0.98650000000000004</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0.98670000000000002</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0.99219999999999997</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0.99939999999999996</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0.99919999999999998</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="3">
-        <v>0.97199999999999998</v>
-      </c>
-      <c r="M3" s="3">
-        <v>0.97199999999999998</v>
-      </c>
-      <c r="N3" s="3">
-        <v>0.99219999999999997</v>
-      </c>
-      <c r="O3" s="3">
-        <v>0.97650000000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0.96230000000000004</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0.98829999999999996</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.93630000000000002</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0.93959999999999999</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0.96330000000000005</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0.99119999999999997</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0.98970000000000002</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="3">
-        <v>0.96430000000000005</v>
-      </c>
-      <c r="M4" s="3">
-        <v>0.96079999999999999</v>
-      </c>
-      <c r="N4" s="3">
-        <v>0.96230000000000004</v>
-      </c>
-      <c r="O4" s="3">
-        <v>0.96079999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0.94930000000000003</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0.97130000000000005</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0.9274</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0.93049999999999999</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0.95040000000000002</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0.98719999999999997</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0.98599999999999999</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="L5" s="3">
-        <v>0.93879999999999997</v>
-      </c>
-      <c r="M5" s="3">
-        <v>0.94059999999999999</v>
-      </c>
-      <c r="N5" s="3">
-        <v>0.94930000000000003</v>
-      </c>
-      <c r="O5" s="3">
-        <v>0.94040000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0.92259999999999998</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0.92830000000000001</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0.91700000000000004</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0.91800000000000004</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0.92310000000000003</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0.97140000000000004</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0.96799999999999997</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L6" s="3">
-        <v>0.88790000000000002</v>
-      </c>
-      <c r="M6" s="3">
-        <v>0.87890000000000001</v>
-      </c>
-      <c r="N6" s="3">
-        <v>0.92259999999999998</v>
-      </c>
-      <c r="O6" s="3">
-        <v>0.91590000000000005</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0.89419999999999999</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0.90669999999999995</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0.88160000000000005</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0.88470000000000004</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0.89549999999999996</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0.95020000000000004</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0.94410000000000005</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L7" s="3">
-        <v>0.89959999999999996</v>
-      </c>
-      <c r="M7" s="3">
-        <v>0.89329999999999998</v>
-      </c>
-      <c r="N7" s="3">
-        <v>0.89419999999999999</v>
-      </c>
-      <c r="O7" s="3">
-        <v>0.90159999999999996</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0.86260000000000003</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0.89639999999999997</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0.82869999999999999</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0.83940000000000003</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0.86680000000000001</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0.91239999999999999</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0.87180000000000002</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0.78990000000000005</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0.7984</v>
-      </c>
-      <c r="N8" s="2">
-        <v>0.86260000000000003</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0.82669999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0.84189999999999998</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0.85019999999999996</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0.83360000000000001</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0.83650000000000002</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0.84319999999999995</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0.90049999999999997</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0.88149999999999995</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L9" s="3">
-        <v>0.76390000000000002</v>
-      </c>
-      <c r="M9" s="3">
-        <v>0.75919999999999999</v>
-      </c>
-      <c r="N9" s="2">
-        <v>0.84189999999999998</v>
-      </c>
-      <c r="O9" s="3">
-        <v>0.86970000000000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="3">
-        <v>0.77059999999999995</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0.85109999999999997</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0.69010000000000005</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0.7339</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0.78769999999999996</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0.82709999999999995</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0.78580000000000005</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="77">
-        <v>0.88629999999999998</v>
-      </c>
-      <c r="M10" s="77">
-        <v>0.8861</v>
-      </c>
-      <c r="N10" s="3">
-        <v>0.77059999999999995</v>
-      </c>
-      <c r="O10" s="3">
-        <v>0.88970000000000005</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="3">
-        <v>0.60070000000000001</v>
-      </c>
-      <c r="C11" s="3">
-        <v>0.60270000000000001</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0.59870000000000001</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0.60109999999999997</v>
-      </c>
-      <c r="F11" s="3">
-        <v>0.59950000000000003</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0.63749999999999996</v>
-      </c>
-      <c r="H11" s="3">
-        <v>0.61270000000000002</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L11" s="3">
-        <v>0.68679999999999997</v>
-      </c>
-      <c r="M11" s="3">
-        <v>0.67620000000000002</v>
-      </c>
-      <c r="N11" s="3">
-        <v>0.60070000000000001</v>
-      </c>
-      <c r="O11" s="3">
-        <v>0.69240000000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="48" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="R14" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="3">
-        <v>0.97199999999999998</v>
-      </c>
-      <c r="C15" s="3">
-        <v>0.9839</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0.96009999999999995</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0.96109999999999995</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0.97230000000000005</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0.9929</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0.9849</v>
-      </c>
-      <c r="R15" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="3">
-        <v>0.96079999999999999</v>
-      </c>
-      <c r="C16" s="3">
-        <v>0.98029999999999995</v>
-      </c>
-      <c r="D16" s="3">
-        <v>0.94130000000000003</v>
-      </c>
-      <c r="E16" s="3">
-        <v>0.94350000000000001</v>
-      </c>
-      <c r="F16" s="3">
-        <v>0.96150000000000002</v>
-      </c>
-      <c r="G16" s="3">
-        <v>0.99029999999999996</v>
-      </c>
-      <c r="H16" s="3">
-        <v>0.98939999999999995</v>
-      </c>
-      <c r="R16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="3">
-        <v>0.94059999999999999</v>
-      </c>
-      <c r="C17" s="3">
-        <v>0.97529999999999994</v>
-      </c>
-      <c r="D17" s="3">
-        <v>0.90580000000000005</v>
-      </c>
-      <c r="E17" s="3">
-        <v>0.91210000000000002</v>
-      </c>
-      <c r="F17" s="3">
-        <v>0.94259999999999999</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0.98829999999999996</v>
-      </c>
-      <c r="H17" s="3">
-        <v>0.98770000000000002</v>
-      </c>
-      <c r="R17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3">
-        <v>0.87890000000000001</v>
-      </c>
-      <c r="C18" s="3">
-        <v>0.89419999999999999</v>
-      </c>
-      <c r="D18" s="3">
-        <v>0.86370000000000002</v>
-      </c>
-      <c r="E18" s="3">
-        <v>0.86890000000000001</v>
-      </c>
-      <c r="F18" s="3">
-        <v>0.88109999999999999</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0.94020000000000004</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0.92490000000000006</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" s="3">
-        <v>0.89329999999999998</v>
-      </c>
-      <c r="C19" s="3">
-        <v>0.89780000000000004</v>
-      </c>
-      <c r="D19" s="3">
-        <v>0.88880000000000003</v>
-      </c>
-      <c r="E19" s="3">
-        <v>0.88980000000000004</v>
-      </c>
-      <c r="F19" s="3">
-        <v>0.89380000000000004</v>
-      </c>
-      <c r="G19" s="3">
-        <v>0.95920000000000005</v>
-      </c>
-      <c r="H19" s="3">
-        <v>0.95909999999999995</v>
-      </c>
-      <c r="R19" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="3">
-        <v>0.7984</v>
-      </c>
-      <c r="C20" s="3">
-        <v>0.89910000000000001</v>
-      </c>
-      <c r="D20" s="3">
-        <v>0.69779999999999998</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0.77510000000000001</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0.82699999999999996</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0.84230000000000005</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0.81179999999999997</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="3">
-        <v>0.75919999999999999</v>
-      </c>
-      <c r="C21" s="3">
-        <v>0.70220000000000005</v>
-      </c>
-      <c r="D21" s="3">
-        <v>0.81610000000000005</v>
-      </c>
-      <c r="E21" s="3">
-        <v>0.76170000000000004</v>
-      </c>
-      <c r="F21" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="G21" s="3">
-        <v>0.82589999999999997</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0.81520000000000004</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="3">
-        <v>0.8861</v>
-      </c>
-      <c r="C22" s="3">
-        <v>0.91790000000000005</v>
-      </c>
-      <c r="D22" s="3">
-        <v>0.85429999999999995</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0.86329999999999996</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0.88970000000000005</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0.9536</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0.95269999999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="3">
-        <v>0.67620000000000002</v>
-      </c>
-      <c r="C23" s="3">
-        <v>0.72740000000000005</v>
-      </c>
-      <c r="D23" s="3">
-        <v>0.62509999999999999</v>
-      </c>
-      <c r="E23" s="3">
-        <v>0.66100000000000003</v>
-      </c>
-      <c r="F23" s="3">
-        <v>0.69179999999999997</v>
-      </c>
-      <c r="G23" s="3">
-        <v>0.71430000000000005</v>
-      </c>
-      <c r="H23" s="3">
-        <v>0.67030000000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="48" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="3">
-        <v>0.97199999999999998</v>
-      </c>
-      <c r="C27" s="3">
-        <v>0.9839</v>
-      </c>
-      <c r="D27" s="3">
-        <v>0.96009999999999995</v>
-      </c>
-      <c r="E27" s="3">
-        <v>0.96109999999999995</v>
-      </c>
-      <c r="F27" s="3">
-        <v>0.97230000000000005</v>
-      </c>
-      <c r="G27" s="3">
-        <v>0.99209999999999998</v>
-      </c>
-      <c r="H27" s="3">
-        <v>0.98529999999999995</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" s="3">
-        <v>0.96430000000000005</v>
-      </c>
-      <c r="C28" s="3">
-        <v>0.97440000000000004</v>
-      </c>
-      <c r="D28" s="3">
-        <v>0.95430000000000004</v>
-      </c>
-      <c r="E28" s="3">
-        <v>0.95520000000000005</v>
-      </c>
-      <c r="F28" s="3">
-        <v>0.9647</v>
-      </c>
-      <c r="G28" s="3">
-        <v>0.99350000000000005</v>
-      </c>
-      <c r="H28" s="3">
-        <v>0.99260000000000004</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B29" s="3">
-        <v>0.93879999999999997</v>
-      </c>
-      <c r="C29" s="3">
-        <v>0.97089999999999999</v>
-      </c>
-      <c r="D29" s="3">
-        <v>0.90669999999999995</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0.91249999999999998</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0.94069999999999998</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0.98719999999999997</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0.98650000000000004</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" s="3">
-        <v>0.88790000000000002</v>
-      </c>
-      <c r="C30" s="3">
-        <v>0.89780000000000004</v>
-      </c>
-      <c r="D30" s="3">
-        <v>0.878</v>
-      </c>
-      <c r="E30" s="3">
-        <v>0.88049999999999995</v>
-      </c>
-      <c r="F30" s="3">
-        <v>0.88900000000000001</v>
-      </c>
-      <c r="G30" s="3">
-        <v>0.94869999999999999</v>
-      </c>
-      <c r="H30" s="3">
-        <v>0.93510000000000004</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B31" s="3">
-        <v>0.89959999999999996</v>
-      </c>
-      <c r="C31" s="3">
-        <v>0.90669999999999995</v>
-      </c>
-      <c r="D31" s="3">
-        <v>0.89239999999999997</v>
-      </c>
-      <c r="E31" s="3">
-        <v>0.89390000000000003</v>
-      </c>
-      <c r="F31" s="3">
-        <v>0.90029999999999999</v>
-      </c>
-      <c r="G31" s="3">
-        <v>0.96220000000000006</v>
-      </c>
-      <c r="H31" s="3">
-        <v>0.96199999999999997</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B32" s="3">
-        <v>0.78990000000000005</v>
-      </c>
-      <c r="C32" s="3">
-        <v>0.9143</v>
-      </c>
-      <c r="D32" s="3">
-        <v>0.66549999999999998</v>
-      </c>
-      <c r="E32" s="3">
-        <v>0.76270000000000004</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0.8236</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0.84709999999999996</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0.82069999999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" s="3">
-        <v>0.76390000000000002</v>
-      </c>
-      <c r="C33" s="3">
-        <v>0.71209999999999996</v>
-      </c>
-      <c r="D33" s="3">
-        <v>0.81569999999999998</v>
-      </c>
-      <c r="E33" s="3">
-        <v>0.78659999999999997</v>
-      </c>
-      <c r="F33" s="3">
-        <v>0.69069999999999998</v>
-      </c>
-      <c r="G33" s="3">
-        <v>0.81930000000000003</v>
-      </c>
-      <c r="H33" s="3">
-        <v>0.81420000000000003</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" s="3">
-        <v>0.88629999999999998</v>
-      </c>
-      <c r="C34" s="3">
-        <v>0.92149999999999999</v>
-      </c>
-      <c r="D34" s="3">
-        <v>0.85109999999999997</v>
-      </c>
-      <c r="E34" s="3">
-        <v>0.86129999999999995</v>
-      </c>
-      <c r="F34" s="3">
-        <v>0.89029999999999998</v>
-      </c>
-      <c r="G34" s="3">
-        <v>0.95589999999999997</v>
-      </c>
-      <c r="H34" s="3">
-        <v>0.95230000000000004</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B35" s="3">
-        <v>0.68679999999999997</v>
-      </c>
-      <c r="C35" s="3">
-        <v>0.72289999999999999</v>
-      </c>
-      <c r="D35" s="3">
-        <v>0.65069999999999995</v>
-      </c>
-      <c r="E35" s="3">
-        <v>0.67500000000000004</v>
-      </c>
-      <c r="F35" s="3">
-        <v>0.69720000000000004</v>
-      </c>
-      <c r="G35" s="3">
-        <v>0.72870000000000001</v>
-      </c>
-      <c r="H35" s="3">
-        <v>0.67820000000000003</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="48" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="3">
-        <v>0.97650000000000003</v>
-      </c>
-      <c r="C39" s="3">
-        <v>0.98880000000000001</v>
-      </c>
-      <c r="D39" s="3">
-        <v>0.96409999999999996</v>
-      </c>
-      <c r="E39" s="3">
-        <v>0.96509999999999996</v>
-      </c>
-      <c r="F39" s="3">
-        <v>0.9768</v>
-      </c>
-      <c r="G39" s="3">
-        <v>0.99460000000000004</v>
-      </c>
-      <c r="H39" s="3">
-        <v>0.98839999999999995</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B40" s="3">
-        <v>0.96079999999999999</v>
-      </c>
-      <c r="C40" s="3">
-        <v>0.97850000000000004</v>
-      </c>
-      <c r="D40" s="3">
-        <v>0.94299999999999995</v>
-      </c>
-      <c r="E40" s="3">
-        <v>0.94540000000000002</v>
-      </c>
-      <c r="F40" s="3">
-        <v>0.96150000000000002</v>
-      </c>
-      <c r="G40" s="3">
-        <v>0.98740000000000006</v>
-      </c>
-      <c r="H40" s="3">
-        <v>0.98640000000000005</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B41" s="3">
-        <v>0.94040000000000001</v>
-      </c>
-      <c r="C41" s="3">
-        <v>0.97399999999999998</v>
-      </c>
-      <c r="D41" s="3">
-        <v>0.90669999999999995</v>
-      </c>
-      <c r="E41" s="3">
-        <v>0.91259999999999997</v>
-      </c>
-      <c r="F41" s="3">
-        <v>0.94230000000000003</v>
-      </c>
-      <c r="G41" s="3">
-        <v>0.98870000000000002</v>
-      </c>
-      <c r="H41" s="3">
-        <v>0.98839999999999995</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B42" s="3">
-        <v>0.91590000000000005</v>
-      </c>
-      <c r="C42" s="3">
-        <v>0.92200000000000004</v>
-      </c>
-      <c r="D42" s="3">
-        <v>0.90990000000000004</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0.91110000000000002</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0.91639999999999999</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0.96930000000000005</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0.9677</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B43" s="3">
-        <v>0.90159999999999996</v>
-      </c>
-      <c r="C43" s="3">
-        <v>0.90629999999999999</v>
-      </c>
-      <c r="D43" s="3">
-        <v>0.89690000000000003</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0.89790000000000003</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0.90200000000000002</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0.96419999999999995</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0.96309999999999996</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B44" s="3">
-        <v>0.82669999999999999</v>
-      </c>
-      <c r="C44" s="3">
-        <v>0.90669999999999995</v>
-      </c>
-      <c r="D44" s="3">
-        <v>0.74660000000000004</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0.81169999999999998</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0.8508</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0.87739999999999996</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0.8619</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B45" s="3">
-        <v>0.86970000000000003</v>
-      </c>
-      <c r="C45" s="3">
-        <v>0.88519999999999999</v>
-      </c>
-      <c r="D45" s="3">
-        <v>0.85429999999999995</v>
-      </c>
-      <c r="E45" s="3">
-        <v>0.85950000000000004</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0.87129999999999996</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0.93369999999999997</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0.91769999999999996</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B46" s="3">
-        <v>0.88970000000000005</v>
-      </c>
-      <c r="C46" s="3">
-        <v>0.91610000000000003</v>
-      </c>
-      <c r="D46" s="3">
-        <v>0.86319999999999997</v>
-      </c>
-      <c r="E46" s="3">
-        <v>0.87019999999999997</v>
-      </c>
-      <c r="F46" s="3">
-        <v>0.89259999999999995</v>
-      </c>
-      <c r="G46" s="3">
-        <v>0.9556</v>
-      </c>
-      <c r="H46" s="3">
-        <v>0.95279999999999998</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B47" s="3">
-        <v>0.69240000000000002</v>
-      </c>
-      <c r="C47" s="3">
-        <v>0.71699999999999997</v>
-      </c>
-      <c r="D47" s="3">
-        <v>0.66769999999999996</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0.68389999999999995</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0.69879999999999998</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0.7339</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0.68269999999999997</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q31"/>
   <sheetViews>
@@ -11859,7 +9285,7 @@
       <c r="I25" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="J25" s="78" t="s">
+      <c r="J25" s="80" t="s">
         <v>95</v>
       </c>
     </row>
@@ -11877,7 +9303,7 @@
       <c r="I26" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="J26" s="79"/>
+      <c r="J26" s="81"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
@@ -11893,7 +9319,7 @@
       <c r="I27" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J27" s="79"/>
+      <c r="J27" s="81"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
@@ -11909,7 +9335,7 @@
       <c r="I28" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="J28" s="79"/>
+      <c r="J28" s="81"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
@@ -11925,7 +9351,7 @@
       <c r="I29" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J29" s="79"/>
+      <c r="J29" s="81"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="76"/>
@@ -11942,7 +9368,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K39"/>
   <sheetViews>
@@ -12939,11 +10365,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
@@ -18513,7 +15939,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>

--- a/results/Hyperparameter_Tuning/Graph_Embedding_NN Classifier.xlsx
+++ b/results/Hyperparameter_Tuning/Graph_Embedding_NN Classifier.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14295" windowHeight="6645" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14295" windowHeight="6645" firstSheet="8" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="deepwalk" sheetId="16" r:id="rId1"/>
@@ -5043,7 +5043,7 @@
   <dimension ref="A1:P45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6980,8 +6980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15939,7 +15939,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
